--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Lexico" sheetId="1" r:id="rId1"/>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -3221,7 +3221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
@@ -7026,7 +7026,7 @@
   <dimension ref="A1:AE114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -7332,46 +7332,46 @@
         <v>400</v>
       </c>
       <c r="G4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>400</v>
       </c>
       <c r="L4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>400</v>
       </c>
       <c r="S4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>400</v>
@@ -7516,46 +7516,46 @@
         <v>400</v>
       </c>
       <c r="G6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>400</v>
       </c>
       <c r="L6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>400</v>
       </c>
       <c r="S6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>400</v>
@@ -8515,7 +8515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lexico" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -503,6 +503,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -870,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -3219,10 +3220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP45"/>
+  <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -6812,7 +6813,7 @@
         <v>600</v>
       </c>
       <c r="Z38" s="24">
-        <v>33</v>
+        <v>600</v>
       </c>
       <c r="AA38" s="24">
         <v>600</v>
@@ -6892,7 +6893,7 @@
         <v>600</v>
       </c>
       <c r="V39" s="24">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="W39" s="24">
         <v>600</v>
@@ -6904,7 +6905,7 @@
         <v>12</v>
       </c>
       <c r="Z39" s="24">
-        <v>600</v>
+        <v>33</v>
       </c>
       <c r="AA39" s="24">
         <v>600</v>
@@ -6993,7 +6994,7 @@
         <v>600</v>
       </c>
       <c r="Y40" s="24">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="Z40" s="24">
         <v>600</v>
@@ -7011,9 +7012,106 @@
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
+    <row r="41" spans="1:31">
+      <c r="A41" s="10">
+        <v>37</v>
+      </c>
+      <c r="B41" s="24">
+        <v>600</v>
+      </c>
+      <c r="C41" s="24">
+        <v>600</v>
+      </c>
+      <c r="D41" s="24">
+        <v>600</v>
+      </c>
+      <c r="E41" s="24">
+        <v>600</v>
+      </c>
+      <c r="F41" s="24">
+        <v>600</v>
+      </c>
+      <c r="G41" s="24">
+        <v>600</v>
+      </c>
+      <c r="H41" s="24">
+        <v>600</v>
+      </c>
+      <c r="I41" s="24">
+        <v>600</v>
+      </c>
+      <c r="J41" s="24">
+        <v>600</v>
+      </c>
+      <c r="K41" s="24">
+        <v>600</v>
+      </c>
+      <c r="L41" s="24">
+        <v>600</v>
+      </c>
+      <c r="M41" s="24">
+        <v>600</v>
+      </c>
+      <c r="N41" s="24">
+        <v>600</v>
+      </c>
+      <c r="O41" s="24">
+        <v>600</v>
+      </c>
+      <c r="P41" s="24">
+        <v>600</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>600</v>
+      </c>
+      <c r="R41" s="24">
+        <v>600</v>
+      </c>
+      <c r="S41" s="24">
+        <v>600</v>
+      </c>
+      <c r="T41" s="24">
+        <v>600</v>
+      </c>
+      <c r="U41" s="24">
+        <v>600</v>
+      </c>
+      <c r="V41" s="24">
+        <v>600</v>
+      </c>
+      <c r="W41" s="24">
+        <v>600</v>
+      </c>
+      <c r="X41" s="24">
+        <v>600</v>
+      </c>
+      <c r="Y41" s="24">
+        <v>600</v>
+      </c>
+      <c r="Z41" s="24">
+        <v>600</v>
+      </c>
+      <c r="AA41" s="24">
+        <v>600</v>
+      </c>
+      <c r="AB41" s="24">
+        <v>600</v>
+      </c>
+      <c r="AC41" s="24">
+        <v>600</v>
+      </c>
+      <c r="AD41" s="24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7023,10 +7121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE114"/>
+  <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -7038,593 +7136,648 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="6" t="s">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="6"/>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7">
+      <c r="AE2" s="6"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <v>100</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="6">
         <v>101</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="6">
         <v>102</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E3" s="6">
         <v>103</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F3" s="6">
         <v>104</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G3" s="6">
         <v>105</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H3" s="6">
         <v>106</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I3" s="6">
         <v>107</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J3" s="6">
         <v>108</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K3" s="6">
         <v>109</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L3" s="6">
         <v>110</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M3" s="6">
         <v>111</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N3" s="6">
         <v>112</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O3" s="6">
         <v>113</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P3" s="6">
         <v>114</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q3" s="6">
         <v>115</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R3" s="6">
         <v>116</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S3" s="6">
         <v>117</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T3" s="6">
         <v>118</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U3" s="6">
         <v>119</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V3" s="6">
         <v>120</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W3" s="6">
         <v>121</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X3" s="6">
         <v>122</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y3" s="6">
         <v>123</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z3" s="6">
         <v>124</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA3" s="6">
         <v>125</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB3" s="6">
         <v>126</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC3" s="6">
         <v>127</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD3" s="6">
         <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>600</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>600</v>
-      </c>
-      <c r="H3">
-        <v>600</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3">
-        <v>600</v>
-      </c>
-      <c r="K3">
-        <v>600</v>
-      </c>
-      <c r="L3">
-        <v>600</v>
-      </c>
-      <c r="M3">
-        <v>600</v>
-      </c>
-      <c r="N3">
-        <v>600</v>
-      </c>
-      <c r="O3">
-        <v>600</v>
-      </c>
-      <c r="P3">
-        <v>600</v>
-      </c>
-      <c r="Q3">
-        <v>600</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>600</v>
-      </c>
-      <c r="T3">
-        <v>600</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>600</v>
-      </c>
-      <c r="X3">
-        <v>400</v>
-      </c>
-      <c r="Y3">
-        <v>600</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>600</v>
-      </c>
-      <c r="AD3">
-        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>400</v>
-      </c>
-      <c r="C4">
-        <v>400</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
       <c r="E4">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
+        <v>600</v>
+      </c>
+      <c r="I4">
+        <v>600</v>
+      </c>
+      <c r="J4">
+        <v>600</v>
+      </c>
+      <c r="K4">
+        <v>600</v>
+      </c>
+      <c r="L4">
+        <v>600</v>
+      </c>
+      <c r="M4">
+        <v>600</v>
+      </c>
+      <c r="N4">
+        <v>600</v>
+      </c>
+      <c r="O4">
+        <v>600</v>
+      </c>
+      <c r="P4">
+        <v>600</v>
+      </c>
+      <c r="Q4">
+        <v>600</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>600</v>
+      </c>
+      <c r="T4">
+        <v>600</v>
+      </c>
+      <c r="U4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="V4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>400</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>400</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>400</v>
-      </c>
-      <c r="V4">
-        <v>400</v>
-      </c>
       <c r="W4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X4">
         <v>400</v>
       </c>
       <c r="Y4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Z4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AD4">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="S5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="W5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="X5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Y5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Z5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="AC5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AD5">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>600</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>600</v>
+      </c>
+      <c r="I6">
+        <v>600</v>
+      </c>
+      <c r="J6">
+        <v>600</v>
+      </c>
+      <c r="K6">
+        <v>600</v>
+      </c>
+      <c r="L6">
+        <v>600</v>
+      </c>
+      <c r="M6">
+        <v>600</v>
+      </c>
+      <c r="N6">
+        <v>600</v>
+      </c>
+      <c r="O6">
+        <v>600</v>
+      </c>
+      <c r="P6">
+        <v>600</v>
+      </c>
+      <c r="Q6">
+        <v>600</v>
+      </c>
+      <c r="R6">
+        <v>600</v>
+      </c>
+      <c r="S6">
+        <v>600</v>
+      </c>
+      <c r="T6">
+        <v>600</v>
+      </c>
+      <c r="U6">
+        <v>600</v>
+      </c>
+      <c r="V6">
+        <v>600</v>
+      </c>
+      <c r="W6">
+        <v>600</v>
+      </c>
+      <c r="X6">
+        <v>600</v>
+      </c>
+      <c r="Y6">
+        <v>600</v>
+      </c>
+      <c r="Z6">
+        <v>600</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>600</v>
+      </c>
+      <c r="AD6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>400</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>400</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>400</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>400</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>400</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>400</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>400</v>
       </c>
-      <c r="S6">
+      <c r="S7">
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="T7">
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <v>400</v>
       </c>
-      <c r="V6">
+      <c r="V7">
         <v>400</v>
       </c>
-      <c r="W6">
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="X7">
         <v>400</v>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <v>400</v>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <v>400</v>
       </c>
-      <c r="AA6">
+      <c r="AA7">
         <v>400</v>
       </c>
-      <c r="AB6">
+      <c r="AB7">
         <v>400</v>
       </c>
-      <c r="AC6">
+      <c r="AC7">
         <v>400</v>
       </c>
-      <c r="AD6">
+      <c r="AD7">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7658,7 +7811,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7692,7 +7845,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -7726,7 +7879,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -7755,12 +7908,12 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
-      <c r="AC11" s="14"/>
+      <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -7789,12 +7942,12 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
+      <c r="AC12" s="14"/>
       <c r="AD12" s="8"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -7828,7 +7981,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7862,7 +8015,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -7896,7 +8049,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -7930,7 +8083,7 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -7964,7 +8117,7 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -7998,7 +8151,7 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -8031,477 +8184,511 @@
       <c r="AD19" s="8"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20">
-        <v>17</v>
-      </c>
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:30">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
         <v>111</v>
       </c>
     </row>

--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>l</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>DO WHILE</t>
+  </si>
+  <si>
+    <t>37)endclass</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
   <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -3222,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -4174,7 +4177,7 @@
         <v>600</v>
       </c>
       <c r="Z10" s="15">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="AA10" s="15">
         <v>600</v>
@@ -4783,7 +4786,7 @@
         <v>75</v>
       </c>
       <c r="AP16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -7124,7 +7127,7 @@
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -7588,7 +7591,7 @@
         <v>400</v>
       </c>
       <c r="AD5">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -7599,7 +7602,7 @@
         <v>600</v>
       </c>
       <c r="C6">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -7772,7 +7775,7 @@
         <v>400</v>
       </c>
       <c r="AD7">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31">

--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Sintactico" sheetId="3" r:id="rId2"/>
     <sheet name="expresion" sheetId="6" r:id="rId3"/>
     <sheet name="Hoja1" sheetId="9" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
   <si>
     <t>l</t>
   </si>
@@ -266,6 +267,21 @@
   </si>
   <si>
     <t>37)endclass</t>
+  </si>
+  <si>
+    <t>edo</t>
+  </si>
+  <si>
+    <t>accion semantica</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Agrega un identificador a la tabla de simbolos</t>
+  </si>
+  <si>
+    <t>Agrega tipo en ap, incrementa apuntador en 1</t>
   </si>
 </sst>
 </file>
@@ -3225,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -8769,4 +8785,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>900</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>901</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Lexico" sheetId="1" r:id="rId1"/>
-    <sheet name="Sintactico" sheetId="3" r:id="rId2"/>
-    <sheet name="expresion" sheetId="6" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="9" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="10" r:id="rId5"/>
+    <sheet name="Predicitiva" sheetId="12" r:id="rId1"/>
+    <sheet name="Lexico" sheetId="1" r:id="rId2"/>
+    <sheet name="Sintactico" sheetId="3" r:id="rId3"/>
+    <sheet name="expresion" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="159">
   <si>
     <t>l</t>
   </si>
@@ -282,19 +283,239 @@
   </si>
   <si>
     <t>Agrega tipo en ap, incrementa apuntador en 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V                 T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>cte. Entera</t>
+  </si>
+  <si>
+    <t>cte. Real</t>
+  </si>
+  <si>
+    <t>cte. Cadena</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>PROGRAMA</t>
+  </si>
+  <si>
+    <t>CUERPO</t>
+  </si>
+  <si>
+    <t>DECLARACIONES</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AUX</t>
+  </si>
+  <si>
+    <t>LISTA DE IDENTIFICADORES</t>
+  </si>
+  <si>
+    <t>AUX1</t>
+  </si>
+  <si>
+    <t>TIPOS</t>
+  </si>
+  <si>
+    <t>ESTANDAR</t>
+  </si>
+  <si>
+    <t>PRINCIPAL</t>
+  </si>
+  <si>
+    <t>AUX2</t>
+  </si>
+  <si>
+    <t>ESTATUTOS</t>
+  </si>
+  <si>
+    <t>AUX3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>VECTORES</t>
+  </si>
+  <si>
+    <t>ESTATUTO</t>
+  </si>
+  <si>
+    <t>AUX4</t>
+  </si>
+  <si>
+    <t>CICLO REPETIR</t>
+  </si>
+  <si>
+    <t>CICLO PARA</t>
+  </si>
+  <si>
+    <t>CONTADOR</t>
+  </si>
+  <si>
+    <t>CICLO MIENTRAS</t>
+  </si>
+  <si>
+    <t>AUX6</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ENTRADA</t>
+  </si>
+  <si>
+    <t>AUX7</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SALIDA</t>
+  </si>
+  <si>
+    <t>AUX8</t>
+  </si>
+  <si>
+    <t>CONDICIONAL</t>
+  </si>
+  <si>
+    <t>AUX9</t>
+  </si>
+  <si>
+    <t>EXPRESION</t>
+  </si>
+  <si>
+    <t>AUX10</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>RELACIONAL</t>
+  </si>
+  <si>
+    <t>AUX11</t>
+  </si>
+  <si>
+    <t>TERMINO</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>FACTOR</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>edclass</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>strig</t>
+  </si>
+  <si>
+    <t>cte. Otacio</t>
+  </si>
+  <si>
+    <t>cte. Carácter</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>edif</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>edwhile</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>dowhile</t>
+  </si>
+  <si>
+    <t>eddo</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>declare</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,6 +568,37 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -458,50 +710,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -510,21 +763,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="35" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="35" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="36">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -560,10 +838,60 @@
     <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="35"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9528</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9528" y="9528"/>
+          <a:ext cx="2695573" cy="866773"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,6 +1216,2463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AU42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="247" width="11" style="33"/>
+    <col min="248" max="248" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="249" max="301" width="11" style="33"/>
+    <col min="302" max="302" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="303" max="503" width="11" style="33"/>
+    <col min="504" max="504" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="505" max="557" width="11" style="33"/>
+    <col min="558" max="558" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="559" max="759" width="11" style="33"/>
+    <col min="760" max="760" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="761" max="813" width="11" style="33"/>
+    <col min="814" max="814" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="815" max="1015" width="11" style="33"/>
+    <col min="1016" max="1016" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="1017" max="1069" width="11" style="33"/>
+    <col min="1070" max="1070" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1071" max="1271" width="11" style="33"/>
+    <col min="1272" max="1272" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="1273" max="1325" width="11" style="33"/>
+    <col min="1326" max="1326" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1327" max="1527" width="11" style="33"/>
+    <col min="1528" max="1528" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="1529" max="1581" width="11" style="33"/>
+    <col min="1582" max="1582" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1583" max="1783" width="11" style="33"/>
+    <col min="1784" max="1784" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="1785" max="1837" width="11" style="33"/>
+    <col min="1838" max="1838" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1839" max="2039" width="11" style="33"/>
+    <col min="2040" max="2040" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="2041" max="2093" width="11" style="33"/>
+    <col min="2094" max="2094" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2095" max="2295" width="11" style="33"/>
+    <col min="2296" max="2296" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="2297" max="2349" width="11" style="33"/>
+    <col min="2350" max="2350" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2351" max="2551" width="11" style="33"/>
+    <col min="2552" max="2552" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="2553" max="2605" width="11" style="33"/>
+    <col min="2606" max="2606" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2607" max="2807" width="11" style="33"/>
+    <col min="2808" max="2808" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="2809" max="2861" width="11" style="33"/>
+    <col min="2862" max="2862" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2863" max="3063" width="11" style="33"/>
+    <col min="3064" max="3064" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3065" max="3117" width="11" style="33"/>
+    <col min="3118" max="3118" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3119" max="3319" width="11" style="33"/>
+    <col min="3320" max="3320" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3321" max="3373" width="11" style="33"/>
+    <col min="3374" max="3374" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3375" max="3575" width="11" style="33"/>
+    <col min="3576" max="3576" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3577" max="3629" width="11" style="33"/>
+    <col min="3630" max="3630" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3631" max="3831" width="11" style="33"/>
+    <col min="3832" max="3832" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3833" max="3885" width="11" style="33"/>
+    <col min="3886" max="3886" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3887" max="4087" width="11" style="33"/>
+    <col min="4088" max="4088" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="4089" max="4141" width="11" style="33"/>
+    <col min="4142" max="4142" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4143" max="4343" width="11" style="33"/>
+    <col min="4344" max="4344" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="4345" max="4397" width="11" style="33"/>
+    <col min="4398" max="4398" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4399" max="4599" width="11" style="33"/>
+    <col min="4600" max="4600" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="4601" max="4653" width="11" style="33"/>
+    <col min="4654" max="4654" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4655" max="4855" width="11" style="33"/>
+    <col min="4856" max="4856" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="4857" max="4909" width="11" style="33"/>
+    <col min="4910" max="4910" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4911" max="5111" width="11" style="33"/>
+    <col min="5112" max="5112" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5113" max="5165" width="11" style="33"/>
+    <col min="5166" max="5166" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5167" max="5367" width="11" style="33"/>
+    <col min="5368" max="5368" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5369" max="5421" width="11" style="33"/>
+    <col min="5422" max="5422" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5423" max="5623" width="11" style="33"/>
+    <col min="5624" max="5624" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5625" max="5677" width="11" style="33"/>
+    <col min="5678" max="5678" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5679" max="5879" width="11" style="33"/>
+    <col min="5880" max="5880" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5881" max="5933" width="11" style="33"/>
+    <col min="5934" max="5934" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5935" max="6135" width="11" style="33"/>
+    <col min="6136" max="6136" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="6137" max="6189" width="11" style="33"/>
+    <col min="6190" max="6190" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6191" max="6391" width="11" style="33"/>
+    <col min="6392" max="6392" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="6393" max="6445" width="11" style="33"/>
+    <col min="6446" max="6446" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6447" max="6647" width="11" style="33"/>
+    <col min="6648" max="6648" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="6649" max="6701" width="11" style="33"/>
+    <col min="6702" max="6702" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6703" max="6903" width="11" style="33"/>
+    <col min="6904" max="6904" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="6905" max="6957" width="11" style="33"/>
+    <col min="6958" max="6958" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6959" max="7159" width="11" style="33"/>
+    <col min="7160" max="7160" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="7161" max="7213" width="11" style="33"/>
+    <col min="7214" max="7214" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7215" max="7415" width="11" style="33"/>
+    <col min="7416" max="7416" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="7417" max="7469" width="11" style="33"/>
+    <col min="7470" max="7470" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7471" max="7671" width="11" style="33"/>
+    <col min="7672" max="7672" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="7673" max="7725" width="11" style="33"/>
+    <col min="7726" max="7726" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7727" max="7927" width="11" style="33"/>
+    <col min="7928" max="7928" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="7929" max="7981" width="11" style="33"/>
+    <col min="7982" max="7982" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7983" max="8183" width="11" style="33"/>
+    <col min="8184" max="8184" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="8185" max="8237" width="11" style="33"/>
+    <col min="8238" max="8238" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8239" max="8439" width="11" style="33"/>
+    <col min="8440" max="8440" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="8441" max="8493" width="11" style="33"/>
+    <col min="8494" max="8494" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8495" max="8695" width="11" style="33"/>
+    <col min="8696" max="8696" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="8697" max="8749" width="11" style="33"/>
+    <col min="8750" max="8750" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8751" max="8951" width="11" style="33"/>
+    <col min="8952" max="8952" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="8953" max="9005" width="11" style="33"/>
+    <col min="9006" max="9006" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9007" max="9207" width="11" style="33"/>
+    <col min="9208" max="9208" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9209" max="9261" width="11" style="33"/>
+    <col min="9262" max="9262" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9263" max="9463" width="11" style="33"/>
+    <col min="9464" max="9464" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9465" max="9517" width="11" style="33"/>
+    <col min="9518" max="9518" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9519" max="9719" width="11" style="33"/>
+    <col min="9720" max="9720" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9721" max="9773" width="11" style="33"/>
+    <col min="9774" max="9774" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9775" max="9975" width="11" style="33"/>
+    <col min="9976" max="9976" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9977" max="10029" width="11" style="33"/>
+    <col min="10030" max="10030" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10031" max="10231" width="11" style="33"/>
+    <col min="10232" max="10232" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10233" max="10285" width="11" style="33"/>
+    <col min="10286" max="10286" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10287" max="10487" width="11" style="33"/>
+    <col min="10488" max="10488" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10489" max="10541" width="11" style="33"/>
+    <col min="10542" max="10542" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10543" max="10743" width="11" style="33"/>
+    <col min="10744" max="10744" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10745" max="10797" width="11" style="33"/>
+    <col min="10798" max="10798" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10799" max="10999" width="11" style="33"/>
+    <col min="11000" max="11000" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="11001" max="11053" width="11" style="33"/>
+    <col min="11054" max="11054" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11055" max="11255" width="11" style="33"/>
+    <col min="11256" max="11256" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="11257" max="11309" width="11" style="33"/>
+    <col min="11310" max="11310" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11311" max="11511" width="11" style="33"/>
+    <col min="11512" max="11512" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="11513" max="11565" width="11" style="33"/>
+    <col min="11566" max="11566" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11567" max="11767" width="11" style="33"/>
+    <col min="11768" max="11768" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="11769" max="11821" width="11" style="33"/>
+    <col min="11822" max="11822" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11823" max="12023" width="11" style="33"/>
+    <col min="12024" max="12024" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="12025" max="12077" width="11" style="33"/>
+    <col min="12078" max="12078" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12079" max="12279" width="11" style="33"/>
+    <col min="12280" max="12280" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="12281" max="12333" width="11" style="33"/>
+    <col min="12334" max="12334" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12335" max="12535" width="11" style="33"/>
+    <col min="12536" max="12536" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="12537" max="12589" width="11" style="33"/>
+    <col min="12590" max="12590" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12591" max="12791" width="11" style="33"/>
+    <col min="12792" max="12792" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="12793" max="12845" width="11" style="33"/>
+    <col min="12846" max="12846" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12847" max="13047" width="11" style="33"/>
+    <col min="13048" max="13048" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="13049" max="13101" width="11" style="33"/>
+    <col min="13102" max="13102" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13103" max="13303" width="11" style="33"/>
+    <col min="13304" max="13304" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="13305" max="13357" width="11" style="33"/>
+    <col min="13358" max="13358" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13359" max="13559" width="11" style="33"/>
+    <col min="13560" max="13560" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="13561" max="13613" width="11" style="33"/>
+    <col min="13614" max="13614" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13615" max="13815" width="11" style="33"/>
+    <col min="13816" max="13816" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="13817" max="13869" width="11" style="33"/>
+    <col min="13870" max="13870" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13871" max="14071" width="11" style="33"/>
+    <col min="14072" max="14072" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="14073" max="14125" width="11" style="33"/>
+    <col min="14126" max="14126" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14127" max="14327" width="11" style="33"/>
+    <col min="14328" max="14328" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="14329" max="14381" width="11" style="33"/>
+    <col min="14382" max="14382" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14383" max="14583" width="11" style="33"/>
+    <col min="14584" max="14584" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="14585" max="14637" width="11" style="33"/>
+    <col min="14638" max="14638" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14639" max="14839" width="11" style="33"/>
+    <col min="14840" max="14840" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="14841" max="14893" width="11" style="33"/>
+    <col min="14894" max="14894" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14895" max="15095" width="11" style="33"/>
+    <col min="15096" max="15096" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="15097" max="15149" width="11" style="33"/>
+    <col min="15150" max="15150" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="15151" max="15351" width="11" style="33"/>
+    <col min="15352" max="15352" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="15353" max="15405" width="11" style="33"/>
+    <col min="15406" max="15406" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="15407" max="15607" width="11" style="33"/>
+    <col min="15608" max="15608" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="15609" max="15661" width="11" style="33"/>
+    <col min="15662" max="15662" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="15663" max="15863" width="11" style="33"/>
+    <col min="15864" max="15864" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="15865" max="15917" width="11" style="33"/>
+    <col min="15918" max="15918" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="15919" max="16119" width="11" style="33"/>
+    <col min="16120" max="16120" width="35.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="16121" max="16173" width="11" style="33"/>
+    <col min="16174" max="16174" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="16175" max="16384" width="11" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU1" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+    </row>
+    <row r="3" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+    </row>
+    <row r="4" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+    </row>
+    <row r="5" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A5" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+    </row>
+    <row r="6" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A6" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+    </row>
+    <row r="7" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A7" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+    </row>
+    <row r="8" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+    </row>
+    <row r="9" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+    </row>
+    <row r="10" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A10" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+    </row>
+    <row r="11" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+    </row>
+    <row r="12" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+    </row>
+    <row r="13" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+    </row>
+    <row r="14" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A14" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+    </row>
+    <row r="15" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A15" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+    </row>
+    <row r="16" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A16" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+    </row>
+    <row r="17" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A17" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+    </row>
+    <row r="18" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A18" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+    </row>
+    <row r="19" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+    </row>
+    <row r="20" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A20" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+    </row>
+    <row r="21" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+    </row>
+    <row r="22" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+    </row>
+    <row r="23" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A23" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+    </row>
+    <row r="24" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A24" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+    </row>
+    <row r="25" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A25" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+    </row>
+    <row r="26" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A26" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+    </row>
+    <row r="27" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A27" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+    </row>
+    <row r="28" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A28" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+    </row>
+    <row r="29" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A29" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+    </row>
+    <row r="30" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A30" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+    </row>
+    <row r="31" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A31" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="32"/>
+      <c r="AQ31" s="32"/>
+      <c r="AR31" s="32"/>
+      <c r="AS31" s="32"/>
+      <c r="AT31" s="32"/>
+      <c r="AU31" s="32"/>
+    </row>
+    <row r="32" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A32" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="32"/>
+      <c r="AR32" s="32"/>
+      <c r="AS32" s="32"/>
+      <c r="AT32" s="32"/>
+      <c r="AU32" s="32"/>
+    </row>
+    <row r="33" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A33" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="32"/>
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="32"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="32"/>
+      <c r="AU33" s="32"/>
+    </row>
+    <row r="34" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32"/>
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="32"/>
+      <c r="AU34" s="32"/>
+    </row>
+    <row r="35" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A35" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="32"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="32"/>
+      <c r="AU35" s="32"/>
+    </row>
+    <row r="36" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A36" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="32"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="32"/>
+    </row>
+    <row r="37" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A37" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="32"/>
+      <c r="AQ37" s="32"/>
+      <c r="AR37" s="32"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="32"/>
+      <c r="AU37" s="32"/>
+    </row>
+    <row r="38" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A38" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="32"/>
+      <c r="AP38" s="32"/>
+      <c r="AQ38" s="32"/>
+      <c r="AR38" s="32"/>
+      <c r="AS38" s="32"/>
+      <c r="AT38" s="32"/>
+      <c r="AU38" s="32"/>
+    </row>
+    <row r="39" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A39" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="32"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="32"/>
+      <c r="AK39" s="32"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="32"/>
+      <c r="AO39" s="32"/>
+      <c r="AP39" s="32"/>
+      <c r="AQ39" s="32"/>
+      <c r="AR39" s="32"/>
+      <c r="AS39" s="32"/>
+      <c r="AT39" s="32"/>
+      <c r="AU39" s="32"/>
+    </row>
+    <row r="40" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A40" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="32"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+    </row>
+    <row r="41" spans="1:47" ht="24.75" customHeight="1">
+      <c r="A41" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="32"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="32"/>
+      <c r="AO41" s="32"/>
+      <c r="AP41" s="32"/>
+      <c r="AQ41" s="32"/>
+      <c r="AR41" s="32"/>
+      <c r="AS41" s="32"/>
+      <c r="AT41" s="32"/>
+      <c r="AU41" s="32"/>
+    </row>
+    <row r="42" spans="1:47" ht="24.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3237,11 +6022,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
@@ -7138,7 +9923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE115"/>
   <sheetViews>
@@ -8717,7 +11502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -8787,7 +11572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose\Documents\GitHub\compiler-intepreter\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
@@ -501,8 +506,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -842,6 +847,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1215,14 +1228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="247" width="11" style="33"/>
@@ -1480,7 +1493,7 @@
     <col min="16175" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="30" customFormat="1" ht="69" customHeight="1">
+    <row r="1" spans="1:47" s="30" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>88</v>
       </c>
@@ -1623,7 +1636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="24.75" customHeight="1">
+    <row r="2" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>98</v>
       </c>
@@ -1674,7 +1687,7 @@
       <c r="AT2" s="32"/>
       <c r="AU2" s="32"/>
     </row>
-    <row r="3" spans="1:47" ht="24.75" customHeight="1">
+    <row r="3" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>99</v>
       </c>
@@ -1725,7 +1738,7 @@
       <c r="AT3" s="32"/>
       <c r="AU3" s="32"/>
     </row>
-    <row r="4" spans="1:47" ht="24.75" customHeight="1">
+    <row r="4" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>100</v>
       </c>
@@ -1776,7 +1789,7 @@
       <c r="AT4" s="32"/>
       <c r="AU4" s="32"/>
     </row>
-    <row r="5" spans="1:47" ht="24.75" customHeight="1">
+    <row r="5" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>101</v>
       </c>
@@ -1827,7 +1840,7 @@
       <c r="AT5" s="32"/>
       <c r="AU5" s="32"/>
     </row>
-    <row r="6" spans="1:47" ht="24.75" customHeight="1">
+    <row r="6" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>102</v>
       </c>
@@ -1878,7 +1891,7 @@
       <c r="AT6" s="32"/>
       <c r="AU6" s="32"/>
     </row>
-    <row r="7" spans="1:47" ht="24.75" customHeight="1">
+    <row r="7" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>103</v>
       </c>
@@ -1929,7 +1942,7 @@
       <c r="AT7" s="32"/>
       <c r="AU7" s="32"/>
     </row>
-    <row r="8" spans="1:47" ht="24.75" customHeight="1">
+    <row r="8" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>104</v>
       </c>
@@ -1980,7 +1993,7 @@
       <c r="AT8" s="32"/>
       <c r="AU8" s="32"/>
     </row>
-    <row r="9" spans="1:47" ht="24.75" customHeight="1">
+    <row r="9" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>105</v>
       </c>
@@ -2031,7 +2044,7 @@
       <c r="AT9" s="32"/>
       <c r="AU9" s="32"/>
     </row>
-    <row r="10" spans="1:47" ht="24.75" customHeight="1">
+    <row r="10" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>106</v>
       </c>
@@ -2082,7 +2095,7 @@
       <c r="AT10" s="32"/>
       <c r="AU10" s="32"/>
     </row>
-    <row r="11" spans="1:47" ht="24.75" customHeight="1">
+    <row r="11" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>107</v>
       </c>
@@ -2133,7 +2146,7 @@
       <c r="AT11" s="32"/>
       <c r="AU11" s="32"/>
     </row>
-    <row r="12" spans="1:47" ht="24.75" customHeight="1">
+    <row r="12" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>108</v>
       </c>
@@ -2184,7 +2197,7 @@
       <c r="AT12" s="32"/>
       <c r="AU12" s="32"/>
     </row>
-    <row r="13" spans="1:47" ht="24.75" customHeight="1">
+    <row r="13" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>109</v>
       </c>
@@ -2235,7 +2248,7 @@
       <c r="AT13" s="32"/>
       <c r="AU13" s="32"/>
     </row>
-    <row r="14" spans="1:47" ht="24.75" customHeight="1">
+    <row r="14" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>110</v>
       </c>
@@ -2286,7 +2299,7 @@
       <c r="AT14" s="32"/>
       <c r="AU14" s="32"/>
     </row>
-    <row r="15" spans="1:47" ht="24.75" customHeight="1">
+    <row r="15" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>111</v>
       </c>
@@ -2337,7 +2350,7 @@
       <c r="AT15" s="32"/>
       <c r="AU15" s="32"/>
     </row>
-    <row r="16" spans="1:47" ht="24.75" customHeight="1">
+    <row r="16" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>112</v>
       </c>
@@ -2388,7 +2401,7 @@
       <c r="AT16" s="32"/>
       <c r="AU16" s="32"/>
     </row>
-    <row r="17" spans="1:47" ht="24.75" customHeight="1">
+    <row r="17" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>113</v>
       </c>
@@ -2439,7 +2452,7 @@
       <c r="AT17" s="32"/>
       <c r="AU17" s="32"/>
     </row>
-    <row r="18" spans="1:47" ht="24.75" customHeight="1">
+    <row r="18" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>114</v>
       </c>
@@ -2490,7 +2503,7 @@
       <c r="AT18" s="32"/>
       <c r="AU18" s="32"/>
     </row>
-    <row r="19" spans="1:47" ht="24.75" customHeight="1">
+    <row r="19" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>53</v>
       </c>
@@ -2541,7 +2554,7 @@
       <c r="AT19" s="32"/>
       <c r="AU19" s="32"/>
     </row>
-    <row r="20" spans="1:47" ht="24.75" customHeight="1">
+    <row r="20" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>115</v>
       </c>
@@ -2592,7 +2605,7 @@
       <c r="AT20" s="32"/>
       <c r="AU20" s="32"/>
     </row>
-    <row r="21" spans="1:47" ht="24.75" customHeight="1">
+    <row r="21" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>116</v>
       </c>
@@ -2643,7 +2656,7 @@
       <c r="AT21" s="32"/>
       <c r="AU21" s="32"/>
     </row>
-    <row r="22" spans="1:47" ht="24.75" customHeight="1">
+    <row r="22" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>117</v>
       </c>
@@ -2694,7 +2707,7 @@
       <c r="AT22" s="32"/>
       <c r="AU22" s="32"/>
     </row>
-    <row r="23" spans="1:47" ht="24.75" customHeight="1">
+    <row r="23" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>118</v>
       </c>
@@ -2745,7 +2758,7 @@
       <c r="AT23" s="32"/>
       <c r="AU23" s="32"/>
     </row>
-    <row r="24" spans="1:47" ht="24.75" customHeight="1">
+    <row r="24" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>119</v>
       </c>
@@ -2796,7 +2809,7 @@
       <c r="AT24" s="32"/>
       <c r="AU24" s="32"/>
     </row>
-    <row r="25" spans="1:47" ht="24.75" customHeight="1">
+    <row r="25" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>120</v>
       </c>
@@ -2847,7 +2860,7 @@
       <c r="AT25" s="32"/>
       <c r="AU25" s="32"/>
     </row>
-    <row r="26" spans="1:47" ht="24.75" customHeight="1">
+    <row r="26" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>121</v>
       </c>
@@ -2898,7 +2911,7 @@
       <c r="AT26" s="32"/>
       <c r="AU26" s="32"/>
     </row>
-    <row r="27" spans="1:47" ht="24.75" customHeight="1">
+    <row r="27" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>122</v>
       </c>
@@ -2949,7 +2962,7 @@
       <c r="AT27" s="32"/>
       <c r="AU27" s="32"/>
     </row>
-    <row r="28" spans="1:47" ht="24.75" customHeight="1">
+    <row r="28" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>123</v>
       </c>
@@ -3000,7 +3013,7 @@
       <c r="AT28" s="32"/>
       <c r="AU28" s="32"/>
     </row>
-    <row r="29" spans="1:47" ht="24.75" customHeight="1">
+    <row r="29" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>124</v>
       </c>
@@ -3051,7 +3064,7 @@
       <c r="AT29" s="32"/>
       <c r="AU29" s="32"/>
     </row>
-    <row r="30" spans="1:47" ht="24.75" customHeight="1">
+    <row r="30" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>125</v>
       </c>
@@ -3102,7 +3115,7 @@
       <c r="AT30" s="32"/>
       <c r="AU30" s="32"/>
     </row>
-    <row r="31" spans="1:47" ht="24.75" customHeight="1">
+    <row r="31" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>126</v>
       </c>
@@ -3153,7 +3166,7 @@
       <c r="AT31" s="32"/>
       <c r="AU31" s="32"/>
     </row>
-    <row r="32" spans="1:47" ht="24.75" customHeight="1">
+    <row r="32" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>127</v>
       </c>
@@ -3204,7 +3217,7 @@
       <c r="AT32" s="32"/>
       <c r="AU32" s="32"/>
     </row>
-    <row r="33" spans="1:47" ht="24.75" customHeight="1">
+    <row r="33" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>128</v>
       </c>
@@ -3255,7 +3268,7 @@
       <c r="AT33" s="32"/>
       <c r="AU33" s="32"/>
     </row>
-    <row r="34" spans="1:47" ht="24.75" customHeight="1">
+    <row r="34" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>129</v>
       </c>
@@ -3306,7 +3319,7 @@
       <c r="AT34" s="32"/>
       <c r="AU34" s="32"/>
     </row>
-    <row r="35" spans="1:47" ht="24.75" customHeight="1">
+    <row r="35" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>130</v>
       </c>
@@ -3357,7 +3370,7 @@
       <c r="AT35" s="32"/>
       <c r="AU35" s="32"/>
     </row>
-    <row r="36" spans="1:47" ht="24.75" customHeight="1">
+    <row r="36" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>131</v>
       </c>
@@ -3408,7 +3421,7 @@
       <c r="AT36" s="32"/>
       <c r="AU36" s="32"/>
     </row>
-    <row r="37" spans="1:47" ht="24.75" customHeight="1">
+    <row r="37" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>132</v>
       </c>
@@ -3459,7 +3472,7 @@
       <c r="AT37" s="32"/>
       <c r="AU37" s="32"/>
     </row>
-    <row r="38" spans="1:47" ht="24.75" customHeight="1">
+    <row r="38" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>133</v>
       </c>
@@ -3510,7 +3523,7 @@
       <c r="AT38" s="32"/>
       <c r="AU38" s="32"/>
     </row>
-    <row r="39" spans="1:47" ht="24.75" customHeight="1">
+    <row r="39" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>134</v>
       </c>
@@ -3561,7 +3574,7 @@
       <c r="AT39" s="32"/>
       <c r="AU39" s="32"/>
     </row>
-    <row r="40" spans="1:47" ht="24.75" customHeight="1">
+    <row r="40" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>135</v>
       </c>
@@ -3612,7 +3625,7 @@
       <c r="AT40" s="32"/>
       <c r="AU40" s="32"/>
     </row>
-    <row r="41" spans="1:47" ht="24.75" customHeight="1">
+    <row r="41" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>136</v>
       </c>
@@ -3663,7 +3676,7 @@
       <c r="AT41" s="32"/>
       <c r="AU41" s="32"/>
     </row>
-    <row r="42" spans="1:47" ht="24.75" customHeight="1"/>
+    <row r="42" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3672,14 +3685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="3" bestFit="1" customWidth="1"/>
@@ -3690,7 +3703,7 @@
     <col min="31" max="31" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>0</v>
       </c>
@@ -3782,7 +3795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1">
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -3875,7 +3888,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3973,7 +3986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4071,7 +4084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4169,7 +4182,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4267,7 +4280,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4365,7 +4378,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4463,7 +4476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4561,7 +4574,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4659,7 +4672,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4757,7 +4770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4855,7 +4868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4953,7 +4966,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5051,7 +5064,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5149,7 +5162,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5247,7 +5260,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5345,7 +5358,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5443,7 +5456,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5541,7 +5554,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5639,7 +5652,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5737,7 +5750,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5835,7 +5848,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5849,7 +5862,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5863,7 +5876,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5877,7 +5890,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -5888,7 +5901,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -5899,7 +5912,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -5910,7 +5923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -5921,97 +5934,97 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>46</v>
       </c>
@@ -6023,14 +6036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="30" width="4.625" customWidth="1"/>
@@ -6044,7 +6057,7 @@
     <col min="40" max="41" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -6133,7 +6146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
@@ -6228,7 +6241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11">
         <v>100</v>
@@ -6319,7 +6332,7 @@
       </c>
       <c r="AE3" s="6"/>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -6414,7 +6427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6506,7 +6519,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -6598,7 +6611,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -6690,7 +6703,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -6809,7 +6822,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -6901,7 +6914,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -6996,7 +7009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -7088,7 +7101,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -7180,7 +7193,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -7275,7 +7288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -7370,7 +7383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -7462,7 +7475,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -7590,7 +7603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -7685,7 +7698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -7777,7 +7790,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -7869,7 +7882,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -7961,7 +7974,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>17</v>
       </c>
@@ -8053,7 +8066,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>18</v>
       </c>
@@ -8145,7 +8158,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>19</v>
       </c>
@@ -8240,7 +8253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -8332,7 +8345,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>21</v>
       </c>
@@ -8424,7 +8437,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -8516,7 +8529,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>23</v>
       </c>
@@ -8611,7 +8624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>24</v>
       </c>
@@ -8703,7 +8716,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>25</v>
       </c>
@@ -8795,7 +8808,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>26</v>
       </c>
@@ -8887,7 +8900,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>27</v>
       </c>
@@ -8982,7 +8995,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>28</v>
       </c>
@@ -9077,7 +9090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>29</v>
       </c>
@@ -9169,7 +9182,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>30</v>
       </c>
@@ -9261,7 +9274,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>31</v>
       </c>
@@ -9353,7 +9366,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>32</v>
       </c>
@@ -9448,7 +9461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>33</v>
       </c>
@@ -9540,7 +9553,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>34</v>
       </c>
@@ -9632,7 +9645,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>35</v>
       </c>
@@ -9724,7 +9737,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>36</v>
       </c>
@@ -9816,7 +9829,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>37</v>
       </c>
@@ -9908,12 +9921,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
     </row>
@@ -9924,14 +9937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="29" width="4.625" customWidth="1"/>
@@ -9939,7 +9952,7 @@
     <col min="31" max="31" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -10028,7 +10041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -10121,7 +10134,7 @@
       </c>
       <c r="AE2" s="6"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>100</v>
@@ -10211,7 +10224,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10303,7 +10316,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10395,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10487,7 +10500,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10579,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -10613,7 +10626,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -10647,7 +10660,7 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -10681,7 +10694,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -10715,7 +10728,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -10749,7 +10762,7 @@
       <c r="AC12" s="14"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -10783,7 +10796,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -10817,7 +10830,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -10851,7 +10864,7 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -10885,7 +10898,7 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -10919,7 +10932,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -10953,7 +10966,7 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -10987,7 +11000,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -11021,477 +11034,477 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>111</v>
       </c>
@@ -11503,16 +11516,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>300</v>
       </c>
@@ -11523,7 +11536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>301</v>
       </c>
@@ -11534,7 +11547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>302</v>
       </c>
@@ -11545,7 +11558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>303</v>
       </c>
@@ -11556,7 +11569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>304</v>
       </c>
@@ -11573,21 +11586,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -11598,7 +11611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -11609,7 +11622,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>

--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose\Documents\GitHub\compiler-intepreter\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="16420" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Predicitiva" sheetId="12" r:id="rId1"/>
@@ -20,11 +15,16 @@
     <sheet name="Hoja2" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="160">
   <si>
     <t>l</t>
   </si>
@@ -320,36 +320,9 @@
     <t>$</t>
   </si>
   <si>
-    <t>PROGRAMA</t>
-  </si>
-  <si>
-    <t>CUERPO</t>
-  </si>
-  <si>
-    <t>DECLARACIONES</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>AUX</t>
   </si>
   <si>
-    <t>LISTA DE IDENTIFICADORES</t>
-  </si>
-  <si>
-    <t>AUX1</t>
-  </si>
-  <si>
-    <t>TIPOS</t>
-  </si>
-  <si>
-    <t>ESTANDAR</t>
-  </si>
-  <si>
-    <t>PRINCIPAL</t>
-  </si>
-  <si>
     <t>AUX2</t>
   </si>
   <si>
@@ -365,78 +338,30 @@
     <t>B</t>
   </si>
   <si>
-    <t>VECTORES</t>
-  </si>
-  <si>
-    <t>ESTATUTO</t>
-  </si>
-  <si>
     <t>AUX4</t>
   </si>
   <si>
-    <t>CICLO REPETIR</t>
-  </si>
-  <si>
-    <t>CICLO PARA</t>
-  </si>
-  <si>
-    <t>CONTADOR</t>
-  </si>
-  <si>
-    <t>CICLO MIENTRAS</t>
-  </si>
-  <si>
     <t>AUX6</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>ENTRADA</t>
-  </si>
-  <si>
     <t>AUX7</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SALIDA</t>
-  </si>
-  <si>
     <t>AUX8</t>
   </si>
   <si>
-    <t>CONDICIONAL</t>
-  </si>
-  <si>
     <t>AUX9</t>
   </si>
   <si>
-    <t>EXPRESION</t>
-  </si>
-  <si>
     <t>AUX10</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>RELACIONAL</t>
-  </si>
-  <si>
     <t>AUX11</t>
   </si>
   <si>
-    <t>TERMINO</t>
-  </si>
-  <si>
-    <t>VARIABLE</t>
-  </si>
-  <si>
-    <t>FACTOR</t>
-  </si>
-  <si>
     <t>==</t>
   </si>
   <si>
@@ -449,18 +374,12 @@
     <t>edclass</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
     <t>char</t>
   </si>
   <si>
-    <t>strig</t>
-  </si>
-  <si>
     <t>cte. Otacio</t>
   </si>
   <si>
@@ -473,9 +392,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>edif</t>
-  </si>
-  <si>
     <t>while</t>
   </si>
   <si>
@@ -488,9 +404,6 @@
     <t>dowhile</t>
   </si>
   <si>
-    <t>eddo</t>
-  </si>
-  <si>
     <t>read</t>
   </si>
   <si>
@@ -501,19 +414,108 @@
   </si>
   <si>
     <t>of</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>DECLARA</t>
+  </si>
+  <si>
+    <t>ID_DIM</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>EST_ASIG</t>
+  </si>
+  <si>
+    <t>ASIG</t>
+  </si>
+  <si>
+    <t>DIM_ASIG</t>
+  </si>
+  <si>
+    <t>AUX5</t>
+  </si>
+  <si>
+    <t>EST_IF</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>EST_WHILE</t>
+  </si>
+  <si>
+    <t>EST_DO</t>
+  </si>
+  <si>
+    <t>EST_READ</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>EST_WRITE</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>EXPR</t>
+  </si>
+  <si>
+    <t>EXPR2</t>
+  </si>
+  <si>
+    <t>EXPR3</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>EXPR4</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>OPREL</t>
+  </si>
+  <si>
+    <t>EXPR5</t>
+  </si>
+  <si>
+    <t>TERM</t>
+  </si>
+  <si>
+    <t>FACT</t>
+  </si>
+  <si>
+    <t>endif</t>
+  </si>
+  <si>
+    <t>enddo</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,8 +607,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,8 +702,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -690,32 +719,45 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -752,8 +794,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -793,9 +837,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="35" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,8 +847,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="35" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="38">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -825,6 +888,7 @@
     <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -842,6 +906,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="35"/>
   </cellStyles>
@@ -862,13 +927,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>9528</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1229,2458 +1294,2954 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU42"/>
+  <dimension ref="A1:AV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="8240" ySplit="7600" topLeftCell="AH33" activePane="bottomRight"/>
+      <selection activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="A40:XFD40"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomRight" activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="247" width="11" style="33"/>
-    <col min="248" max="248" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="249" max="301" width="11" style="33"/>
-    <col min="302" max="302" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="303" max="503" width="11" style="33"/>
-    <col min="504" max="504" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="505" max="557" width="11" style="33"/>
-    <col min="558" max="558" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="559" max="759" width="11" style="33"/>
-    <col min="760" max="760" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="761" max="813" width="11" style="33"/>
-    <col min="814" max="814" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="815" max="1015" width="11" style="33"/>
-    <col min="1016" max="1016" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="1017" max="1069" width="11" style="33"/>
-    <col min="1070" max="1070" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="1071" max="1271" width="11" style="33"/>
-    <col min="1272" max="1272" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="1273" max="1325" width="11" style="33"/>
-    <col min="1326" max="1326" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="1327" max="1527" width="11" style="33"/>
-    <col min="1528" max="1528" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="1529" max="1581" width="11" style="33"/>
-    <col min="1582" max="1582" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="1583" max="1783" width="11" style="33"/>
-    <col min="1784" max="1784" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="1785" max="1837" width="11" style="33"/>
-    <col min="1838" max="1838" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="1839" max="2039" width="11" style="33"/>
-    <col min="2040" max="2040" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2041" max="2093" width="11" style="33"/>
-    <col min="2094" max="2094" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2095" max="2295" width="11" style="33"/>
-    <col min="2296" max="2296" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2297" max="2349" width="11" style="33"/>
-    <col min="2350" max="2350" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2351" max="2551" width="11" style="33"/>
-    <col min="2552" max="2552" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2553" max="2605" width="11" style="33"/>
-    <col min="2606" max="2606" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2607" max="2807" width="11" style="33"/>
-    <col min="2808" max="2808" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2809" max="2861" width="11" style="33"/>
-    <col min="2862" max="2862" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2863" max="3063" width="11" style="33"/>
-    <col min="3064" max="3064" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3065" max="3117" width="11" style="33"/>
-    <col min="3118" max="3118" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3119" max="3319" width="11" style="33"/>
-    <col min="3320" max="3320" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3321" max="3373" width="11" style="33"/>
-    <col min="3374" max="3374" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3375" max="3575" width="11" style="33"/>
-    <col min="3576" max="3576" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3577" max="3629" width="11" style="33"/>
-    <col min="3630" max="3630" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3631" max="3831" width="11" style="33"/>
-    <col min="3832" max="3832" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3833" max="3885" width="11" style="33"/>
-    <col min="3886" max="3886" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3887" max="4087" width="11" style="33"/>
-    <col min="4088" max="4088" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4089" max="4141" width="11" style="33"/>
-    <col min="4142" max="4142" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4143" max="4343" width="11" style="33"/>
-    <col min="4344" max="4344" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4345" max="4397" width="11" style="33"/>
-    <col min="4398" max="4398" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4399" max="4599" width="11" style="33"/>
-    <col min="4600" max="4600" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4601" max="4653" width="11" style="33"/>
-    <col min="4654" max="4654" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4655" max="4855" width="11" style="33"/>
-    <col min="4856" max="4856" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4857" max="4909" width="11" style="33"/>
-    <col min="4910" max="4910" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4911" max="5111" width="11" style="33"/>
-    <col min="5112" max="5112" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5113" max="5165" width="11" style="33"/>
-    <col min="5166" max="5166" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5167" max="5367" width="11" style="33"/>
-    <col min="5368" max="5368" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5369" max="5421" width="11" style="33"/>
-    <col min="5422" max="5422" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5423" max="5623" width="11" style="33"/>
-    <col min="5624" max="5624" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5625" max="5677" width="11" style="33"/>
-    <col min="5678" max="5678" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5679" max="5879" width="11" style="33"/>
-    <col min="5880" max="5880" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5881" max="5933" width="11" style="33"/>
-    <col min="5934" max="5934" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5935" max="6135" width="11" style="33"/>
-    <col min="6136" max="6136" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6137" max="6189" width="11" style="33"/>
-    <col min="6190" max="6190" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6191" max="6391" width="11" style="33"/>
-    <col min="6392" max="6392" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6393" max="6445" width="11" style="33"/>
-    <col min="6446" max="6446" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6447" max="6647" width="11" style="33"/>
-    <col min="6648" max="6648" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6649" max="6701" width="11" style="33"/>
-    <col min="6702" max="6702" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6703" max="6903" width="11" style="33"/>
-    <col min="6904" max="6904" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6905" max="6957" width="11" style="33"/>
-    <col min="6958" max="6958" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6959" max="7159" width="11" style="33"/>
-    <col min="7160" max="7160" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="7161" max="7213" width="11" style="33"/>
-    <col min="7214" max="7214" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7215" max="7415" width="11" style="33"/>
-    <col min="7416" max="7416" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="7417" max="7469" width="11" style="33"/>
-    <col min="7470" max="7470" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7471" max="7671" width="11" style="33"/>
-    <col min="7672" max="7672" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="7673" max="7725" width="11" style="33"/>
-    <col min="7726" max="7726" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7727" max="7927" width="11" style="33"/>
-    <col min="7928" max="7928" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="7929" max="7981" width="11" style="33"/>
-    <col min="7982" max="7982" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7983" max="8183" width="11" style="33"/>
-    <col min="8184" max="8184" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="8185" max="8237" width="11" style="33"/>
-    <col min="8238" max="8238" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8239" max="8439" width="11" style="33"/>
-    <col min="8440" max="8440" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="8441" max="8493" width="11" style="33"/>
-    <col min="8494" max="8494" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8495" max="8695" width="11" style="33"/>
-    <col min="8696" max="8696" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="8697" max="8749" width="11" style="33"/>
-    <col min="8750" max="8750" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8751" max="8951" width="11" style="33"/>
-    <col min="8952" max="8952" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="8953" max="9005" width="11" style="33"/>
-    <col min="9006" max="9006" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9007" max="9207" width="11" style="33"/>
-    <col min="9208" max="9208" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="9209" max="9261" width="11" style="33"/>
-    <col min="9262" max="9262" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9263" max="9463" width="11" style="33"/>
-    <col min="9464" max="9464" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="9465" max="9517" width="11" style="33"/>
-    <col min="9518" max="9518" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9519" max="9719" width="11" style="33"/>
-    <col min="9720" max="9720" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="9721" max="9773" width="11" style="33"/>
-    <col min="9774" max="9774" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9775" max="9975" width="11" style="33"/>
-    <col min="9976" max="9976" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="9977" max="10029" width="11" style="33"/>
-    <col min="10030" max="10030" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10031" max="10231" width="11" style="33"/>
-    <col min="10232" max="10232" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10233" max="10285" width="11" style="33"/>
-    <col min="10286" max="10286" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10287" max="10487" width="11" style="33"/>
-    <col min="10488" max="10488" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10489" max="10541" width="11" style="33"/>
-    <col min="10542" max="10542" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10543" max="10743" width="11" style="33"/>
-    <col min="10744" max="10744" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10745" max="10797" width="11" style="33"/>
-    <col min="10798" max="10798" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10799" max="10999" width="11" style="33"/>
-    <col min="11000" max="11000" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="11001" max="11053" width="11" style="33"/>
-    <col min="11054" max="11054" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11055" max="11255" width="11" style="33"/>
-    <col min="11256" max="11256" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="11257" max="11309" width="11" style="33"/>
-    <col min="11310" max="11310" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11311" max="11511" width="11" style="33"/>
-    <col min="11512" max="11512" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="11513" max="11565" width="11" style="33"/>
-    <col min="11566" max="11566" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11567" max="11767" width="11" style="33"/>
-    <col min="11768" max="11768" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="11769" max="11821" width="11" style="33"/>
-    <col min="11822" max="11822" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11823" max="12023" width="11" style="33"/>
-    <col min="12024" max="12024" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="12025" max="12077" width="11" style="33"/>
-    <col min="12078" max="12078" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12079" max="12279" width="11" style="33"/>
-    <col min="12280" max="12280" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="12281" max="12333" width="11" style="33"/>
-    <col min="12334" max="12334" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12335" max="12535" width="11" style="33"/>
-    <col min="12536" max="12536" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="12537" max="12589" width="11" style="33"/>
-    <col min="12590" max="12590" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12591" max="12791" width="11" style="33"/>
-    <col min="12792" max="12792" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="12793" max="12845" width="11" style="33"/>
-    <col min="12846" max="12846" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12847" max="13047" width="11" style="33"/>
-    <col min="13048" max="13048" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13049" max="13101" width="11" style="33"/>
-    <col min="13102" max="13102" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13103" max="13303" width="11" style="33"/>
-    <col min="13304" max="13304" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13305" max="13357" width="11" style="33"/>
-    <col min="13358" max="13358" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13359" max="13559" width="11" style="33"/>
-    <col min="13560" max="13560" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13561" max="13613" width="11" style="33"/>
-    <col min="13614" max="13614" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13615" max="13815" width="11" style="33"/>
-    <col min="13816" max="13816" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13817" max="13869" width="11" style="33"/>
-    <col min="13870" max="13870" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13871" max="14071" width="11" style="33"/>
-    <col min="14072" max="14072" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="14073" max="14125" width="11" style="33"/>
-    <col min="14126" max="14126" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14127" max="14327" width="11" style="33"/>
-    <col min="14328" max="14328" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="14329" max="14381" width="11" style="33"/>
-    <col min="14382" max="14382" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14383" max="14583" width="11" style="33"/>
-    <col min="14584" max="14584" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="14585" max="14637" width="11" style="33"/>
-    <col min="14638" max="14638" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14639" max="14839" width="11" style="33"/>
-    <col min="14840" max="14840" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="14841" max="14893" width="11" style="33"/>
-    <col min="14894" max="14894" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14895" max="15095" width="11" style="33"/>
-    <col min="15096" max="15096" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="15097" max="15149" width="11" style="33"/>
-    <col min="15150" max="15150" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="15151" max="15351" width="11" style="33"/>
-    <col min="15352" max="15352" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="15353" max="15405" width="11" style="33"/>
-    <col min="15406" max="15406" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="15407" max="15607" width="11" style="33"/>
-    <col min="15608" max="15608" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="15609" max="15661" width="11" style="33"/>
-    <col min="15662" max="15662" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="15663" max="15863" width="11" style="33"/>
-    <col min="15864" max="15864" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="15865" max="15917" width="11" style="33"/>
-    <col min="15918" max="15918" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="15919" max="16119" width="11" style="33"/>
-    <col min="16120" max="16120" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="16121" max="16173" width="11" style="33"/>
-    <col min="16174" max="16174" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="16175" max="16384" width="11" style="33"/>
+    <col min="1" max="1" width="3.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="33" customWidth="1"/>
+    <col min="3" max="248" width="10.83203125" style="32"/>
+    <col min="249" max="249" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="250" max="302" width="10.83203125" style="32"/>
+    <col min="303" max="303" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="304" max="504" width="10.83203125" style="32"/>
+    <col min="505" max="505" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="506" max="558" width="10.83203125" style="32"/>
+    <col min="559" max="559" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="560" max="760" width="10.83203125" style="32"/>
+    <col min="761" max="761" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="762" max="814" width="10.83203125" style="32"/>
+    <col min="815" max="815" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="816" max="1016" width="10.83203125" style="32"/>
+    <col min="1017" max="1017" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1018" max="1070" width="10.83203125" style="32"/>
+    <col min="1071" max="1071" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1072" max="1272" width="10.83203125" style="32"/>
+    <col min="1273" max="1273" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1274" max="1326" width="10.83203125" style="32"/>
+    <col min="1327" max="1327" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1328" max="1528" width="10.83203125" style="32"/>
+    <col min="1529" max="1529" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1530" max="1582" width="10.83203125" style="32"/>
+    <col min="1583" max="1583" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1584" max="1784" width="10.83203125" style="32"/>
+    <col min="1785" max="1785" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1786" max="1838" width="10.83203125" style="32"/>
+    <col min="1839" max="1839" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1840" max="2040" width="10.83203125" style="32"/>
+    <col min="2041" max="2041" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2042" max="2094" width="10.83203125" style="32"/>
+    <col min="2095" max="2095" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2096" max="2296" width="10.83203125" style="32"/>
+    <col min="2297" max="2297" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2298" max="2350" width="10.83203125" style="32"/>
+    <col min="2351" max="2351" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2352" max="2552" width="10.83203125" style="32"/>
+    <col min="2553" max="2553" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2554" max="2606" width="10.83203125" style="32"/>
+    <col min="2607" max="2607" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2608" max="2808" width="10.83203125" style="32"/>
+    <col min="2809" max="2809" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2810" max="2862" width="10.83203125" style="32"/>
+    <col min="2863" max="2863" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2864" max="3064" width="10.83203125" style="32"/>
+    <col min="3065" max="3065" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3066" max="3118" width="10.83203125" style="32"/>
+    <col min="3119" max="3119" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3120" max="3320" width="10.83203125" style="32"/>
+    <col min="3321" max="3321" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3322" max="3374" width="10.83203125" style="32"/>
+    <col min="3375" max="3375" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3376" max="3576" width="10.83203125" style="32"/>
+    <col min="3577" max="3577" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3578" max="3630" width="10.83203125" style="32"/>
+    <col min="3631" max="3631" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3632" max="3832" width="10.83203125" style="32"/>
+    <col min="3833" max="3833" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3834" max="3886" width="10.83203125" style="32"/>
+    <col min="3887" max="3887" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3888" max="4088" width="10.83203125" style="32"/>
+    <col min="4089" max="4089" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4090" max="4142" width="10.83203125" style="32"/>
+    <col min="4143" max="4143" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4144" max="4344" width="10.83203125" style="32"/>
+    <col min="4345" max="4345" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4346" max="4398" width="10.83203125" style="32"/>
+    <col min="4399" max="4399" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4400" max="4600" width="10.83203125" style="32"/>
+    <col min="4601" max="4601" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4602" max="4654" width="10.83203125" style="32"/>
+    <col min="4655" max="4655" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4656" max="4856" width="10.83203125" style="32"/>
+    <col min="4857" max="4857" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4858" max="4910" width="10.83203125" style="32"/>
+    <col min="4911" max="4911" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4912" max="5112" width="10.83203125" style="32"/>
+    <col min="5113" max="5113" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5114" max="5166" width="10.83203125" style="32"/>
+    <col min="5167" max="5167" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5168" max="5368" width="10.83203125" style="32"/>
+    <col min="5369" max="5369" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5370" max="5422" width="10.83203125" style="32"/>
+    <col min="5423" max="5423" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5424" max="5624" width="10.83203125" style="32"/>
+    <col min="5625" max="5625" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5626" max="5678" width="10.83203125" style="32"/>
+    <col min="5679" max="5679" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5680" max="5880" width="10.83203125" style="32"/>
+    <col min="5881" max="5881" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5882" max="5934" width="10.83203125" style="32"/>
+    <col min="5935" max="5935" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5936" max="6136" width="10.83203125" style="32"/>
+    <col min="6137" max="6137" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6138" max="6190" width="10.83203125" style="32"/>
+    <col min="6191" max="6191" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6192" max="6392" width="10.83203125" style="32"/>
+    <col min="6393" max="6393" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6394" max="6446" width="10.83203125" style="32"/>
+    <col min="6447" max="6447" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6448" max="6648" width="10.83203125" style="32"/>
+    <col min="6649" max="6649" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6650" max="6702" width="10.83203125" style="32"/>
+    <col min="6703" max="6703" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6704" max="6904" width="10.83203125" style="32"/>
+    <col min="6905" max="6905" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6906" max="6958" width="10.83203125" style="32"/>
+    <col min="6959" max="6959" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6960" max="7160" width="10.83203125" style="32"/>
+    <col min="7161" max="7161" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7162" max="7214" width="10.83203125" style="32"/>
+    <col min="7215" max="7215" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7216" max="7416" width="10.83203125" style="32"/>
+    <col min="7417" max="7417" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7418" max="7470" width="10.83203125" style="32"/>
+    <col min="7471" max="7471" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7472" max="7672" width="10.83203125" style="32"/>
+    <col min="7673" max="7673" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7674" max="7726" width="10.83203125" style="32"/>
+    <col min="7727" max="7727" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7728" max="7928" width="10.83203125" style="32"/>
+    <col min="7929" max="7929" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7930" max="7982" width="10.83203125" style="32"/>
+    <col min="7983" max="7983" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7984" max="8184" width="10.83203125" style="32"/>
+    <col min="8185" max="8185" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8186" max="8238" width="10.83203125" style="32"/>
+    <col min="8239" max="8239" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8240" max="8440" width="10.83203125" style="32"/>
+    <col min="8441" max="8441" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8442" max="8494" width="10.83203125" style="32"/>
+    <col min="8495" max="8495" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8496" max="8696" width="10.83203125" style="32"/>
+    <col min="8697" max="8697" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8698" max="8750" width="10.83203125" style="32"/>
+    <col min="8751" max="8751" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8752" max="8952" width="10.83203125" style="32"/>
+    <col min="8953" max="8953" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8954" max="9006" width="10.83203125" style="32"/>
+    <col min="9007" max="9007" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9008" max="9208" width="10.83203125" style="32"/>
+    <col min="9209" max="9209" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9210" max="9262" width="10.83203125" style="32"/>
+    <col min="9263" max="9263" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9264" max="9464" width="10.83203125" style="32"/>
+    <col min="9465" max="9465" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9466" max="9518" width="10.83203125" style="32"/>
+    <col min="9519" max="9519" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9520" max="9720" width="10.83203125" style="32"/>
+    <col min="9721" max="9721" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9722" max="9774" width="10.83203125" style="32"/>
+    <col min="9775" max="9775" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9776" max="9976" width="10.83203125" style="32"/>
+    <col min="9977" max="9977" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9978" max="10030" width="10.83203125" style="32"/>
+    <col min="10031" max="10031" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10032" max="10232" width="10.83203125" style="32"/>
+    <col min="10233" max="10233" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10234" max="10286" width="10.83203125" style="32"/>
+    <col min="10287" max="10287" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10288" max="10488" width="10.83203125" style="32"/>
+    <col min="10489" max="10489" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10490" max="10542" width="10.83203125" style="32"/>
+    <col min="10543" max="10543" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10544" max="10744" width="10.83203125" style="32"/>
+    <col min="10745" max="10745" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10746" max="10798" width="10.83203125" style="32"/>
+    <col min="10799" max="10799" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10800" max="11000" width="10.83203125" style="32"/>
+    <col min="11001" max="11001" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11002" max="11054" width="10.83203125" style="32"/>
+    <col min="11055" max="11055" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11056" max="11256" width="10.83203125" style="32"/>
+    <col min="11257" max="11257" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11258" max="11310" width="10.83203125" style="32"/>
+    <col min="11311" max="11311" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11312" max="11512" width="10.83203125" style="32"/>
+    <col min="11513" max="11513" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11514" max="11566" width="10.83203125" style="32"/>
+    <col min="11567" max="11567" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11568" max="11768" width="10.83203125" style="32"/>
+    <col min="11769" max="11769" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11770" max="11822" width="10.83203125" style="32"/>
+    <col min="11823" max="11823" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11824" max="12024" width="10.83203125" style="32"/>
+    <col min="12025" max="12025" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12026" max="12078" width="10.83203125" style="32"/>
+    <col min="12079" max="12079" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12080" max="12280" width="10.83203125" style="32"/>
+    <col min="12281" max="12281" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12282" max="12334" width="10.83203125" style="32"/>
+    <col min="12335" max="12335" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12336" max="12536" width="10.83203125" style="32"/>
+    <col min="12537" max="12537" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12538" max="12590" width="10.83203125" style="32"/>
+    <col min="12591" max="12591" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12592" max="12792" width="10.83203125" style="32"/>
+    <col min="12793" max="12793" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12794" max="12846" width="10.83203125" style="32"/>
+    <col min="12847" max="12847" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12848" max="13048" width="10.83203125" style="32"/>
+    <col min="13049" max="13049" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13050" max="13102" width="10.83203125" style="32"/>
+    <col min="13103" max="13103" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13104" max="13304" width="10.83203125" style="32"/>
+    <col min="13305" max="13305" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13306" max="13358" width="10.83203125" style="32"/>
+    <col min="13359" max="13359" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13360" max="13560" width="10.83203125" style="32"/>
+    <col min="13561" max="13561" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13562" max="13614" width="10.83203125" style="32"/>
+    <col min="13615" max="13615" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13616" max="13816" width="10.83203125" style="32"/>
+    <col min="13817" max="13817" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13818" max="13870" width="10.83203125" style="32"/>
+    <col min="13871" max="13871" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13872" max="14072" width="10.83203125" style="32"/>
+    <col min="14073" max="14073" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14074" max="14126" width="10.83203125" style="32"/>
+    <col min="14127" max="14127" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14128" max="14328" width="10.83203125" style="32"/>
+    <col min="14329" max="14329" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14330" max="14382" width="10.83203125" style="32"/>
+    <col min="14383" max="14383" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14384" max="14584" width="10.83203125" style="32"/>
+    <col min="14585" max="14585" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14586" max="14638" width="10.83203125" style="32"/>
+    <col min="14639" max="14639" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14640" max="14840" width="10.83203125" style="32"/>
+    <col min="14841" max="14841" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14842" max="14894" width="10.83203125" style="32"/>
+    <col min="14895" max="14895" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14896" max="15096" width="10.83203125" style="32"/>
+    <col min="15097" max="15097" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15098" max="15150" width="10.83203125" style="32"/>
+    <col min="15151" max="15151" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15152" max="15352" width="10.83203125" style="32"/>
+    <col min="15353" max="15353" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15354" max="15406" width="10.83203125" style="32"/>
+    <col min="15407" max="15407" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15408" max="15608" width="10.83203125" style="32"/>
+    <col min="15609" max="15609" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15610" max="15662" width="10.83203125" style="32"/>
+    <col min="15663" max="15663" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15664" max="15864" width="10.83203125" style="32"/>
+    <col min="15865" max="15865" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15866" max="15918" width="10.83203125" style="32"/>
+    <col min="15919" max="15919" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15920" max="16120" width="10.83203125" style="32"/>
+    <col min="16121" max="16121" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="16122" max="16174" width="10.83203125" style="32"/>
+    <col min="16175" max="16175" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="16176" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="30" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:48" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="B1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV1" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A2" s="35">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+    </row>
+    <row r="3" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="31"/>
+    </row>
+    <row r="4" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="31">
+        <v>4</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+    </row>
+    <row r="5" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+    </row>
+    <row r="6" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31">
+        <v>5</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="31"/>
+    </row>
+    <row r="7" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31">
+        <v>7</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31">
+        <v>5</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+    </row>
+    <row r="8" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A8" s="35">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31">
+        <v>8</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="31"/>
+    </row>
+    <row r="9" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A9" s="35">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="31">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="31">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="31">
+        <v>13</v>
+      </c>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+    </row>
+    <row r="10" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="31">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31">
+        <v>14</v>
+      </c>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AU10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AV10" s="31"/>
+    </row>
+    <row r="11" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A11" s="35">
+        <v>9</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="31">
+        <v>16</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AU11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AV11" s="31"/>
+    </row>
+    <row r="12" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="31">
+        <v>18</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31">
+        <v>19</v>
+      </c>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31">
+        <v>20</v>
+      </c>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31">
+        <v>21</v>
+      </c>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31">
+        <v>22</v>
+      </c>
+      <c r="AU12" s="31">
+        <v>23</v>
+      </c>
+      <c r="AV12" s="31"/>
+    </row>
+    <row r="13" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A13" s="35">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="31">
+        <v>16</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AU13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AV13" s="31"/>
+    </row>
+    <row r="14" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="31">
+        <v>26</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+    </row>
+    <row r="15" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A15" s="35">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="31">
+        <v>27</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+    </row>
+    <row r="16" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31">
+        <v>29</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31">
+        <v>28</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+    </row>
+    <row r="17" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A17" s="35">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="T1" s="28" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31">
+        <v>30</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31">
+        <v>31</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+    </row>
+    <row r="18" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="29" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31">
+        <v>32</v>
+      </c>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+    </row>
+    <row r="19" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A19" s="35">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31">
+        <v>33</v>
+      </c>
+      <c r="AN19" s="31">
+        <v>34</v>
+      </c>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+    </row>
+    <row r="20" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="Z1" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB1" s="29" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31">
+        <v>35</v>
+      </c>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+    </row>
+    <row r="21" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31">
+        <v>36</v>
+      </c>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+    </row>
+    <row r="22" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A22" s="35">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31">
+        <v>37</v>
+      </c>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+    </row>
+    <row r="23" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A23" s="35">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="C23" s="31">
+        <v>38</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+    </row>
+    <row r="24" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A24" s="35">
+        <v>22</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31">
+        <v>39</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31">
+        <v>40</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="31"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
+    </row>
+    <row r="25" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A25" s="35">
+        <v>23</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="AF1" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG1" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH1" s="29" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="31"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31">
+        <v>41</v>
+      </c>
+      <c r="AV25" s="31"/>
+    </row>
+    <row r="26" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A26" s="35">
+        <v>24</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="C26" s="31">
+        <v>42</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31">
+        <v>42</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31">
+        <v>42</v>
+      </c>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AH26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AI26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AJ26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AK26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="31"/>
+      <c r="AR26" s="31"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+    </row>
+    <row r="27" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A27" s="35">
+        <v>25</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31">
+        <v>43</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31">
+        <v>44</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="31"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+    </row>
+    <row r="28" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A28" s="35">
+        <v>26</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="AJ1" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" s="29" t="s">
+      <c r="C28" s="31">
+        <v>45</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31">
+        <v>45</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31">
+        <v>45</v>
+      </c>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AH28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AI28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AJ28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AK28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+    </row>
+    <row r="29" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A29" s="35">
+        <v>27</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="31">
+        <v>47</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31">
+        <v>47</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31">
+        <v>46</v>
+      </c>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31">
+        <v>47</v>
+      </c>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AH29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AI29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AJ29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AK29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="31"/>
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="31"/>
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="31"/>
+    </row>
+    <row r="30" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A30" s="35">
+        <v>28</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="C30" s="31">
+        <v>48</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31">
+        <v>48</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31">
+        <v>48</v>
+      </c>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AH30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AI30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AJ30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AK30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+    </row>
+    <row r="31" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A31" s="35">
+        <v>29</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="31">
+        <v>50</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31">
+        <v>50</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31">
+        <v>49</v>
+      </c>
+      <c r="X31" s="31">
+        <v>50</v>
+      </c>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AH31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AI31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AJ31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AK31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
+    </row>
+    <row r="32" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A32" s="35">
+        <v>30</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="C32" s="31">
+        <v>51</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31">
+        <v>51</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31">
+        <v>51</v>
+      </c>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AH32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AI32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AJ32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AK32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="31"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="31"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
+      <c r="AV32" s="31"/>
+    </row>
+    <row r="33" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A33" s="35">
+        <v>31</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="C33" s="31">
+        <v>53</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31">
+        <v>53</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31">
+        <v>52</v>
+      </c>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AH33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AI33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AJ33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AK33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="31"/>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+    </row>
+    <row r="34" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A34" s="35">
+        <v>32</v>
+      </c>
+      <c r="B34" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="C34" s="31">
+        <v>54</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31">
+        <v>54</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AH34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AI34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AJ34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AK34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+    </row>
+    <row r="35" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A35" s="35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="31">
+        <v>55</v>
+      </c>
+      <c r="R35" s="31">
+        <v>55</v>
+      </c>
+      <c r="S35" s="31">
+        <v>55</v>
+      </c>
+      <c r="T35" s="31">
+        <v>55</v>
+      </c>
+      <c r="U35" s="31">
+        <v>55</v>
+      </c>
+      <c r="V35" s="31">
+        <v>56</v>
+      </c>
+      <c r="W35" s="31">
+        <v>56</v>
+      </c>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+    </row>
+    <row r="36" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A36" s="35">
+        <v>34</v>
+      </c>
+      <c r="B36" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="31">
+        <v>59</v>
+      </c>
+      <c r="R36" s="31">
+        <v>61</v>
+      </c>
+      <c r="S36" s="31">
+        <v>60</v>
+      </c>
+      <c r="T36" s="31">
+        <v>62</v>
+      </c>
+      <c r="U36" s="31">
+        <v>58</v>
+      </c>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="31"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="31"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="31"/>
+      <c r="AV36" s="31"/>
+    </row>
+    <row r="37" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A37" s="35">
+        <v>35</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AR1" s="29" t="s">
+      <c r="C37" s="31">
+        <v>63</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31">
+        <v>63</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AH37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AI37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AJ37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AK37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+    </row>
+    <row r="38" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A38" s="35">
+        <v>36</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="31">
+        <v>66</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31">
+        <v>66</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31">
+        <v>64</v>
+      </c>
+      <c r="L38" s="31">
+        <v>65</v>
+      </c>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AH38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AI38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AJ38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AK38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+    </row>
+    <row r="39" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A39" s="35">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="C39" s="31">
+        <v>67</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31">
+        <v>67</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AH39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AI39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AJ39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AK39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+    </row>
+    <row r="40" spans="1:48" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A40" s="41">
+        <v>38</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="31">
+        <v>71</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31">
+        <v>71</v>
+      </c>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31">
+        <v>68</v>
+      </c>
+      <c r="N40" s="31">
+        <v>69</v>
+      </c>
+      <c r="O40" s="31">
+        <v>70</v>
+      </c>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AH40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AI40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AJ40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AK40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+    </row>
+    <row r="41" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A41" s="35">
+        <v>39</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AT1" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU1" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-    </row>
-    <row r="3" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-    </row>
-    <row r="4" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-    </row>
-    <row r="5" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-    </row>
-    <row r="6" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-    </row>
-    <row r="7" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-    </row>
-    <row r="8" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="32"/>
-    </row>
-    <row r="9" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-    </row>
-    <row r="10" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-    </row>
-    <row r="11" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-    </row>
-    <row r="12" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-    </row>
-    <row r="13" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-    </row>
-    <row r="14" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="32"/>
-    </row>
-    <row r="15" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-    </row>
-    <row r="16" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-    </row>
-    <row r="17" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="32"/>
-    </row>
-    <row r="18" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-    </row>
-    <row r="19" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="32"/>
-      <c r="AU19" s="32"/>
-    </row>
-    <row r="20" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-    </row>
-    <row r="21" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-    </row>
-    <row r="22" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="32"/>
-    </row>
-    <row r="23" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-    </row>
-    <row r="24" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-    </row>
-    <row r="25" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="32"/>
-    </row>
-    <row r="26" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-    </row>
-    <row r="27" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-    </row>
-    <row r="28" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-    </row>
-    <row r="29" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-    </row>
-    <row r="30" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="32"/>
-      <c r="AU30" s="32"/>
-    </row>
-    <row r="31" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
-      <c r="AU31" s="32"/>
-    </row>
-    <row r="32" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32"/>
-      <c r="AU32" s="32"/>
-    </row>
-    <row r="33" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
-      <c r="AU33" s="32"/>
-    </row>
-    <row r="34" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-    </row>
-    <row r="35" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="32"/>
-    </row>
-    <row r="36" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="32"/>
-    </row>
-    <row r="37" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="32"/>
-      <c r="AU37" s="32"/>
-    </row>
-    <row r="38" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="32"/>
-      <c r="AU38" s="32"/>
-    </row>
-    <row r="39" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="32"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="32"/>
-      <c r="AO39" s="32"/>
-      <c r="AP39" s="32"/>
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="32"/>
-      <c r="AS39" s="32"/>
-      <c r="AT39" s="32"/>
-      <c r="AU39" s="32"/>
-    </row>
-    <row r="40" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="32"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="32"/>
-      <c r="AL40" s="32"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="32"/>
-      <c r="AO40" s="32"/>
-      <c r="AP40" s="32"/>
-      <c r="AQ40" s="32"/>
-      <c r="AR40" s="32"/>
-      <c r="AS40" s="32"/>
-      <c r="AT40" s="32"/>
-      <c r="AU40" s="32"/>
-    </row>
-    <row r="41" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="32"/>
-      <c r="AM41" s="32"/>
-      <c r="AN41" s="32"/>
-      <c r="AO41" s="32"/>
-      <c r="AP41" s="32"/>
-      <c r="AQ41" s="32"/>
-      <c r="AR41" s="32"/>
-      <c r="AS41" s="32"/>
-      <c r="AT41" s="32"/>
-      <c r="AU41" s="32"/>
-    </row>
-    <row r="42" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C41" s="31">
+        <v>72</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31">
+        <v>78</v>
+      </c>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31">
+        <v>73</v>
+      </c>
+      <c r="AH41" s="31">
+        <v>74</v>
+      </c>
+      <c r="AI41" s="31">
+        <v>75</v>
+      </c>
+      <c r="AJ41" s="31">
+        <v>76</v>
+      </c>
+      <c r="AK41" s="31">
+        <v>77</v>
+      </c>
+      <c r="AL41" s="31"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="31"/>
+      <c r="AO41" s="31"/>
+      <c r="AP41" s="31"/>
+      <c r="AQ41" s="31"/>
+      <c r="AR41" s="31"/>
+      <c r="AS41" s="31"/>
+      <c r="AT41" s="31"/>
+      <c r="AU41" s="31"/>
+      <c r="AV41" s="31"/>
+    </row>
+    <row r="42" spans="1:48" ht="24.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3692,18 +4253,18 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="4.33203125" customWidth="1"/>
     <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="4.375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.375" customWidth="1"/>
+    <col min="29" max="29" width="4.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="C1">
         <v>0</v>
       </c>
@@ -3795,7 +4356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -3888,7 +4449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3986,7 +4547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4084,7 +4645,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4182,7 +4743,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4280,7 +4841,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4378,7 +4939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4476,7 +5037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4574,7 +5135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4672,7 +5233,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4770,7 +5331,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4868,7 +5429,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4966,7 +5527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5064,7 +5625,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5162,7 +5723,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5260,7 +5821,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5358,7 +5919,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5456,7 +6017,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5554,7 +6115,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5652,7 +6213,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5750,7 +6311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5848,7 +6409,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5862,7 +6423,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5876,7 +6437,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5890,7 +6451,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -5901,7 +6462,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -5912,7 +6473,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -5923,7 +6484,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -5934,104 +6495,109 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="B30" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="B31" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="B32" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2">
       <c r="B46" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="2">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6043,21 +6609,21 @@
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="30" width="4.625" customWidth="1"/>
-    <col min="31" max="31" width="9.125" customWidth="1"/>
-    <col min="32" max="33" width="5.875" customWidth="1"/>
-    <col min="34" max="34" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="30" width="4.6640625" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" customWidth="1"/>
+    <col min="32" max="33" width="5.83203125" customWidth="1"/>
+    <col min="34" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="B1">
         <v>0</v>
       </c>
@@ -6146,7 +6712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
@@ -6241,7 +6807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42">
       <c r="A3" s="10"/>
       <c r="B3" s="11">
         <v>100</v>
@@ -6332,7 +6898,7 @@
       </c>
       <c r="AE3" s="6"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -6427,7 +6993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6519,7 +7085,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -6611,7 +7177,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -6703,7 +7269,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -6822,7 +7388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -6914,7 +7480,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -7009,7 +7575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -7101,7 +7667,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -7193,7 +7759,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -7288,7 +7854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -7383,7 +7949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -7475,7 +8041,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -7603,7 +8169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -7698,7 +8264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -7790,7 +8356,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -7882,7 +8448,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -7974,7 +8540,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="10">
         <v>17</v>
       </c>
@@ -8066,7 +8632,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="10">
         <v>18</v>
       </c>
@@ -8158,7 +8724,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="10">
         <v>19</v>
       </c>
@@ -8253,7 +8819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -8345,7 +8911,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="10">
         <v>21</v>
       </c>
@@ -8437,7 +9003,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -8529,7 +9095,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="10">
         <v>23</v>
       </c>
@@ -8624,7 +9190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="10">
         <v>24</v>
       </c>
@@ -8716,7 +9282,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="10">
         <v>25</v>
       </c>
@@ -8808,7 +9374,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="10">
         <v>26</v>
       </c>
@@ -8900,7 +9466,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" s="10">
         <v>27</v>
       </c>
@@ -8995,7 +9561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" s="10">
         <v>28</v>
       </c>
@@ -9090,7 +9656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" s="10">
         <v>29</v>
       </c>
@@ -9182,7 +9748,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="10">
         <v>30</v>
       </c>
@@ -9274,7 +9840,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" s="10">
         <v>31</v>
       </c>
@@ -9366,7 +9932,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="10">
         <v>32</v>
       </c>
@@ -9461,7 +10027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="10">
         <v>33</v>
       </c>
@@ -9553,7 +10119,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" s="10">
         <v>34</v>
       </c>
@@ -9645,7 +10211,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="10">
         <v>35</v>
       </c>
@@ -9737,7 +10303,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="10">
         <v>36</v>
       </c>
@@ -9829,7 +10395,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="10">
         <v>37</v>
       </c>
@@ -9921,18 +10487,23 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="26">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9944,15 +10515,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="29" width="4.625" customWidth="1"/>
-    <col min="30" max="30" width="9.25" customWidth="1"/>
-    <col min="31" max="31" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="29" width="4.6640625" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="B1">
         <v>0</v>
       </c>
@@ -10041,7 +10612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -10134,7 +10705,7 @@
       </c>
       <c r="AE2" s="6"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>100</v>
@@ -10224,7 +10795,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10316,7 +10887,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10408,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10500,7 +11071,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10592,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -10626,7 +11197,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -10660,7 +11231,7 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -10694,7 +11265,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -10728,7 +11299,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -10762,7 +11333,7 @@
       <c r="AC12" s="14"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -10796,7 +11367,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -10830,7 +11401,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -10864,7 +11435,7 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -10898,7 +11469,7 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -10932,7 +11503,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -10966,7 +11537,7 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -11000,7 +11571,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -11034,484 +11605,489 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11523,9 +12099,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>300</v>
       </c>
@@ -11536,7 +12112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>301</v>
       </c>
@@ -11547,7 +12123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>302</v>
       </c>
@@ -11558,7 +12134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>303</v>
       </c>
@@ -11569,7 +12145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>304</v>
       </c>
@@ -11582,6 +12158,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11593,14 +12174,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.375" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -11611,7 +12192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -11622,7 +12203,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -11635,5 +12216,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -1296,11 +1296,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="8240" ySplit="7600" topLeftCell="AH33" activePane="bottomRight"/>
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="8240" ySplit="7600" topLeftCell="AH33"/>
+      <selection activeCell="M4" sqref="M4"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="F40" sqref="A40:XFD40"/>
-      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomRight" activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
@@ -1838,7 +1838,7 @@
         <v>103</v>
       </c>
       <c r="C4" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1893,7 +1893,9 @@
       <c r="B5" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="31">
+        <v>4</v>
+      </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>

--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose\Documents\GitHub\compiler-intepreter\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="16420" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Predicitiva" sheetId="12" r:id="rId1"/>
@@ -20,11 +15,16 @@
     <sheet name="Hoja2" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="160">
   <si>
     <t>l</t>
   </si>
@@ -320,36 +320,9 @@
     <t>$</t>
   </si>
   <si>
-    <t>PROGRAMA</t>
-  </si>
-  <si>
-    <t>CUERPO</t>
-  </si>
-  <si>
-    <t>DECLARACIONES</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>AUX</t>
   </si>
   <si>
-    <t>LISTA DE IDENTIFICADORES</t>
-  </si>
-  <si>
-    <t>AUX1</t>
-  </si>
-  <si>
-    <t>TIPOS</t>
-  </si>
-  <si>
-    <t>ESTANDAR</t>
-  </si>
-  <si>
-    <t>PRINCIPAL</t>
-  </si>
-  <si>
     <t>AUX2</t>
   </si>
   <si>
@@ -365,78 +338,30 @@
     <t>B</t>
   </si>
   <si>
-    <t>VECTORES</t>
-  </si>
-  <si>
-    <t>ESTATUTO</t>
-  </si>
-  <si>
     <t>AUX4</t>
   </si>
   <si>
-    <t>CICLO REPETIR</t>
-  </si>
-  <si>
-    <t>CICLO PARA</t>
-  </si>
-  <si>
-    <t>CONTADOR</t>
-  </si>
-  <si>
-    <t>CICLO MIENTRAS</t>
-  </si>
-  <si>
     <t>AUX6</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>ENTRADA</t>
-  </si>
-  <si>
     <t>AUX7</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SALIDA</t>
-  </si>
-  <si>
     <t>AUX8</t>
   </si>
   <si>
-    <t>CONDICIONAL</t>
-  </si>
-  <si>
     <t>AUX9</t>
   </si>
   <si>
-    <t>EXPRESION</t>
-  </si>
-  <si>
     <t>AUX10</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>RELACIONAL</t>
-  </si>
-  <si>
     <t>AUX11</t>
   </si>
   <si>
-    <t>TERMINO</t>
-  </si>
-  <si>
-    <t>VARIABLE</t>
-  </si>
-  <si>
-    <t>FACTOR</t>
-  </si>
-  <si>
     <t>==</t>
   </si>
   <si>
@@ -449,18 +374,12 @@
     <t>edclass</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
     <t>char</t>
   </si>
   <si>
-    <t>strig</t>
-  </si>
-  <si>
     <t>cte. Otacio</t>
   </si>
   <si>
@@ -473,9 +392,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>edif</t>
-  </si>
-  <si>
     <t>while</t>
   </si>
   <si>
@@ -488,9 +404,6 @@
     <t>dowhile</t>
   </si>
   <si>
-    <t>eddo</t>
-  </si>
-  <si>
     <t>read</t>
   </si>
   <si>
@@ -501,19 +414,108 @@
   </si>
   <si>
     <t>of</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>DECLARA</t>
+  </si>
+  <si>
+    <t>ID_DIM</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>EST_ASIG</t>
+  </si>
+  <si>
+    <t>ASIG</t>
+  </si>
+  <si>
+    <t>DIM_ASIG</t>
+  </si>
+  <si>
+    <t>AUX5</t>
+  </si>
+  <si>
+    <t>EST_IF</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>EST_WHILE</t>
+  </si>
+  <si>
+    <t>EST_DO</t>
+  </si>
+  <si>
+    <t>EST_READ</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>EST_WRITE</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>EXPR</t>
+  </si>
+  <si>
+    <t>EXPR2</t>
+  </si>
+  <si>
+    <t>EXPR3</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>EXPR4</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>OPREL</t>
+  </si>
+  <si>
+    <t>EXPR5</t>
+  </si>
+  <si>
+    <t>TERM</t>
+  </si>
+  <si>
+    <t>FACT</t>
+  </si>
+  <si>
+    <t>endif</t>
+  </si>
+  <si>
+    <t>enddo</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,8 +607,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,8 +702,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -690,32 +719,45 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -752,8 +794,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -793,9 +837,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="35" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,8 +847,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="35" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="38">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -825,6 +888,7 @@
     <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -842,6 +906,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="35"/>
   </cellStyles>
@@ -862,13 +927,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>9528</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1229,2458 +1294,2956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU42"/>
+  <dimension ref="A1:AV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="8240" ySplit="7600" topLeftCell="AH33"/>
+      <selection activeCell="M4" sqref="M4"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="247" width="11" style="33"/>
-    <col min="248" max="248" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="249" max="301" width="11" style="33"/>
-    <col min="302" max="302" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="303" max="503" width="11" style="33"/>
-    <col min="504" max="504" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="505" max="557" width="11" style="33"/>
-    <col min="558" max="558" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="559" max="759" width="11" style="33"/>
-    <col min="760" max="760" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="761" max="813" width="11" style="33"/>
-    <col min="814" max="814" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="815" max="1015" width="11" style="33"/>
-    <col min="1016" max="1016" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="1017" max="1069" width="11" style="33"/>
-    <col min="1070" max="1070" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="1071" max="1271" width="11" style="33"/>
-    <col min="1272" max="1272" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="1273" max="1325" width="11" style="33"/>
-    <col min="1326" max="1326" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="1327" max="1527" width="11" style="33"/>
-    <col min="1528" max="1528" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="1529" max="1581" width="11" style="33"/>
-    <col min="1582" max="1582" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="1583" max="1783" width="11" style="33"/>
-    <col min="1784" max="1784" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="1785" max="1837" width="11" style="33"/>
-    <col min="1838" max="1838" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="1839" max="2039" width="11" style="33"/>
-    <col min="2040" max="2040" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2041" max="2093" width="11" style="33"/>
-    <col min="2094" max="2094" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2095" max="2295" width="11" style="33"/>
-    <col min="2296" max="2296" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2297" max="2349" width="11" style="33"/>
-    <col min="2350" max="2350" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2351" max="2551" width="11" style="33"/>
-    <col min="2552" max="2552" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2553" max="2605" width="11" style="33"/>
-    <col min="2606" max="2606" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2607" max="2807" width="11" style="33"/>
-    <col min="2808" max="2808" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2809" max="2861" width="11" style="33"/>
-    <col min="2862" max="2862" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2863" max="3063" width="11" style="33"/>
-    <col min="3064" max="3064" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3065" max="3117" width="11" style="33"/>
-    <col min="3118" max="3118" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3119" max="3319" width="11" style="33"/>
-    <col min="3320" max="3320" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3321" max="3373" width="11" style="33"/>
-    <col min="3374" max="3374" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3375" max="3575" width="11" style="33"/>
-    <col min="3576" max="3576" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3577" max="3629" width="11" style="33"/>
-    <col min="3630" max="3630" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3631" max="3831" width="11" style="33"/>
-    <col min="3832" max="3832" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3833" max="3885" width="11" style="33"/>
-    <col min="3886" max="3886" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3887" max="4087" width="11" style="33"/>
-    <col min="4088" max="4088" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4089" max="4141" width="11" style="33"/>
-    <col min="4142" max="4142" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4143" max="4343" width="11" style="33"/>
-    <col min="4344" max="4344" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4345" max="4397" width="11" style="33"/>
-    <col min="4398" max="4398" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4399" max="4599" width="11" style="33"/>
-    <col min="4600" max="4600" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4601" max="4653" width="11" style="33"/>
-    <col min="4654" max="4654" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4655" max="4855" width="11" style="33"/>
-    <col min="4856" max="4856" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4857" max="4909" width="11" style="33"/>
-    <col min="4910" max="4910" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4911" max="5111" width="11" style="33"/>
-    <col min="5112" max="5112" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5113" max="5165" width="11" style="33"/>
-    <col min="5166" max="5166" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5167" max="5367" width="11" style="33"/>
-    <col min="5368" max="5368" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5369" max="5421" width="11" style="33"/>
-    <col min="5422" max="5422" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5423" max="5623" width="11" style="33"/>
-    <col min="5624" max="5624" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5625" max="5677" width="11" style="33"/>
-    <col min="5678" max="5678" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5679" max="5879" width="11" style="33"/>
-    <col min="5880" max="5880" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5881" max="5933" width="11" style="33"/>
-    <col min="5934" max="5934" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5935" max="6135" width="11" style="33"/>
-    <col min="6136" max="6136" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6137" max="6189" width="11" style="33"/>
-    <col min="6190" max="6190" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6191" max="6391" width="11" style="33"/>
-    <col min="6392" max="6392" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6393" max="6445" width="11" style="33"/>
-    <col min="6446" max="6446" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6447" max="6647" width="11" style="33"/>
-    <col min="6648" max="6648" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6649" max="6701" width="11" style="33"/>
-    <col min="6702" max="6702" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6703" max="6903" width="11" style="33"/>
-    <col min="6904" max="6904" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6905" max="6957" width="11" style="33"/>
-    <col min="6958" max="6958" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6959" max="7159" width="11" style="33"/>
-    <col min="7160" max="7160" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="7161" max="7213" width="11" style="33"/>
-    <col min="7214" max="7214" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7215" max="7415" width="11" style="33"/>
-    <col min="7416" max="7416" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="7417" max="7469" width="11" style="33"/>
-    <col min="7470" max="7470" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7471" max="7671" width="11" style="33"/>
-    <col min="7672" max="7672" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="7673" max="7725" width="11" style="33"/>
-    <col min="7726" max="7726" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7727" max="7927" width="11" style="33"/>
-    <col min="7928" max="7928" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="7929" max="7981" width="11" style="33"/>
-    <col min="7982" max="7982" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7983" max="8183" width="11" style="33"/>
-    <col min="8184" max="8184" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="8185" max="8237" width="11" style="33"/>
-    <col min="8238" max="8238" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8239" max="8439" width="11" style="33"/>
-    <col min="8440" max="8440" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="8441" max="8493" width="11" style="33"/>
-    <col min="8494" max="8494" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8495" max="8695" width="11" style="33"/>
-    <col min="8696" max="8696" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="8697" max="8749" width="11" style="33"/>
-    <col min="8750" max="8750" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8751" max="8951" width="11" style="33"/>
-    <col min="8952" max="8952" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="8953" max="9005" width="11" style="33"/>
-    <col min="9006" max="9006" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9007" max="9207" width="11" style="33"/>
-    <col min="9208" max="9208" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="9209" max="9261" width="11" style="33"/>
-    <col min="9262" max="9262" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9263" max="9463" width="11" style="33"/>
-    <col min="9464" max="9464" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="9465" max="9517" width="11" style="33"/>
-    <col min="9518" max="9518" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9519" max="9719" width="11" style="33"/>
-    <col min="9720" max="9720" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="9721" max="9773" width="11" style="33"/>
-    <col min="9774" max="9774" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9775" max="9975" width="11" style="33"/>
-    <col min="9976" max="9976" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="9977" max="10029" width="11" style="33"/>
-    <col min="10030" max="10030" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10031" max="10231" width="11" style="33"/>
-    <col min="10232" max="10232" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10233" max="10285" width="11" style="33"/>
-    <col min="10286" max="10286" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10287" max="10487" width="11" style="33"/>
-    <col min="10488" max="10488" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10489" max="10541" width="11" style="33"/>
-    <col min="10542" max="10542" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10543" max="10743" width="11" style="33"/>
-    <col min="10744" max="10744" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10745" max="10797" width="11" style="33"/>
-    <col min="10798" max="10798" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10799" max="10999" width="11" style="33"/>
-    <col min="11000" max="11000" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="11001" max="11053" width="11" style="33"/>
-    <col min="11054" max="11054" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11055" max="11255" width="11" style="33"/>
-    <col min="11256" max="11256" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="11257" max="11309" width="11" style="33"/>
-    <col min="11310" max="11310" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11311" max="11511" width="11" style="33"/>
-    <col min="11512" max="11512" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="11513" max="11565" width="11" style="33"/>
-    <col min="11566" max="11566" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11567" max="11767" width="11" style="33"/>
-    <col min="11768" max="11768" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="11769" max="11821" width="11" style="33"/>
-    <col min="11822" max="11822" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11823" max="12023" width="11" style="33"/>
-    <col min="12024" max="12024" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="12025" max="12077" width="11" style="33"/>
-    <col min="12078" max="12078" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12079" max="12279" width="11" style="33"/>
-    <col min="12280" max="12280" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="12281" max="12333" width="11" style="33"/>
-    <col min="12334" max="12334" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12335" max="12535" width="11" style="33"/>
-    <col min="12536" max="12536" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="12537" max="12589" width="11" style="33"/>
-    <col min="12590" max="12590" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12591" max="12791" width="11" style="33"/>
-    <col min="12792" max="12792" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="12793" max="12845" width="11" style="33"/>
-    <col min="12846" max="12846" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12847" max="13047" width="11" style="33"/>
-    <col min="13048" max="13048" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13049" max="13101" width="11" style="33"/>
-    <col min="13102" max="13102" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13103" max="13303" width="11" style="33"/>
-    <col min="13304" max="13304" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13305" max="13357" width="11" style="33"/>
-    <col min="13358" max="13358" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13359" max="13559" width="11" style="33"/>
-    <col min="13560" max="13560" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13561" max="13613" width="11" style="33"/>
-    <col min="13614" max="13614" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13615" max="13815" width="11" style="33"/>
-    <col min="13816" max="13816" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13817" max="13869" width="11" style="33"/>
-    <col min="13870" max="13870" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13871" max="14071" width="11" style="33"/>
-    <col min="14072" max="14072" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="14073" max="14125" width="11" style="33"/>
-    <col min="14126" max="14126" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14127" max="14327" width="11" style="33"/>
-    <col min="14328" max="14328" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="14329" max="14381" width="11" style="33"/>
-    <col min="14382" max="14382" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14383" max="14583" width="11" style="33"/>
-    <col min="14584" max="14584" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="14585" max="14637" width="11" style="33"/>
-    <col min="14638" max="14638" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14639" max="14839" width="11" style="33"/>
-    <col min="14840" max="14840" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="14841" max="14893" width="11" style="33"/>
-    <col min="14894" max="14894" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14895" max="15095" width="11" style="33"/>
-    <col min="15096" max="15096" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="15097" max="15149" width="11" style="33"/>
-    <col min="15150" max="15150" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="15151" max="15351" width="11" style="33"/>
-    <col min="15352" max="15352" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="15353" max="15405" width="11" style="33"/>
-    <col min="15406" max="15406" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="15407" max="15607" width="11" style="33"/>
-    <col min="15608" max="15608" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="15609" max="15661" width="11" style="33"/>
-    <col min="15662" max="15662" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="15663" max="15863" width="11" style="33"/>
-    <col min="15864" max="15864" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="15865" max="15917" width="11" style="33"/>
-    <col min="15918" max="15918" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="15919" max="16119" width="11" style="33"/>
-    <col min="16120" max="16120" width="35.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="16121" max="16173" width="11" style="33"/>
-    <col min="16174" max="16174" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="16175" max="16384" width="11" style="33"/>
+    <col min="1" max="1" width="3.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="33" customWidth="1"/>
+    <col min="3" max="248" width="10.83203125" style="32"/>
+    <col min="249" max="249" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="250" max="302" width="10.83203125" style="32"/>
+    <col min="303" max="303" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="304" max="504" width="10.83203125" style="32"/>
+    <col min="505" max="505" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="506" max="558" width="10.83203125" style="32"/>
+    <col min="559" max="559" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="560" max="760" width="10.83203125" style="32"/>
+    <col min="761" max="761" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="762" max="814" width="10.83203125" style="32"/>
+    <col min="815" max="815" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="816" max="1016" width="10.83203125" style="32"/>
+    <col min="1017" max="1017" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1018" max="1070" width="10.83203125" style="32"/>
+    <col min="1071" max="1071" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1072" max="1272" width="10.83203125" style="32"/>
+    <col min="1273" max="1273" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1274" max="1326" width="10.83203125" style="32"/>
+    <col min="1327" max="1327" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1328" max="1528" width="10.83203125" style="32"/>
+    <col min="1529" max="1529" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1530" max="1582" width="10.83203125" style="32"/>
+    <col min="1583" max="1583" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1584" max="1784" width="10.83203125" style="32"/>
+    <col min="1785" max="1785" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1786" max="1838" width="10.83203125" style="32"/>
+    <col min="1839" max="1839" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1840" max="2040" width="10.83203125" style="32"/>
+    <col min="2041" max="2041" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2042" max="2094" width="10.83203125" style="32"/>
+    <col min="2095" max="2095" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2096" max="2296" width="10.83203125" style="32"/>
+    <col min="2297" max="2297" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2298" max="2350" width="10.83203125" style="32"/>
+    <col min="2351" max="2351" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2352" max="2552" width="10.83203125" style="32"/>
+    <col min="2553" max="2553" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2554" max="2606" width="10.83203125" style="32"/>
+    <col min="2607" max="2607" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2608" max="2808" width="10.83203125" style="32"/>
+    <col min="2809" max="2809" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2810" max="2862" width="10.83203125" style="32"/>
+    <col min="2863" max="2863" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2864" max="3064" width="10.83203125" style="32"/>
+    <col min="3065" max="3065" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3066" max="3118" width="10.83203125" style="32"/>
+    <col min="3119" max="3119" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3120" max="3320" width="10.83203125" style="32"/>
+    <col min="3321" max="3321" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3322" max="3374" width="10.83203125" style="32"/>
+    <col min="3375" max="3375" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3376" max="3576" width="10.83203125" style="32"/>
+    <col min="3577" max="3577" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3578" max="3630" width="10.83203125" style="32"/>
+    <col min="3631" max="3631" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3632" max="3832" width="10.83203125" style="32"/>
+    <col min="3833" max="3833" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3834" max="3886" width="10.83203125" style="32"/>
+    <col min="3887" max="3887" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3888" max="4088" width="10.83203125" style="32"/>
+    <col min="4089" max="4089" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4090" max="4142" width="10.83203125" style="32"/>
+    <col min="4143" max="4143" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4144" max="4344" width="10.83203125" style="32"/>
+    <col min="4345" max="4345" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4346" max="4398" width="10.83203125" style="32"/>
+    <col min="4399" max="4399" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4400" max="4600" width="10.83203125" style="32"/>
+    <col min="4601" max="4601" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4602" max="4654" width="10.83203125" style="32"/>
+    <col min="4655" max="4655" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4656" max="4856" width="10.83203125" style="32"/>
+    <col min="4857" max="4857" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4858" max="4910" width="10.83203125" style="32"/>
+    <col min="4911" max="4911" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4912" max="5112" width="10.83203125" style="32"/>
+    <col min="5113" max="5113" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5114" max="5166" width="10.83203125" style="32"/>
+    <col min="5167" max="5167" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5168" max="5368" width="10.83203125" style="32"/>
+    <col min="5369" max="5369" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5370" max="5422" width="10.83203125" style="32"/>
+    <col min="5423" max="5423" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5424" max="5624" width="10.83203125" style="32"/>
+    <col min="5625" max="5625" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5626" max="5678" width="10.83203125" style="32"/>
+    <col min="5679" max="5679" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5680" max="5880" width="10.83203125" style="32"/>
+    <col min="5881" max="5881" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5882" max="5934" width="10.83203125" style="32"/>
+    <col min="5935" max="5935" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5936" max="6136" width="10.83203125" style="32"/>
+    <col min="6137" max="6137" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6138" max="6190" width="10.83203125" style="32"/>
+    <col min="6191" max="6191" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6192" max="6392" width="10.83203125" style="32"/>
+    <col min="6393" max="6393" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6394" max="6446" width="10.83203125" style="32"/>
+    <col min="6447" max="6447" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6448" max="6648" width="10.83203125" style="32"/>
+    <col min="6649" max="6649" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6650" max="6702" width="10.83203125" style="32"/>
+    <col min="6703" max="6703" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6704" max="6904" width="10.83203125" style="32"/>
+    <col min="6905" max="6905" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6906" max="6958" width="10.83203125" style="32"/>
+    <col min="6959" max="6959" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6960" max="7160" width="10.83203125" style="32"/>
+    <col min="7161" max="7161" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7162" max="7214" width="10.83203125" style="32"/>
+    <col min="7215" max="7215" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7216" max="7416" width="10.83203125" style="32"/>
+    <col min="7417" max="7417" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7418" max="7470" width="10.83203125" style="32"/>
+    <col min="7471" max="7471" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7472" max="7672" width="10.83203125" style="32"/>
+    <col min="7673" max="7673" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7674" max="7726" width="10.83203125" style="32"/>
+    <col min="7727" max="7727" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7728" max="7928" width="10.83203125" style="32"/>
+    <col min="7929" max="7929" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7930" max="7982" width="10.83203125" style="32"/>
+    <col min="7983" max="7983" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7984" max="8184" width="10.83203125" style="32"/>
+    <col min="8185" max="8185" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8186" max="8238" width="10.83203125" style="32"/>
+    <col min="8239" max="8239" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8240" max="8440" width="10.83203125" style="32"/>
+    <col min="8441" max="8441" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8442" max="8494" width="10.83203125" style="32"/>
+    <col min="8495" max="8495" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8496" max="8696" width="10.83203125" style="32"/>
+    <col min="8697" max="8697" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8698" max="8750" width="10.83203125" style="32"/>
+    <col min="8751" max="8751" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8752" max="8952" width="10.83203125" style="32"/>
+    <col min="8953" max="8953" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8954" max="9006" width="10.83203125" style="32"/>
+    <col min="9007" max="9007" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9008" max="9208" width="10.83203125" style="32"/>
+    <col min="9209" max="9209" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9210" max="9262" width="10.83203125" style="32"/>
+    <col min="9263" max="9263" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9264" max="9464" width="10.83203125" style="32"/>
+    <col min="9465" max="9465" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9466" max="9518" width="10.83203125" style="32"/>
+    <col min="9519" max="9519" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9520" max="9720" width="10.83203125" style="32"/>
+    <col min="9721" max="9721" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9722" max="9774" width="10.83203125" style="32"/>
+    <col min="9775" max="9775" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9776" max="9976" width="10.83203125" style="32"/>
+    <col min="9977" max="9977" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9978" max="10030" width="10.83203125" style="32"/>
+    <col min="10031" max="10031" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10032" max="10232" width="10.83203125" style="32"/>
+    <col min="10233" max="10233" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10234" max="10286" width="10.83203125" style="32"/>
+    <col min="10287" max="10287" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10288" max="10488" width="10.83203125" style="32"/>
+    <col min="10489" max="10489" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10490" max="10542" width="10.83203125" style="32"/>
+    <col min="10543" max="10543" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10544" max="10744" width="10.83203125" style="32"/>
+    <col min="10745" max="10745" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10746" max="10798" width="10.83203125" style="32"/>
+    <col min="10799" max="10799" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10800" max="11000" width="10.83203125" style="32"/>
+    <col min="11001" max="11001" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11002" max="11054" width="10.83203125" style="32"/>
+    <col min="11055" max="11055" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11056" max="11256" width="10.83203125" style="32"/>
+    <col min="11257" max="11257" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11258" max="11310" width="10.83203125" style="32"/>
+    <col min="11311" max="11311" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11312" max="11512" width="10.83203125" style="32"/>
+    <col min="11513" max="11513" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11514" max="11566" width="10.83203125" style="32"/>
+    <col min="11567" max="11567" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11568" max="11768" width="10.83203125" style="32"/>
+    <col min="11769" max="11769" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11770" max="11822" width="10.83203125" style="32"/>
+    <col min="11823" max="11823" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11824" max="12024" width="10.83203125" style="32"/>
+    <col min="12025" max="12025" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12026" max="12078" width="10.83203125" style="32"/>
+    <col min="12079" max="12079" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12080" max="12280" width="10.83203125" style="32"/>
+    <col min="12281" max="12281" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12282" max="12334" width="10.83203125" style="32"/>
+    <col min="12335" max="12335" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12336" max="12536" width="10.83203125" style="32"/>
+    <col min="12537" max="12537" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12538" max="12590" width="10.83203125" style="32"/>
+    <col min="12591" max="12591" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12592" max="12792" width="10.83203125" style="32"/>
+    <col min="12793" max="12793" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12794" max="12846" width="10.83203125" style="32"/>
+    <col min="12847" max="12847" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12848" max="13048" width="10.83203125" style="32"/>
+    <col min="13049" max="13049" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13050" max="13102" width="10.83203125" style="32"/>
+    <col min="13103" max="13103" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13104" max="13304" width="10.83203125" style="32"/>
+    <col min="13305" max="13305" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13306" max="13358" width="10.83203125" style="32"/>
+    <col min="13359" max="13359" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13360" max="13560" width="10.83203125" style="32"/>
+    <col min="13561" max="13561" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13562" max="13614" width="10.83203125" style="32"/>
+    <col min="13615" max="13615" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13616" max="13816" width="10.83203125" style="32"/>
+    <col min="13817" max="13817" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13818" max="13870" width="10.83203125" style="32"/>
+    <col min="13871" max="13871" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13872" max="14072" width="10.83203125" style="32"/>
+    <col min="14073" max="14073" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14074" max="14126" width="10.83203125" style="32"/>
+    <col min="14127" max="14127" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14128" max="14328" width="10.83203125" style="32"/>
+    <col min="14329" max="14329" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14330" max="14382" width="10.83203125" style="32"/>
+    <col min="14383" max="14383" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14384" max="14584" width="10.83203125" style="32"/>
+    <col min="14585" max="14585" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14586" max="14638" width="10.83203125" style="32"/>
+    <col min="14639" max="14639" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14640" max="14840" width="10.83203125" style="32"/>
+    <col min="14841" max="14841" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14842" max="14894" width="10.83203125" style="32"/>
+    <col min="14895" max="14895" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14896" max="15096" width="10.83203125" style="32"/>
+    <col min="15097" max="15097" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15098" max="15150" width="10.83203125" style="32"/>
+    <col min="15151" max="15151" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15152" max="15352" width="10.83203125" style="32"/>
+    <col min="15353" max="15353" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15354" max="15406" width="10.83203125" style="32"/>
+    <col min="15407" max="15407" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15408" max="15608" width="10.83203125" style="32"/>
+    <col min="15609" max="15609" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15610" max="15662" width="10.83203125" style="32"/>
+    <col min="15663" max="15663" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15664" max="15864" width="10.83203125" style="32"/>
+    <col min="15865" max="15865" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15866" max="15918" width="10.83203125" style="32"/>
+    <col min="15919" max="15919" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15920" max="16120" width="10.83203125" style="32"/>
+    <col min="16121" max="16121" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="16122" max="16174" width="10.83203125" style="32"/>
+    <col min="16175" max="16175" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="16176" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="30" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:48" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="B1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV1" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A2" s="35">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+    </row>
+    <row r="3" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="31"/>
+    </row>
+    <row r="4" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="31">
+        <v>3</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+    </row>
+    <row r="5" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="31">
+        <v>4</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+    </row>
+    <row r="6" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31">
+        <v>5</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="31"/>
+    </row>
+    <row r="7" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31">
+        <v>7</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31">
+        <v>5</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+    </row>
+    <row r="8" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A8" s="35">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31">
+        <v>8</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="31"/>
+    </row>
+    <row r="9" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A9" s="35">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="31">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="31">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="31">
+        <v>13</v>
+      </c>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+    </row>
+    <row r="10" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="31">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31">
+        <v>14</v>
+      </c>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AU10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AV10" s="31"/>
+    </row>
+    <row r="11" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A11" s="35">
+        <v>9</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="31">
+        <v>16</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AU11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AV11" s="31"/>
+    </row>
+    <row r="12" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="31">
+        <v>18</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31">
+        <v>19</v>
+      </c>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31">
+        <v>20</v>
+      </c>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31">
+        <v>21</v>
+      </c>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31">
+        <v>22</v>
+      </c>
+      <c r="AU12" s="31">
+        <v>23</v>
+      </c>
+      <c r="AV12" s="31"/>
+    </row>
+    <row r="13" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A13" s="35">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="31">
+        <v>16</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AU13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AV13" s="31"/>
+    </row>
+    <row r="14" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="31">
+        <v>26</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+    </row>
+    <row r="15" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A15" s="35">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="31">
+        <v>27</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+    </row>
+    <row r="16" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31">
+        <v>29</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31">
+        <v>28</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+    </row>
+    <row r="17" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A17" s="35">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="T1" s="28" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31">
+        <v>30</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31">
+        <v>31</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+    </row>
+    <row r="18" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="29" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31">
+        <v>32</v>
+      </c>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+    </row>
+    <row r="19" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A19" s="35">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31">
+        <v>33</v>
+      </c>
+      <c r="AN19" s="31">
+        <v>34</v>
+      </c>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+    </row>
+    <row r="20" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="Z1" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB1" s="29" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31">
+        <v>35</v>
+      </c>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+    </row>
+    <row r="21" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31">
+        <v>36</v>
+      </c>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+    </row>
+    <row r="22" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A22" s="35">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31">
+        <v>37</v>
+      </c>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+    </row>
+    <row r="23" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A23" s="35">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="C23" s="31">
+        <v>38</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+    </row>
+    <row r="24" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A24" s="35">
+        <v>22</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31">
+        <v>39</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31">
+        <v>40</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="31"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
+    </row>
+    <row r="25" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A25" s="35">
+        <v>23</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="AF1" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG1" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH1" s="29" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="31"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31">
+        <v>41</v>
+      </c>
+      <c r="AV25" s="31"/>
+    </row>
+    <row r="26" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A26" s="35">
+        <v>24</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="C26" s="31">
+        <v>42</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31">
+        <v>42</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31">
+        <v>42</v>
+      </c>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AH26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AI26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AJ26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AK26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="31"/>
+      <c r="AR26" s="31"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+    </row>
+    <row r="27" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A27" s="35">
+        <v>25</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31">
+        <v>43</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31">
+        <v>44</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="31"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+    </row>
+    <row r="28" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A28" s="35">
+        <v>26</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="AJ1" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" s="29" t="s">
+      <c r="C28" s="31">
+        <v>45</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31">
+        <v>45</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31">
+        <v>45</v>
+      </c>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AH28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AI28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AJ28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AK28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+    </row>
+    <row r="29" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A29" s="35">
+        <v>27</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="31">
+        <v>47</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31">
+        <v>47</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31">
+        <v>46</v>
+      </c>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31">
+        <v>47</v>
+      </c>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AH29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AI29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AJ29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AK29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="31"/>
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="31"/>
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="31"/>
+    </row>
+    <row r="30" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A30" s="35">
+        <v>28</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="C30" s="31">
+        <v>48</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31">
+        <v>48</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31">
+        <v>48</v>
+      </c>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AH30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AI30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AJ30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AK30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+    </row>
+    <row r="31" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A31" s="35">
+        <v>29</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="31">
+        <v>50</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31">
+        <v>50</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31">
+        <v>49</v>
+      </c>
+      <c r="X31" s="31">
+        <v>50</v>
+      </c>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AH31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AI31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AJ31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AK31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
+    </row>
+    <row r="32" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A32" s="35">
+        <v>30</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="C32" s="31">
+        <v>51</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31">
+        <v>51</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31">
+        <v>51</v>
+      </c>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AH32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AI32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AJ32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AK32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="31"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="31"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
+      <c r="AV32" s="31"/>
+    </row>
+    <row r="33" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A33" s="35">
+        <v>31</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="C33" s="31">
+        <v>53</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31">
+        <v>53</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31">
+        <v>52</v>
+      </c>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AH33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AI33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AJ33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AK33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="31"/>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+    </row>
+    <row r="34" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A34" s="35">
+        <v>32</v>
+      </c>
+      <c r="B34" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="C34" s="31">
+        <v>54</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31">
+        <v>54</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AH34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AI34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AJ34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AK34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+    </row>
+    <row r="35" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A35" s="35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="31">
+        <v>55</v>
+      </c>
+      <c r="R35" s="31">
+        <v>55</v>
+      </c>
+      <c r="S35" s="31">
+        <v>55</v>
+      </c>
+      <c r="T35" s="31">
+        <v>55</v>
+      </c>
+      <c r="U35" s="31">
+        <v>55</v>
+      </c>
+      <c r="V35" s="31">
+        <v>56</v>
+      </c>
+      <c r="W35" s="31">
+        <v>56</v>
+      </c>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+    </row>
+    <row r="36" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A36" s="35">
+        <v>34</v>
+      </c>
+      <c r="B36" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="31">
+        <v>59</v>
+      </c>
+      <c r="R36" s="31">
+        <v>61</v>
+      </c>
+      <c r="S36" s="31">
+        <v>60</v>
+      </c>
+      <c r="T36" s="31">
+        <v>62</v>
+      </c>
+      <c r="U36" s="31">
+        <v>58</v>
+      </c>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="31"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="31"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="31"/>
+      <c r="AV36" s="31"/>
+    </row>
+    <row r="37" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A37" s="35">
+        <v>35</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AR1" s="29" t="s">
+      <c r="C37" s="31">
+        <v>63</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31">
+        <v>63</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AH37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AI37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AJ37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AK37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+    </row>
+    <row r="38" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A38" s="35">
+        <v>36</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="31">
+        <v>66</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31">
+        <v>66</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31">
+        <v>64</v>
+      </c>
+      <c r="L38" s="31">
+        <v>65</v>
+      </c>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AH38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AI38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AJ38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AK38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+    </row>
+    <row r="39" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A39" s="35">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="C39" s="31">
+        <v>67</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31">
+        <v>67</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AH39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AI39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AJ39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AK39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+    </row>
+    <row r="40" spans="1:48" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A40" s="41">
+        <v>38</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="31">
+        <v>71</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31">
+        <v>71</v>
+      </c>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31">
+        <v>68</v>
+      </c>
+      <c r="N40" s="31">
+        <v>69</v>
+      </c>
+      <c r="O40" s="31">
+        <v>70</v>
+      </c>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AH40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AI40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AJ40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AK40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+    </row>
+    <row r="41" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A41" s="35">
+        <v>39</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AT1" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU1" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-    </row>
-    <row r="3" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-    </row>
-    <row r="4" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-    </row>
-    <row r="5" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-    </row>
-    <row r="6" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-    </row>
-    <row r="7" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-    </row>
-    <row r="8" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="32"/>
-    </row>
-    <row r="9" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-    </row>
-    <row r="10" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-    </row>
-    <row r="11" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-    </row>
-    <row r="12" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-    </row>
-    <row r="13" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-    </row>
-    <row r="14" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="32"/>
-    </row>
-    <row r="15" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-    </row>
-    <row r="16" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-    </row>
-    <row r="17" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="32"/>
-    </row>
-    <row r="18" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-    </row>
-    <row r="19" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="32"/>
-      <c r="AU19" s="32"/>
-    </row>
-    <row r="20" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-    </row>
-    <row r="21" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-    </row>
-    <row r="22" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="32"/>
-    </row>
-    <row r="23" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-    </row>
-    <row r="24" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-    </row>
-    <row r="25" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="32"/>
-    </row>
-    <row r="26" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-    </row>
-    <row r="27" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-    </row>
-    <row r="28" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-    </row>
-    <row r="29" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-    </row>
-    <row r="30" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="32"/>
-      <c r="AU30" s="32"/>
-    </row>
-    <row r="31" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
-      <c r="AU31" s="32"/>
-    </row>
-    <row r="32" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32"/>
-      <c r="AU32" s="32"/>
-    </row>
-    <row r="33" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
-      <c r="AU33" s="32"/>
-    </row>
-    <row r="34" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-    </row>
-    <row r="35" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="32"/>
-    </row>
-    <row r="36" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="32"/>
-    </row>
-    <row r="37" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="32"/>
-      <c r="AU37" s="32"/>
-    </row>
-    <row r="38" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="32"/>
-      <c r="AU38" s="32"/>
-    </row>
-    <row r="39" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="32"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="32"/>
-      <c r="AO39" s="32"/>
-      <c r="AP39" s="32"/>
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="32"/>
-      <c r="AS39" s="32"/>
-      <c r="AT39" s="32"/>
-      <c r="AU39" s="32"/>
-    </row>
-    <row r="40" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="32"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="32"/>
-      <c r="AL40" s="32"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="32"/>
-      <c r="AO40" s="32"/>
-      <c r="AP40" s="32"/>
-      <c r="AQ40" s="32"/>
-      <c r="AR40" s="32"/>
-      <c r="AS40" s="32"/>
-      <c r="AT40" s="32"/>
-      <c r="AU40" s="32"/>
-    </row>
-    <row r="41" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="32"/>
-      <c r="AM41" s="32"/>
-      <c r="AN41" s="32"/>
-      <c r="AO41" s="32"/>
-      <c r="AP41" s="32"/>
-      <c r="AQ41" s="32"/>
-      <c r="AR41" s="32"/>
-      <c r="AS41" s="32"/>
-      <c r="AT41" s="32"/>
-      <c r="AU41" s="32"/>
-    </row>
-    <row r="42" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C41" s="31">
+        <v>72</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31">
+        <v>78</v>
+      </c>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31">
+        <v>73</v>
+      </c>
+      <c r="AH41" s="31">
+        <v>74</v>
+      </c>
+      <c r="AI41" s="31">
+        <v>75</v>
+      </c>
+      <c r="AJ41" s="31">
+        <v>76</v>
+      </c>
+      <c r="AK41" s="31">
+        <v>77</v>
+      </c>
+      <c r="AL41" s="31"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="31"/>
+      <c r="AO41" s="31"/>
+      <c r="AP41" s="31"/>
+      <c r="AQ41" s="31"/>
+      <c r="AR41" s="31"/>
+      <c r="AS41" s="31"/>
+      <c r="AT41" s="31"/>
+      <c r="AU41" s="31"/>
+      <c r="AV41" s="31"/>
+    </row>
+    <row r="42" spans="1:48" ht="24.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3692,18 +4255,18 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="4.33203125" customWidth="1"/>
     <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="4.375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.375" customWidth="1"/>
+    <col min="29" max="29" width="4.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="C1">
         <v>0</v>
       </c>
@@ -3795,7 +4358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -3888,7 +4451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3986,7 +4549,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4084,7 +4647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4182,7 +4745,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4280,7 +4843,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4378,7 +4941,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4476,7 +5039,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4574,7 +5137,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4672,7 +5235,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4770,7 +5333,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4868,7 +5431,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4966,7 +5529,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5064,7 +5627,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5162,7 +5725,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5260,7 +5823,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5358,7 +5921,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5456,7 +6019,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5554,7 +6117,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5652,7 +6215,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5750,7 +6313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5848,7 +6411,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5862,7 +6425,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5876,7 +6439,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5890,7 +6453,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -5901,7 +6464,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -5912,7 +6475,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -5923,7 +6486,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -5934,104 +6497,109 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="B30" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="B31" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="B32" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2">
       <c r="B46" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="2">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6043,21 +6611,21 @@
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="30" width="4.625" customWidth="1"/>
-    <col min="31" max="31" width="9.125" customWidth="1"/>
-    <col min="32" max="33" width="5.875" customWidth="1"/>
-    <col min="34" max="34" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="30" width="4.6640625" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" customWidth="1"/>
+    <col min="32" max="33" width="5.83203125" customWidth="1"/>
+    <col min="34" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="B1">
         <v>0</v>
       </c>
@@ -6146,7 +6714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
@@ -6241,7 +6809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42">
       <c r="A3" s="10"/>
       <c r="B3" s="11">
         <v>100</v>
@@ -6332,7 +6900,7 @@
       </c>
       <c r="AE3" s="6"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -6427,7 +6995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6519,7 +7087,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -6611,7 +7179,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -6703,7 +7271,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -6822,7 +7390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -6914,7 +7482,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -7009,7 +7577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -7101,7 +7669,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -7193,7 +7761,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -7288,7 +7856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -7383,7 +7951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -7475,7 +8043,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -7603,7 +8171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -7698,7 +8266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -7790,7 +8358,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -7882,7 +8450,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -7974,7 +8542,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="10">
         <v>17</v>
       </c>
@@ -8066,7 +8634,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="10">
         <v>18</v>
       </c>
@@ -8158,7 +8726,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="10">
         <v>19</v>
       </c>
@@ -8253,7 +8821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -8345,7 +8913,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="10">
         <v>21</v>
       </c>
@@ -8437,7 +9005,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -8529,7 +9097,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="10">
         <v>23</v>
       </c>
@@ -8624,7 +9192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="10">
         <v>24</v>
       </c>
@@ -8716,7 +9284,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="10">
         <v>25</v>
       </c>
@@ -8808,7 +9376,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="10">
         <v>26</v>
       </c>
@@ -8900,7 +9468,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" s="10">
         <v>27</v>
       </c>
@@ -8995,7 +9563,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" s="10">
         <v>28</v>
       </c>
@@ -9090,7 +9658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" s="10">
         <v>29</v>
       </c>
@@ -9182,7 +9750,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="10">
         <v>30</v>
       </c>
@@ -9274,7 +9842,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" s="10">
         <v>31</v>
       </c>
@@ -9366,7 +9934,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="10">
         <v>32</v>
       </c>
@@ -9461,7 +10029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="10">
         <v>33</v>
       </c>
@@ -9553,7 +10121,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" s="10">
         <v>34</v>
       </c>
@@ -9645,7 +10213,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="10">
         <v>35</v>
       </c>
@@ -9737,7 +10305,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="10">
         <v>36</v>
       </c>
@@ -9829,7 +10397,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="10">
         <v>37</v>
       </c>
@@ -9921,18 +10489,23 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="26">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9944,15 +10517,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="29" width="4.625" customWidth="1"/>
-    <col min="30" max="30" width="9.25" customWidth="1"/>
-    <col min="31" max="31" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="29" width="4.6640625" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="B1">
         <v>0</v>
       </c>
@@ -10041,7 +10614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -10134,7 +10707,7 @@
       </c>
       <c r="AE2" s="6"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>100</v>
@@ -10224,7 +10797,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10316,7 +10889,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10408,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10500,7 +11073,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10592,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -10626,7 +11199,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -10660,7 +11233,7 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -10694,7 +11267,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -10728,7 +11301,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -10762,7 +11335,7 @@
       <c r="AC12" s="14"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -10796,7 +11369,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -10830,7 +11403,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -10864,7 +11437,7 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -10898,7 +11471,7 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -10932,7 +11505,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -10966,7 +11539,7 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -11000,7 +11573,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -11034,484 +11607,489 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11523,9 +12101,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>300</v>
       </c>
@@ -11536,7 +12114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>301</v>
       </c>
@@ -11547,7 +12125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>302</v>
       </c>
@@ -11558,7 +12136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>303</v>
       </c>
@@ -11569,7 +12147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>304</v>
       </c>
@@ -11582,6 +12160,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11593,14 +12176,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.375" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -11611,7 +12194,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -11622,7 +12205,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -11635,5 +12218,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="16420" windowHeight="20320" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="16425" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Predicitiva" sheetId="12" r:id="rId1"/>
-    <sheet name="Lexico" sheetId="1" r:id="rId2"/>
-    <sheet name="Sintactico" sheetId="3" r:id="rId3"/>
-    <sheet name="expresion" sheetId="6" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="9" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="10" r:id="rId6"/>
+    <sheet name="Predicitiva Final" sheetId="13" r:id="rId1"/>
+    <sheet name="Predicitiva" sheetId="12" r:id="rId2"/>
+    <sheet name="Lexico" sheetId="1" r:id="rId3"/>
+    <sheet name="Sintactico" sheetId="3" r:id="rId4"/>
+    <sheet name="expresion" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="160">
   <si>
     <t>l</t>
   </si>
@@ -509,8 +510,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -945,6 +946,55 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
+          <a:off x="247653" y="9528"/>
+          <a:ext cx="1238248" cy="866773"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9528</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
           <a:off x="9528" y="9528"/>
           <a:ext cx="2695573" cy="866773"/>
         </a:xfrm>
@@ -1293,274 +1343,6528 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="8240" ySplit="7600" topLeftCell="AH33"/>
-      <selection activeCell="M4" sqref="M4"/>
-      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="A40:XFD40"/>
-      <selection pane="bottomRight" activeCell="AJ37" sqref="AJ37"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AV41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="33" customWidth="1"/>
-    <col min="3" max="248" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="3.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="33" customWidth="1"/>
+    <col min="3" max="248" width="11" style="32"/>
     <col min="249" max="249" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="250" max="302" width="10.83203125" style="32"/>
-    <col min="303" max="303" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="304" max="504" width="10.83203125" style="32"/>
+    <col min="250" max="302" width="11" style="32"/>
+    <col min="303" max="303" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="304" max="504" width="11" style="32"/>
     <col min="505" max="505" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="506" max="558" width="10.83203125" style="32"/>
-    <col min="559" max="559" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="560" max="760" width="10.83203125" style="32"/>
+    <col min="506" max="558" width="11" style="32"/>
+    <col min="559" max="559" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="560" max="760" width="11" style="32"/>
     <col min="761" max="761" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="762" max="814" width="10.83203125" style="32"/>
-    <col min="815" max="815" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="816" max="1016" width="10.83203125" style="32"/>
+    <col min="762" max="814" width="11" style="32"/>
+    <col min="815" max="815" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="816" max="1016" width="11" style="32"/>
     <col min="1017" max="1017" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1018" max="1070" width="10.83203125" style="32"/>
-    <col min="1071" max="1071" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1072" max="1272" width="10.83203125" style="32"/>
+    <col min="1018" max="1070" width="11" style="32"/>
+    <col min="1071" max="1071" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1072" max="1272" width="11" style="32"/>
     <col min="1273" max="1273" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1274" max="1326" width="10.83203125" style="32"/>
-    <col min="1327" max="1327" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1328" max="1528" width="10.83203125" style="32"/>
+    <col min="1274" max="1326" width="11" style="32"/>
+    <col min="1327" max="1327" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1328" max="1528" width="11" style="32"/>
     <col min="1529" max="1529" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1530" max="1582" width="10.83203125" style="32"/>
-    <col min="1583" max="1583" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1584" max="1784" width="10.83203125" style="32"/>
+    <col min="1530" max="1582" width="11" style="32"/>
+    <col min="1583" max="1583" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1584" max="1784" width="11" style="32"/>
     <col min="1785" max="1785" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1786" max="1838" width="10.83203125" style="32"/>
-    <col min="1839" max="1839" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1840" max="2040" width="10.83203125" style="32"/>
+    <col min="1786" max="1838" width="11" style="32"/>
+    <col min="1839" max="1839" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1840" max="2040" width="11" style="32"/>
     <col min="2041" max="2041" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2042" max="2094" width="10.83203125" style="32"/>
-    <col min="2095" max="2095" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2096" max="2296" width="10.83203125" style="32"/>
+    <col min="2042" max="2094" width="11" style="32"/>
+    <col min="2095" max="2095" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2096" max="2296" width="11" style="32"/>
     <col min="2297" max="2297" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2298" max="2350" width="10.83203125" style="32"/>
-    <col min="2351" max="2351" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2352" max="2552" width="10.83203125" style="32"/>
+    <col min="2298" max="2350" width="11" style="32"/>
+    <col min="2351" max="2351" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2352" max="2552" width="11" style="32"/>
     <col min="2553" max="2553" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2554" max="2606" width="10.83203125" style="32"/>
-    <col min="2607" max="2607" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2608" max="2808" width="10.83203125" style="32"/>
+    <col min="2554" max="2606" width="11" style="32"/>
+    <col min="2607" max="2607" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2608" max="2808" width="11" style="32"/>
     <col min="2809" max="2809" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2810" max="2862" width="10.83203125" style="32"/>
-    <col min="2863" max="2863" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2864" max="3064" width="10.83203125" style="32"/>
+    <col min="2810" max="2862" width="11" style="32"/>
+    <col min="2863" max="2863" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2864" max="3064" width="11" style="32"/>
     <col min="3065" max="3065" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3066" max="3118" width="10.83203125" style="32"/>
-    <col min="3119" max="3119" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3120" max="3320" width="10.83203125" style="32"/>
+    <col min="3066" max="3118" width="11" style="32"/>
+    <col min="3119" max="3119" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3120" max="3320" width="11" style="32"/>
     <col min="3321" max="3321" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3322" max="3374" width="10.83203125" style="32"/>
-    <col min="3375" max="3375" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3376" max="3576" width="10.83203125" style="32"/>
+    <col min="3322" max="3374" width="11" style="32"/>
+    <col min="3375" max="3375" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3376" max="3576" width="11" style="32"/>
     <col min="3577" max="3577" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3578" max="3630" width="10.83203125" style="32"/>
-    <col min="3631" max="3631" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3632" max="3832" width="10.83203125" style="32"/>
+    <col min="3578" max="3630" width="11" style="32"/>
+    <col min="3631" max="3631" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3632" max="3832" width="11" style="32"/>
     <col min="3833" max="3833" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3834" max="3886" width="10.83203125" style="32"/>
-    <col min="3887" max="3887" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3888" max="4088" width="10.83203125" style="32"/>
+    <col min="3834" max="3886" width="11" style="32"/>
+    <col min="3887" max="3887" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3888" max="4088" width="11" style="32"/>
     <col min="4089" max="4089" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4090" max="4142" width="10.83203125" style="32"/>
-    <col min="4143" max="4143" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4144" max="4344" width="10.83203125" style="32"/>
+    <col min="4090" max="4142" width="11" style="32"/>
+    <col min="4143" max="4143" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4144" max="4344" width="11" style="32"/>
     <col min="4345" max="4345" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4346" max="4398" width="10.83203125" style="32"/>
-    <col min="4399" max="4399" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4400" max="4600" width="10.83203125" style="32"/>
+    <col min="4346" max="4398" width="11" style="32"/>
+    <col min="4399" max="4399" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4400" max="4600" width="11" style="32"/>
     <col min="4601" max="4601" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4602" max="4654" width="10.83203125" style="32"/>
-    <col min="4655" max="4655" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4656" max="4856" width="10.83203125" style="32"/>
+    <col min="4602" max="4654" width="11" style="32"/>
+    <col min="4655" max="4655" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4656" max="4856" width="11" style="32"/>
     <col min="4857" max="4857" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4858" max="4910" width="10.83203125" style="32"/>
-    <col min="4911" max="4911" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4912" max="5112" width="10.83203125" style="32"/>
+    <col min="4858" max="4910" width="11" style="32"/>
+    <col min="4911" max="4911" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4912" max="5112" width="11" style="32"/>
     <col min="5113" max="5113" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5114" max="5166" width="10.83203125" style="32"/>
-    <col min="5167" max="5167" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5168" max="5368" width="10.83203125" style="32"/>
+    <col min="5114" max="5166" width="11" style="32"/>
+    <col min="5167" max="5167" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5168" max="5368" width="11" style="32"/>
     <col min="5369" max="5369" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5370" max="5422" width="10.83203125" style="32"/>
-    <col min="5423" max="5423" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5424" max="5624" width="10.83203125" style="32"/>
+    <col min="5370" max="5422" width="11" style="32"/>
+    <col min="5423" max="5423" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5424" max="5624" width="11" style="32"/>
     <col min="5625" max="5625" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5626" max="5678" width="10.83203125" style="32"/>
-    <col min="5679" max="5679" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5680" max="5880" width="10.83203125" style="32"/>
+    <col min="5626" max="5678" width="11" style="32"/>
+    <col min="5679" max="5679" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5680" max="5880" width="11" style="32"/>
     <col min="5881" max="5881" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5882" max="5934" width="10.83203125" style="32"/>
-    <col min="5935" max="5935" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5936" max="6136" width="10.83203125" style="32"/>
+    <col min="5882" max="5934" width="11" style="32"/>
+    <col min="5935" max="5935" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5936" max="6136" width="11" style="32"/>
     <col min="6137" max="6137" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6138" max="6190" width="10.83203125" style="32"/>
-    <col min="6191" max="6191" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6192" max="6392" width="10.83203125" style="32"/>
+    <col min="6138" max="6190" width="11" style="32"/>
+    <col min="6191" max="6191" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6192" max="6392" width="11" style="32"/>
     <col min="6393" max="6393" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6394" max="6446" width="10.83203125" style="32"/>
-    <col min="6447" max="6447" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6448" max="6648" width="10.83203125" style="32"/>
+    <col min="6394" max="6446" width="11" style="32"/>
+    <col min="6447" max="6447" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6448" max="6648" width="11" style="32"/>
     <col min="6649" max="6649" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6650" max="6702" width="10.83203125" style="32"/>
-    <col min="6703" max="6703" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6704" max="6904" width="10.83203125" style="32"/>
+    <col min="6650" max="6702" width="11" style="32"/>
+    <col min="6703" max="6703" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6704" max="6904" width="11" style="32"/>
     <col min="6905" max="6905" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6906" max="6958" width="10.83203125" style="32"/>
-    <col min="6959" max="6959" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6960" max="7160" width="10.83203125" style="32"/>
+    <col min="6906" max="6958" width="11" style="32"/>
+    <col min="6959" max="6959" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6960" max="7160" width="11" style="32"/>
     <col min="7161" max="7161" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7162" max="7214" width="10.83203125" style="32"/>
-    <col min="7215" max="7215" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7216" max="7416" width="10.83203125" style="32"/>
+    <col min="7162" max="7214" width="11" style="32"/>
+    <col min="7215" max="7215" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7216" max="7416" width="11" style="32"/>
     <col min="7417" max="7417" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7418" max="7470" width="10.83203125" style="32"/>
-    <col min="7471" max="7471" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7472" max="7672" width="10.83203125" style="32"/>
+    <col min="7418" max="7470" width="11" style="32"/>
+    <col min="7471" max="7471" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7472" max="7672" width="11" style="32"/>
     <col min="7673" max="7673" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7674" max="7726" width="10.83203125" style="32"/>
-    <col min="7727" max="7727" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7728" max="7928" width="10.83203125" style="32"/>
+    <col min="7674" max="7726" width="11" style="32"/>
+    <col min="7727" max="7727" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7728" max="7928" width="11" style="32"/>
     <col min="7929" max="7929" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7930" max="7982" width="10.83203125" style="32"/>
-    <col min="7983" max="7983" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7984" max="8184" width="10.83203125" style="32"/>
+    <col min="7930" max="7982" width="11" style="32"/>
+    <col min="7983" max="7983" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7984" max="8184" width="11" style="32"/>
     <col min="8185" max="8185" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8186" max="8238" width="10.83203125" style="32"/>
-    <col min="8239" max="8239" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8240" max="8440" width="10.83203125" style="32"/>
+    <col min="8186" max="8238" width="11" style="32"/>
+    <col min="8239" max="8239" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8240" max="8440" width="11" style="32"/>
     <col min="8441" max="8441" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8442" max="8494" width="10.83203125" style="32"/>
-    <col min="8495" max="8495" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8496" max="8696" width="10.83203125" style="32"/>
+    <col min="8442" max="8494" width="11" style="32"/>
+    <col min="8495" max="8495" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8496" max="8696" width="11" style="32"/>
     <col min="8697" max="8697" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8698" max="8750" width="10.83203125" style="32"/>
-    <col min="8751" max="8751" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8752" max="8952" width="10.83203125" style="32"/>
+    <col min="8698" max="8750" width="11" style="32"/>
+    <col min="8751" max="8751" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8752" max="8952" width="11" style="32"/>
     <col min="8953" max="8953" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8954" max="9006" width="10.83203125" style="32"/>
-    <col min="9007" max="9007" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9008" max="9208" width="10.83203125" style="32"/>
+    <col min="8954" max="9006" width="11" style="32"/>
+    <col min="9007" max="9007" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9008" max="9208" width="11" style="32"/>
     <col min="9209" max="9209" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9210" max="9262" width="10.83203125" style="32"/>
-    <col min="9263" max="9263" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9264" max="9464" width="10.83203125" style="32"/>
+    <col min="9210" max="9262" width="11" style="32"/>
+    <col min="9263" max="9263" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9264" max="9464" width="11" style="32"/>
     <col min="9465" max="9465" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9466" max="9518" width="10.83203125" style="32"/>
-    <col min="9519" max="9519" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9520" max="9720" width="10.83203125" style="32"/>
+    <col min="9466" max="9518" width="11" style="32"/>
+    <col min="9519" max="9519" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9520" max="9720" width="11" style="32"/>
     <col min="9721" max="9721" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9722" max="9774" width="10.83203125" style="32"/>
-    <col min="9775" max="9775" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9776" max="9976" width="10.83203125" style="32"/>
+    <col min="9722" max="9774" width="11" style="32"/>
+    <col min="9775" max="9775" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9776" max="9976" width="11" style="32"/>
     <col min="9977" max="9977" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9978" max="10030" width="10.83203125" style="32"/>
-    <col min="10031" max="10031" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10032" max="10232" width="10.83203125" style="32"/>
+    <col min="9978" max="10030" width="11" style="32"/>
+    <col min="10031" max="10031" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10032" max="10232" width="11" style="32"/>
     <col min="10233" max="10233" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10234" max="10286" width="10.83203125" style="32"/>
-    <col min="10287" max="10287" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10288" max="10488" width="10.83203125" style="32"/>
+    <col min="10234" max="10286" width="11" style="32"/>
+    <col min="10287" max="10287" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10288" max="10488" width="11" style="32"/>
     <col min="10489" max="10489" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10490" max="10542" width="10.83203125" style="32"/>
-    <col min="10543" max="10543" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10544" max="10744" width="10.83203125" style="32"/>
+    <col min="10490" max="10542" width="11" style="32"/>
+    <col min="10543" max="10543" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10544" max="10744" width="11" style="32"/>
     <col min="10745" max="10745" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10746" max="10798" width="10.83203125" style="32"/>
-    <col min="10799" max="10799" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10800" max="11000" width="10.83203125" style="32"/>
+    <col min="10746" max="10798" width="11" style="32"/>
+    <col min="10799" max="10799" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10800" max="11000" width="11" style="32"/>
     <col min="11001" max="11001" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11002" max="11054" width="10.83203125" style="32"/>
-    <col min="11055" max="11055" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11056" max="11256" width="10.83203125" style="32"/>
+    <col min="11002" max="11054" width="11" style="32"/>
+    <col min="11055" max="11055" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11056" max="11256" width="11" style="32"/>
     <col min="11257" max="11257" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11258" max="11310" width="10.83203125" style="32"/>
-    <col min="11311" max="11311" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11312" max="11512" width="10.83203125" style="32"/>
+    <col min="11258" max="11310" width="11" style="32"/>
+    <col min="11311" max="11311" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11312" max="11512" width="11" style="32"/>
     <col min="11513" max="11513" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11514" max="11566" width="10.83203125" style="32"/>
-    <col min="11567" max="11567" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11568" max="11768" width="10.83203125" style="32"/>
+    <col min="11514" max="11566" width="11" style="32"/>
+    <col min="11567" max="11567" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11568" max="11768" width="11" style="32"/>
     <col min="11769" max="11769" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11770" max="11822" width="10.83203125" style="32"/>
-    <col min="11823" max="11823" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11824" max="12024" width="10.83203125" style="32"/>
+    <col min="11770" max="11822" width="11" style="32"/>
+    <col min="11823" max="11823" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11824" max="12024" width="11" style="32"/>
     <col min="12025" max="12025" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12026" max="12078" width="10.83203125" style="32"/>
-    <col min="12079" max="12079" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12080" max="12280" width="10.83203125" style="32"/>
+    <col min="12026" max="12078" width="11" style="32"/>
+    <col min="12079" max="12079" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12080" max="12280" width="11" style="32"/>
     <col min="12281" max="12281" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12282" max="12334" width="10.83203125" style="32"/>
-    <col min="12335" max="12335" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12336" max="12536" width="10.83203125" style="32"/>
+    <col min="12282" max="12334" width="11" style="32"/>
+    <col min="12335" max="12335" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12336" max="12536" width="11" style="32"/>
     <col min="12537" max="12537" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12538" max="12590" width="10.83203125" style="32"/>
-    <col min="12591" max="12591" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12592" max="12792" width="10.83203125" style="32"/>
+    <col min="12538" max="12590" width="11" style="32"/>
+    <col min="12591" max="12591" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12592" max="12792" width="11" style="32"/>
     <col min="12793" max="12793" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12794" max="12846" width="10.83203125" style="32"/>
-    <col min="12847" max="12847" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12848" max="13048" width="10.83203125" style="32"/>
+    <col min="12794" max="12846" width="11" style="32"/>
+    <col min="12847" max="12847" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12848" max="13048" width="11" style="32"/>
     <col min="13049" max="13049" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13050" max="13102" width="10.83203125" style="32"/>
-    <col min="13103" max="13103" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13104" max="13304" width="10.83203125" style="32"/>
+    <col min="13050" max="13102" width="11" style="32"/>
+    <col min="13103" max="13103" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13104" max="13304" width="11" style="32"/>
     <col min="13305" max="13305" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13306" max="13358" width="10.83203125" style="32"/>
-    <col min="13359" max="13359" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13360" max="13560" width="10.83203125" style="32"/>
+    <col min="13306" max="13358" width="11" style="32"/>
+    <col min="13359" max="13359" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13360" max="13560" width="11" style="32"/>
     <col min="13561" max="13561" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13562" max="13614" width="10.83203125" style="32"/>
-    <col min="13615" max="13615" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13616" max="13816" width="10.83203125" style="32"/>
+    <col min="13562" max="13614" width="11" style="32"/>
+    <col min="13615" max="13615" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13616" max="13816" width="11" style="32"/>
     <col min="13817" max="13817" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13818" max="13870" width="10.83203125" style="32"/>
-    <col min="13871" max="13871" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13872" max="14072" width="10.83203125" style="32"/>
+    <col min="13818" max="13870" width="11" style="32"/>
+    <col min="13871" max="13871" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13872" max="14072" width="11" style="32"/>
     <col min="14073" max="14073" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14074" max="14126" width="10.83203125" style="32"/>
-    <col min="14127" max="14127" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14128" max="14328" width="10.83203125" style="32"/>
+    <col min="14074" max="14126" width="11" style="32"/>
+    <col min="14127" max="14127" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14128" max="14328" width="11" style="32"/>
     <col min="14329" max="14329" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14330" max="14382" width="10.83203125" style="32"/>
-    <col min="14383" max="14383" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14384" max="14584" width="10.83203125" style="32"/>
+    <col min="14330" max="14382" width="11" style="32"/>
+    <col min="14383" max="14383" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14384" max="14584" width="11" style="32"/>
     <col min="14585" max="14585" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14586" max="14638" width="10.83203125" style="32"/>
-    <col min="14639" max="14639" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14640" max="14840" width="10.83203125" style="32"/>
+    <col min="14586" max="14638" width="11" style="32"/>
+    <col min="14639" max="14639" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14640" max="14840" width="11" style="32"/>
     <col min="14841" max="14841" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14842" max="14894" width="10.83203125" style="32"/>
-    <col min="14895" max="14895" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14896" max="15096" width="10.83203125" style="32"/>
+    <col min="14842" max="14894" width="11" style="32"/>
+    <col min="14895" max="14895" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14896" max="15096" width="11" style="32"/>
     <col min="15097" max="15097" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15098" max="15150" width="10.83203125" style="32"/>
-    <col min="15151" max="15151" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15152" max="15352" width="10.83203125" style="32"/>
+    <col min="15098" max="15150" width="11" style="32"/>
+    <col min="15151" max="15151" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15152" max="15352" width="11" style="32"/>
     <col min="15353" max="15353" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15354" max="15406" width="10.83203125" style="32"/>
-    <col min="15407" max="15407" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15408" max="15608" width="10.83203125" style="32"/>
+    <col min="15354" max="15406" width="11" style="32"/>
+    <col min="15407" max="15407" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15408" max="15608" width="11" style="32"/>
     <col min="15609" max="15609" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15610" max="15662" width="10.83203125" style="32"/>
-    <col min="15663" max="15663" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15664" max="15864" width="10.83203125" style="32"/>
+    <col min="15610" max="15662" width="11" style="32"/>
+    <col min="15663" max="15663" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15664" max="15864" width="11" style="32"/>
     <col min="15865" max="15865" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15866" max="15918" width="10.83203125" style="32"/>
-    <col min="15919" max="15919" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15920" max="16120" width="10.83203125" style="32"/>
+    <col min="15866" max="15918" width="11" style="32"/>
+    <col min="15919" max="15919" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15920" max="16120" width="11" style="32"/>
     <col min="16121" max="16121" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="16122" max="16174" width="10.83203125" style="32"/>
-    <col min="16175" max="16175" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="16176" max="16384" width="10.83203125" style="32"/>
+    <col min="16122" max="16174" width="11" style="32"/>
+    <col min="16175" max="16175" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="16176" max="16384" width="11" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="B1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV1" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A2" s="35">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="31">
+        <v>600</v>
+      </c>
+      <c r="D2" s="31">
+        <v>600</v>
+      </c>
+      <c r="E2" s="31">
+        <v>600</v>
+      </c>
+      <c r="F2" s="31">
+        <v>600</v>
+      </c>
+      <c r="G2" s="31">
+        <v>600</v>
+      </c>
+      <c r="H2" s="31">
+        <v>600</v>
+      </c>
+      <c r="I2" s="31">
+        <v>600</v>
+      </c>
+      <c r="J2" s="31">
+        <v>600</v>
+      </c>
+      <c r="K2" s="31">
+        <v>600</v>
+      </c>
+      <c r="L2" s="31">
+        <v>600</v>
+      </c>
+      <c r="M2" s="31">
+        <v>600</v>
+      </c>
+      <c r="N2" s="31">
+        <v>600</v>
+      </c>
+      <c r="O2" s="31">
+        <v>600</v>
+      </c>
+      <c r="P2" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>600</v>
+      </c>
+      <c r="R2" s="31">
+        <v>600</v>
+      </c>
+      <c r="S2" s="31">
+        <v>600</v>
+      </c>
+      <c r="T2" s="31">
+        <v>600</v>
+      </c>
+      <c r="U2" s="31">
+        <v>600</v>
+      </c>
+      <c r="V2" s="31">
+        <v>600</v>
+      </c>
+      <c r="W2" s="31">
+        <v>600</v>
+      </c>
+      <c r="X2" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y2" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV2" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>600</v>
+      </c>
+      <c r="E3" s="31">
+        <v>600</v>
+      </c>
+      <c r="F3" s="31">
+        <v>600</v>
+      </c>
+      <c r="G3" s="31">
+        <v>600</v>
+      </c>
+      <c r="H3" s="31">
+        <v>600</v>
+      </c>
+      <c r="I3" s="31">
+        <v>600</v>
+      </c>
+      <c r="J3" s="31">
+        <v>600</v>
+      </c>
+      <c r="K3" s="31">
+        <v>600</v>
+      </c>
+      <c r="L3" s="31">
+        <v>600</v>
+      </c>
+      <c r="M3" s="31">
+        <v>600</v>
+      </c>
+      <c r="N3" s="31">
+        <v>600</v>
+      </c>
+      <c r="O3" s="31">
+        <v>600</v>
+      </c>
+      <c r="P3" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>600</v>
+      </c>
+      <c r="R3" s="31">
+        <v>600</v>
+      </c>
+      <c r="S3" s="31">
+        <v>600</v>
+      </c>
+      <c r="T3" s="31">
+        <v>600</v>
+      </c>
+      <c r="U3" s="31">
+        <v>600</v>
+      </c>
+      <c r="V3" s="31">
+        <v>600</v>
+      </c>
+      <c r="W3" s="31">
+        <v>600</v>
+      </c>
+      <c r="X3" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y3" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA3" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS3" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="31">
+        <v>3</v>
+      </c>
+      <c r="D4" s="31">
+        <v>600</v>
+      </c>
+      <c r="E4" s="31">
+        <v>600</v>
+      </c>
+      <c r="F4" s="31">
+        <v>600</v>
+      </c>
+      <c r="G4" s="31">
+        <v>600</v>
+      </c>
+      <c r="H4" s="31">
+        <v>600</v>
+      </c>
+      <c r="I4" s="31">
+        <v>600</v>
+      </c>
+      <c r="J4" s="31">
+        <v>600</v>
+      </c>
+      <c r="K4" s="31">
+        <v>600</v>
+      </c>
+      <c r="L4" s="31">
+        <v>600</v>
+      </c>
+      <c r="M4" s="31">
+        <v>600</v>
+      </c>
+      <c r="N4" s="31">
+        <v>600</v>
+      </c>
+      <c r="O4" s="31">
+        <v>600</v>
+      </c>
+      <c r="P4" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>600</v>
+      </c>
+      <c r="R4" s="31">
+        <v>600</v>
+      </c>
+      <c r="S4" s="31">
+        <v>600</v>
+      </c>
+      <c r="T4" s="31">
+        <v>600</v>
+      </c>
+      <c r="U4" s="31">
+        <v>600</v>
+      </c>
+      <c r="V4" s="31">
+        <v>600</v>
+      </c>
+      <c r="W4" s="31">
+        <v>600</v>
+      </c>
+      <c r="X4" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y4" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU4" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV4" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="31">
+        <v>4</v>
+      </c>
+      <c r="D5" s="31">
+        <v>600</v>
+      </c>
+      <c r="E5" s="31">
+        <v>600</v>
+      </c>
+      <c r="F5" s="31">
+        <v>600</v>
+      </c>
+      <c r="G5" s="31">
+        <v>600</v>
+      </c>
+      <c r="H5" s="31">
+        <v>600</v>
+      </c>
+      <c r="I5" s="31">
+        <v>600</v>
+      </c>
+      <c r="J5" s="31">
+        <v>600</v>
+      </c>
+      <c r="K5" s="31">
+        <v>600</v>
+      </c>
+      <c r="L5" s="31">
+        <v>600</v>
+      </c>
+      <c r="M5" s="31">
+        <v>600</v>
+      </c>
+      <c r="N5" s="31">
+        <v>600</v>
+      </c>
+      <c r="O5" s="31">
+        <v>600</v>
+      </c>
+      <c r="P5" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>600</v>
+      </c>
+      <c r="R5" s="31">
+        <v>600</v>
+      </c>
+      <c r="S5" s="31">
+        <v>600</v>
+      </c>
+      <c r="T5" s="31">
+        <v>600</v>
+      </c>
+      <c r="U5" s="31">
+        <v>600</v>
+      </c>
+      <c r="V5" s="31">
+        <v>600</v>
+      </c>
+      <c r="W5" s="31">
+        <v>600</v>
+      </c>
+      <c r="X5" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU5" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV5" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="31">
+        <v>600</v>
+      </c>
+      <c r="D6" s="31">
+        <v>600</v>
+      </c>
+      <c r="E6" s="31">
+        <v>600</v>
+      </c>
+      <c r="F6" s="31">
+        <v>600</v>
+      </c>
+      <c r="G6" s="31">
+        <v>600</v>
+      </c>
+      <c r="H6" s="31">
+        <v>600</v>
+      </c>
+      <c r="I6" s="31">
+        <v>5</v>
+      </c>
+      <c r="J6" s="31">
+        <v>600</v>
+      </c>
+      <c r="K6" s="31">
+        <v>600</v>
+      </c>
+      <c r="L6" s="31">
+        <v>600</v>
+      </c>
+      <c r="M6" s="31">
+        <v>600</v>
+      </c>
+      <c r="N6" s="31">
+        <v>600</v>
+      </c>
+      <c r="O6" s="31">
+        <v>600</v>
+      </c>
+      <c r="P6" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>600</v>
+      </c>
+      <c r="R6" s="31">
+        <v>600</v>
+      </c>
+      <c r="S6" s="31">
+        <v>600</v>
+      </c>
+      <c r="T6" s="31">
+        <v>600</v>
+      </c>
+      <c r="U6" s="31">
+        <v>600</v>
+      </c>
+      <c r="V6" s="31">
+        <v>600</v>
+      </c>
+      <c r="W6" s="31">
+        <v>600</v>
+      </c>
+      <c r="X6" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y6" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU6" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV6" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="31">
+        <v>600</v>
+      </c>
+      <c r="D7" s="31">
+        <v>600</v>
+      </c>
+      <c r="E7" s="31">
+        <v>7</v>
+      </c>
+      <c r="F7" s="31">
+        <v>600</v>
+      </c>
+      <c r="G7" s="31">
+        <v>600</v>
+      </c>
+      <c r="H7" s="31">
+        <v>600</v>
+      </c>
+      <c r="I7" s="31">
+        <v>5</v>
+      </c>
+      <c r="J7" s="31">
+        <v>600</v>
+      </c>
+      <c r="K7" s="31">
+        <v>600</v>
+      </c>
+      <c r="L7" s="31">
+        <v>600</v>
+      </c>
+      <c r="M7" s="31">
+        <v>600</v>
+      </c>
+      <c r="N7" s="31">
+        <v>600</v>
+      </c>
+      <c r="O7" s="31">
+        <v>600</v>
+      </c>
+      <c r="P7" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>600</v>
+      </c>
+      <c r="R7" s="31">
+        <v>600</v>
+      </c>
+      <c r="S7" s="31">
+        <v>600</v>
+      </c>
+      <c r="T7" s="31">
+        <v>600</v>
+      </c>
+      <c r="U7" s="31">
+        <v>600</v>
+      </c>
+      <c r="V7" s="31">
+        <v>600</v>
+      </c>
+      <c r="W7" s="31">
+        <v>600</v>
+      </c>
+      <c r="X7" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y7" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB7" s="31">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU7" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV7" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A8" s="35">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="31">
+        <v>600</v>
+      </c>
+      <c r="D8" s="31">
+        <v>600</v>
+      </c>
+      <c r="E8" s="31">
+        <v>8</v>
+      </c>
+      <c r="F8" s="31">
+        <v>600</v>
+      </c>
+      <c r="G8" s="31">
+        <v>600</v>
+      </c>
+      <c r="H8" s="31">
+        <v>600</v>
+      </c>
+      <c r="I8" s="31">
+        <v>600</v>
+      </c>
+      <c r="J8" s="31">
+        <v>600</v>
+      </c>
+      <c r="K8" s="31">
+        <v>600</v>
+      </c>
+      <c r="L8" s="31">
+        <v>600</v>
+      </c>
+      <c r="M8" s="31">
+        <v>600</v>
+      </c>
+      <c r="N8" s="31">
+        <v>600</v>
+      </c>
+      <c r="O8" s="31">
+        <v>600</v>
+      </c>
+      <c r="P8" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>600</v>
+      </c>
+      <c r="R8" s="31">
+        <v>600</v>
+      </c>
+      <c r="S8" s="31">
+        <v>600</v>
+      </c>
+      <c r="T8" s="31">
+        <v>600</v>
+      </c>
+      <c r="U8" s="31">
+        <v>600</v>
+      </c>
+      <c r="V8" s="31">
+        <v>600</v>
+      </c>
+      <c r="W8" s="31">
+        <v>600</v>
+      </c>
+      <c r="X8" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU8" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV8" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A9" s="35">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="31">
+        <v>600</v>
+      </c>
+      <c r="D9" s="31">
+        <v>600</v>
+      </c>
+      <c r="E9" s="31">
+        <v>600</v>
+      </c>
+      <c r="F9" s="31">
+        <v>600</v>
+      </c>
+      <c r="G9" s="31">
+        <v>600</v>
+      </c>
+      <c r="H9" s="31">
+        <v>600</v>
+      </c>
+      <c r="I9" s="31">
+        <v>600</v>
+      </c>
+      <c r="J9" s="31">
+        <v>600</v>
+      </c>
+      <c r="K9" s="31">
+        <v>600</v>
+      </c>
+      <c r="L9" s="31">
+        <v>600</v>
+      </c>
+      <c r="M9" s="31">
+        <v>600</v>
+      </c>
+      <c r="N9" s="31">
+        <v>600</v>
+      </c>
+      <c r="O9" s="31">
+        <v>600</v>
+      </c>
+      <c r="P9" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>600</v>
+      </c>
+      <c r="R9" s="31">
+        <v>600</v>
+      </c>
+      <c r="S9" s="31">
+        <v>600</v>
+      </c>
+      <c r="T9" s="31">
+        <v>600</v>
+      </c>
+      <c r="U9" s="31">
+        <v>600</v>
+      </c>
+      <c r="V9" s="31">
+        <v>600</v>
+      </c>
+      <c r="W9" s="31">
+        <v>600</v>
+      </c>
+      <c r="X9" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD9" s="31">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="31">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="31">
+        <v>13</v>
+      </c>
+      <c r="AG9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU9" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV9" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="31">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31">
+        <v>600</v>
+      </c>
+      <c r="E10" s="31">
+        <v>600</v>
+      </c>
+      <c r="F10" s="31">
+        <v>600</v>
+      </c>
+      <c r="G10" s="31">
+        <v>600</v>
+      </c>
+      <c r="H10" s="31">
+        <v>600</v>
+      </c>
+      <c r="I10" s="31">
+        <v>600</v>
+      </c>
+      <c r="J10" s="31">
+        <v>600</v>
+      </c>
+      <c r="K10" s="31">
+        <v>600</v>
+      </c>
+      <c r="L10" s="31">
+        <v>600</v>
+      </c>
+      <c r="M10" s="31">
+        <v>600</v>
+      </c>
+      <c r="N10" s="31">
+        <v>600</v>
+      </c>
+      <c r="O10" s="31">
+        <v>600</v>
+      </c>
+      <c r="P10" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>600</v>
+      </c>
+      <c r="R10" s="31">
+        <v>600</v>
+      </c>
+      <c r="S10" s="31">
+        <v>600</v>
+      </c>
+      <c r="T10" s="31">
+        <v>600</v>
+      </c>
+      <c r="U10" s="31">
+        <v>600</v>
+      </c>
+      <c r="V10" s="31">
+        <v>600</v>
+      </c>
+      <c r="W10" s="31">
+        <v>600</v>
+      </c>
+      <c r="X10" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y10" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA10" s="31">
+        <v>14</v>
+      </c>
+      <c r="AB10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AM10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AP10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AR10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS10" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AU10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AV10" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A11" s="35">
+        <v>9</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="31">
+        <v>16</v>
+      </c>
+      <c r="D11" s="31">
+        <v>600</v>
+      </c>
+      <c r="E11" s="31">
+        <v>600</v>
+      </c>
+      <c r="F11" s="31">
+        <v>600</v>
+      </c>
+      <c r="G11" s="31">
+        <v>600</v>
+      </c>
+      <c r="H11" s="31">
+        <v>600</v>
+      </c>
+      <c r="I11" s="31">
+        <v>600</v>
+      </c>
+      <c r="J11" s="31">
+        <v>600</v>
+      </c>
+      <c r="K11" s="31">
+        <v>600</v>
+      </c>
+      <c r="L11" s="31">
+        <v>600</v>
+      </c>
+      <c r="M11" s="31">
+        <v>600</v>
+      </c>
+      <c r="N11" s="31">
+        <v>600</v>
+      </c>
+      <c r="O11" s="31">
+        <v>600</v>
+      </c>
+      <c r="P11" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>600</v>
+      </c>
+      <c r="R11" s="31">
+        <v>600</v>
+      </c>
+      <c r="S11" s="31">
+        <v>600</v>
+      </c>
+      <c r="T11" s="31">
+        <v>600</v>
+      </c>
+      <c r="U11" s="31">
+        <v>600</v>
+      </c>
+      <c r="V11" s="31">
+        <v>600</v>
+      </c>
+      <c r="W11" s="31">
+        <v>600</v>
+      </c>
+      <c r="X11" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y11" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z11" s="31">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AM11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AP11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AR11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS11" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AU11" s="31">
+        <v>16</v>
+      </c>
+      <c r="AV11" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="31">
+        <v>18</v>
+      </c>
+      <c r="D12" s="31">
+        <v>600</v>
+      </c>
+      <c r="E12" s="31">
+        <v>600</v>
+      </c>
+      <c r="F12" s="31">
+        <v>600</v>
+      </c>
+      <c r="G12" s="31">
+        <v>600</v>
+      </c>
+      <c r="H12" s="31">
+        <v>600</v>
+      </c>
+      <c r="I12" s="31">
+        <v>600</v>
+      </c>
+      <c r="J12" s="31">
+        <v>600</v>
+      </c>
+      <c r="K12" s="31">
+        <v>600</v>
+      </c>
+      <c r="L12" s="31">
+        <v>600</v>
+      </c>
+      <c r="M12" s="31">
+        <v>600</v>
+      </c>
+      <c r="N12" s="31">
+        <v>600</v>
+      </c>
+      <c r="O12" s="31">
+        <v>600</v>
+      </c>
+      <c r="P12" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>600</v>
+      </c>
+      <c r="R12" s="31">
+        <v>600</v>
+      </c>
+      <c r="S12" s="31">
+        <v>600</v>
+      </c>
+      <c r="T12" s="31">
+        <v>600</v>
+      </c>
+      <c r="U12" s="31">
+        <v>600</v>
+      </c>
+      <c r="V12" s="31">
+        <v>600</v>
+      </c>
+      <c r="W12" s="31">
+        <v>600</v>
+      </c>
+      <c r="X12" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y12" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL12" s="31">
+        <v>19</v>
+      </c>
+      <c r="AM12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO12" s="31">
+        <v>20</v>
+      </c>
+      <c r="AP12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ12" s="31">
+        <v>21</v>
+      </c>
+      <c r="AR12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS12" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT12" s="31">
+        <v>22</v>
+      </c>
+      <c r="AU12" s="31">
+        <v>23</v>
+      </c>
+      <c r="AV12" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A13" s="35">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="31">
+        <v>16</v>
+      </c>
+      <c r="D13" s="31">
+        <v>600</v>
+      </c>
+      <c r="E13" s="31">
+        <v>600</v>
+      </c>
+      <c r="F13" s="31">
+        <v>600</v>
+      </c>
+      <c r="G13" s="31">
+        <v>600</v>
+      </c>
+      <c r="H13" s="31">
+        <v>600</v>
+      </c>
+      <c r="I13" s="31">
+        <v>600</v>
+      </c>
+      <c r="J13" s="31">
+        <v>600</v>
+      </c>
+      <c r="K13" s="31">
+        <v>600</v>
+      </c>
+      <c r="L13" s="31">
+        <v>600</v>
+      </c>
+      <c r="M13" s="31">
+        <v>600</v>
+      </c>
+      <c r="N13" s="31">
+        <v>600</v>
+      </c>
+      <c r="O13" s="31">
+        <v>600</v>
+      </c>
+      <c r="P13" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>600</v>
+      </c>
+      <c r="R13" s="31">
+        <v>600</v>
+      </c>
+      <c r="S13" s="31">
+        <v>600</v>
+      </c>
+      <c r="T13" s="31">
+        <v>600</v>
+      </c>
+      <c r="U13" s="31">
+        <v>600</v>
+      </c>
+      <c r="V13" s="31">
+        <v>600</v>
+      </c>
+      <c r="W13" s="31">
+        <v>600</v>
+      </c>
+      <c r="X13" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y13" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z13" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AM13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AP13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AR13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS13" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AU13" s="31">
+        <v>16</v>
+      </c>
+      <c r="AV13" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="31">
+        <v>26</v>
+      </c>
+      <c r="D14" s="31">
+        <v>600</v>
+      </c>
+      <c r="E14" s="31">
+        <v>600</v>
+      </c>
+      <c r="F14" s="31">
+        <v>600</v>
+      </c>
+      <c r="G14" s="31">
+        <v>600</v>
+      </c>
+      <c r="H14" s="31">
+        <v>600</v>
+      </c>
+      <c r="I14" s="31">
+        <v>600</v>
+      </c>
+      <c r="J14" s="31">
+        <v>600</v>
+      </c>
+      <c r="K14" s="31">
+        <v>600</v>
+      </c>
+      <c r="L14" s="31">
+        <v>600</v>
+      </c>
+      <c r="M14" s="31">
+        <v>600</v>
+      </c>
+      <c r="N14" s="31">
+        <v>600</v>
+      </c>
+      <c r="O14" s="31">
+        <v>600</v>
+      </c>
+      <c r="P14" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>600</v>
+      </c>
+      <c r="R14" s="31">
+        <v>600</v>
+      </c>
+      <c r="S14" s="31">
+        <v>600</v>
+      </c>
+      <c r="T14" s="31">
+        <v>600</v>
+      </c>
+      <c r="U14" s="31">
+        <v>600</v>
+      </c>
+      <c r="V14" s="31">
+        <v>600</v>
+      </c>
+      <c r="W14" s="31">
+        <v>600</v>
+      </c>
+      <c r="X14" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y14" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU14" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV14" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A15" s="35">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="31">
+        <v>27</v>
+      </c>
+      <c r="D15" s="31">
+        <v>600</v>
+      </c>
+      <c r="E15" s="31">
+        <v>600</v>
+      </c>
+      <c r="F15" s="31">
+        <v>600</v>
+      </c>
+      <c r="G15" s="31">
+        <v>600</v>
+      </c>
+      <c r="H15" s="31">
+        <v>600</v>
+      </c>
+      <c r="I15" s="31">
+        <v>600</v>
+      </c>
+      <c r="J15" s="31">
+        <v>600</v>
+      </c>
+      <c r="K15" s="31">
+        <v>600</v>
+      </c>
+      <c r="L15" s="31">
+        <v>600</v>
+      </c>
+      <c r="M15" s="31">
+        <v>600</v>
+      </c>
+      <c r="N15" s="31">
+        <v>600</v>
+      </c>
+      <c r="O15" s="31">
+        <v>600</v>
+      </c>
+      <c r="P15" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>600</v>
+      </c>
+      <c r="R15" s="31">
+        <v>600</v>
+      </c>
+      <c r="S15" s="31">
+        <v>600</v>
+      </c>
+      <c r="T15" s="31">
+        <v>600</v>
+      </c>
+      <c r="U15" s="31">
+        <v>600</v>
+      </c>
+      <c r="V15" s="31">
+        <v>600</v>
+      </c>
+      <c r="W15" s="31">
+        <v>600</v>
+      </c>
+      <c r="X15" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y15" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU15" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV15" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="31">
+        <v>600</v>
+      </c>
+      <c r="D16" s="31">
+        <v>29</v>
+      </c>
+      <c r="E16" s="31">
+        <v>600</v>
+      </c>
+      <c r="F16" s="31">
+        <v>600</v>
+      </c>
+      <c r="G16" s="31">
+        <v>600</v>
+      </c>
+      <c r="H16" s="31">
+        <v>600</v>
+      </c>
+      <c r="I16" s="31">
+        <v>28</v>
+      </c>
+      <c r="J16" s="31">
+        <v>600</v>
+      </c>
+      <c r="K16" s="31">
+        <v>600</v>
+      </c>
+      <c r="L16" s="31">
+        <v>600</v>
+      </c>
+      <c r="M16" s="31">
+        <v>600</v>
+      </c>
+      <c r="N16" s="31">
+        <v>600</v>
+      </c>
+      <c r="O16" s="31">
+        <v>600</v>
+      </c>
+      <c r="P16" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>600</v>
+      </c>
+      <c r="R16" s="31">
+        <v>600</v>
+      </c>
+      <c r="S16" s="31">
+        <v>600</v>
+      </c>
+      <c r="T16" s="31">
+        <v>600</v>
+      </c>
+      <c r="U16" s="31">
+        <v>600</v>
+      </c>
+      <c r="V16" s="31">
+        <v>600</v>
+      </c>
+      <c r="W16" s="31">
+        <v>600</v>
+      </c>
+      <c r="X16" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y16" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU16" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV16" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A17" s="35">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="31">
+        <v>600</v>
+      </c>
+      <c r="D17" s="31">
+        <v>600</v>
+      </c>
+      <c r="E17" s="31">
+        <v>600</v>
+      </c>
+      <c r="F17" s="31">
+        <v>600</v>
+      </c>
+      <c r="G17" s="31">
+        <v>600</v>
+      </c>
+      <c r="H17" s="31">
+        <v>600</v>
+      </c>
+      <c r="I17" s="31">
+        <v>600</v>
+      </c>
+      <c r="J17" s="31">
+        <v>31</v>
+      </c>
+      <c r="K17" s="31">
+        <v>600</v>
+      </c>
+      <c r="L17" s="31">
+        <v>600</v>
+      </c>
+      <c r="M17" s="31">
+        <v>600</v>
+      </c>
+      <c r="N17" s="31">
+        <v>600</v>
+      </c>
+      <c r="O17" s="31">
+        <v>600</v>
+      </c>
+      <c r="P17" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>600</v>
+      </c>
+      <c r="R17" s="31">
+        <v>600</v>
+      </c>
+      <c r="S17" s="31">
+        <v>600</v>
+      </c>
+      <c r="T17" s="31">
+        <v>600</v>
+      </c>
+      <c r="U17" s="31">
+        <v>600</v>
+      </c>
+      <c r="V17" s="31">
+        <v>600</v>
+      </c>
+      <c r="W17" s="31">
+        <v>600</v>
+      </c>
+      <c r="X17" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y17" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU17" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV17" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="31">
+        <v>600</v>
+      </c>
+      <c r="D18" s="31">
+        <v>600</v>
+      </c>
+      <c r="E18" s="31">
+        <v>600</v>
+      </c>
+      <c r="F18" s="31">
+        <v>600</v>
+      </c>
+      <c r="G18" s="31">
+        <v>600</v>
+      </c>
+      <c r="H18" s="31">
+        <v>600</v>
+      </c>
+      <c r="I18" s="31">
+        <v>600</v>
+      </c>
+      <c r="J18" s="31">
+        <v>600</v>
+      </c>
+      <c r="K18" s="31">
+        <v>600</v>
+      </c>
+      <c r="L18" s="31">
+        <v>600</v>
+      </c>
+      <c r="M18" s="31">
+        <v>600</v>
+      </c>
+      <c r="N18" s="31">
+        <v>600</v>
+      </c>
+      <c r="O18" s="31">
+        <v>600</v>
+      </c>
+      <c r="P18" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>600</v>
+      </c>
+      <c r="R18" s="31">
+        <v>600</v>
+      </c>
+      <c r="S18" s="31">
+        <v>600</v>
+      </c>
+      <c r="T18" s="31">
+        <v>600</v>
+      </c>
+      <c r="U18" s="31">
+        <v>600</v>
+      </c>
+      <c r="V18" s="31">
+        <v>600</v>
+      </c>
+      <c r="W18" s="31">
+        <v>600</v>
+      </c>
+      <c r="X18" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y18" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL18" s="31">
+        <v>32</v>
+      </c>
+      <c r="AM18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU18" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV18" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A19" s="35">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="31">
+        <v>600</v>
+      </c>
+      <c r="D19" s="31">
+        <v>600</v>
+      </c>
+      <c r="E19" s="31">
+        <v>600</v>
+      </c>
+      <c r="F19" s="31">
+        <v>600</v>
+      </c>
+      <c r="G19" s="31">
+        <v>600</v>
+      </c>
+      <c r="H19" s="31">
+        <v>600</v>
+      </c>
+      <c r="I19" s="31">
+        <v>600</v>
+      </c>
+      <c r="J19" s="31">
+        <v>600</v>
+      </c>
+      <c r="K19" s="31">
+        <v>600</v>
+      </c>
+      <c r="L19" s="31">
+        <v>600</v>
+      </c>
+      <c r="M19" s="31">
+        <v>600</v>
+      </c>
+      <c r="N19" s="31">
+        <v>600</v>
+      </c>
+      <c r="O19" s="31">
+        <v>600</v>
+      </c>
+      <c r="P19" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>600</v>
+      </c>
+      <c r="R19" s="31">
+        <v>600</v>
+      </c>
+      <c r="S19" s="31">
+        <v>600</v>
+      </c>
+      <c r="T19" s="31">
+        <v>600</v>
+      </c>
+      <c r="U19" s="31">
+        <v>600</v>
+      </c>
+      <c r="V19" s="31">
+        <v>600</v>
+      </c>
+      <c r="W19" s="31">
+        <v>600</v>
+      </c>
+      <c r="X19" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y19" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM19" s="31">
+        <v>33</v>
+      </c>
+      <c r="AN19" s="31">
+        <v>34</v>
+      </c>
+      <c r="AO19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU19" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV19" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="31">
+        <v>600</v>
+      </c>
+      <c r="D20" s="31">
+        <v>600</v>
+      </c>
+      <c r="E20" s="31">
+        <v>600</v>
+      </c>
+      <c r="F20" s="31">
+        <v>600</v>
+      </c>
+      <c r="G20" s="31">
+        <v>600</v>
+      </c>
+      <c r="H20" s="31">
+        <v>600</v>
+      </c>
+      <c r="I20" s="31">
+        <v>600</v>
+      </c>
+      <c r="J20" s="31">
+        <v>600</v>
+      </c>
+      <c r="K20" s="31">
+        <v>600</v>
+      </c>
+      <c r="L20" s="31">
+        <v>600</v>
+      </c>
+      <c r="M20" s="31">
+        <v>600</v>
+      </c>
+      <c r="N20" s="31">
+        <v>600</v>
+      </c>
+      <c r="O20" s="31">
+        <v>600</v>
+      </c>
+      <c r="P20" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>600</v>
+      </c>
+      <c r="R20" s="31">
+        <v>600</v>
+      </c>
+      <c r="S20" s="31">
+        <v>600</v>
+      </c>
+      <c r="T20" s="31">
+        <v>600</v>
+      </c>
+      <c r="U20" s="31">
+        <v>600</v>
+      </c>
+      <c r="V20" s="31">
+        <v>600</v>
+      </c>
+      <c r="W20" s="31">
+        <v>600</v>
+      </c>
+      <c r="X20" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y20" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO20" s="31">
+        <v>35</v>
+      </c>
+      <c r="AP20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU20" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV20" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="31">
+        <v>600</v>
+      </c>
+      <c r="D21" s="31">
+        <v>600</v>
+      </c>
+      <c r="E21" s="31">
+        <v>600</v>
+      </c>
+      <c r="F21" s="31">
+        <v>600</v>
+      </c>
+      <c r="G21" s="31">
+        <v>600</v>
+      </c>
+      <c r="H21" s="31">
+        <v>600</v>
+      </c>
+      <c r="I21" s="31">
+        <v>600</v>
+      </c>
+      <c r="J21" s="31">
+        <v>600</v>
+      </c>
+      <c r="K21" s="31">
+        <v>600</v>
+      </c>
+      <c r="L21" s="31">
+        <v>600</v>
+      </c>
+      <c r="M21" s="31">
+        <v>600</v>
+      </c>
+      <c r="N21" s="31">
+        <v>600</v>
+      </c>
+      <c r="O21" s="31">
+        <v>600</v>
+      </c>
+      <c r="P21" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>600</v>
+      </c>
+      <c r="R21" s="31">
+        <v>600</v>
+      </c>
+      <c r="S21" s="31">
+        <v>600</v>
+      </c>
+      <c r="T21" s="31">
+        <v>600</v>
+      </c>
+      <c r="U21" s="31">
+        <v>600</v>
+      </c>
+      <c r="V21" s="31">
+        <v>600</v>
+      </c>
+      <c r="W21" s="31">
+        <v>600</v>
+      </c>
+      <c r="X21" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y21" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ21" s="31">
+        <v>36</v>
+      </c>
+      <c r="AR21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU21" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV21" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A22" s="35">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="31">
+        <v>600</v>
+      </c>
+      <c r="D22" s="31">
+        <v>600</v>
+      </c>
+      <c r="E22" s="31">
+        <v>600</v>
+      </c>
+      <c r="F22" s="31">
+        <v>600</v>
+      </c>
+      <c r="G22" s="31">
+        <v>600</v>
+      </c>
+      <c r="H22" s="31">
+        <v>600</v>
+      </c>
+      <c r="I22" s="31">
+        <v>600</v>
+      </c>
+      <c r="J22" s="31">
+        <v>600</v>
+      </c>
+      <c r="K22" s="31">
+        <v>600</v>
+      </c>
+      <c r="L22" s="31">
+        <v>600</v>
+      </c>
+      <c r="M22" s="31">
+        <v>600</v>
+      </c>
+      <c r="N22" s="31">
+        <v>600</v>
+      </c>
+      <c r="O22" s="31">
+        <v>600</v>
+      </c>
+      <c r="P22" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q22" s="31">
+        <v>600</v>
+      </c>
+      <c r="R22" s="31">
+        <v>600</v>
+      </c>
+      <c r="S22" s="31">
+        <v>600</v>
+      </c>
+      <c r="T22" s="31">
+        <v>600</v>
+      </c>
+      <c r="U22" s="31">
+        <v>600</v>
+      </c>
+      <c r="V22" s="31">
+        <v>600</v>
+      </c>
+      <c r="W22" s="31">
+        <v>600</v>
+      </c>
+      <c r="X22" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y22" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT22" s="31">
+        <v>37</v>
+      </c>
+      <c r="AU22" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV22" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A23" s="35">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="31">
+        <v>38</v>
+      </c>
+      <c r="D23" s="31">
+        <v>600</v>
+      </c>
+      <c r="E23" s="31">
+        <v>600</v>
+      </c>
+      <c r="F23" s="31">
+        <v>600</v>
+      </c>
+      <c r="G23" s="31">
+        <v>600</v>
+      </c>
+      <c r="H23" s="31">
+        <v>600</v>
+      </c>
+      <c r="I23" s="31">
+        <v>600</v>
+      </c>
+      <c r="J23" s="31">
+        <v>600</v>
+      </c>
+      <c r="K23" s="31">
+        <v>600</v>
+      </c>
+      <c r="L23" s="31">
+        <v>600</v>
+      </c>
+      <c r="M23" s="31">
+        <v>600</v>
+      </c>
+      <c r="N23" s="31">
+        <v>600</v>
+      </c>
+      <c r="O23" s="31">
+        <v>600</v>
+      </c>
+      <c r="P23" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q23" s="31">
+        <v>600</v>
+      </c>
+      <c r="R23" s="31">
+        <v>600</v>
+      </c>
+      <c r="S23" s="31">
+        <v>600</v>
+      </c>
+      <c r="T23" s="31">
+        <v>600</v>
+      </c>
+      <c r="U23" s="31">
+        <v>600</v>
+      </c>
+      <c r="V23" s="31">
+        <v>600</v>
+      </c>
+      <c r="W23" s="31">
+        <v>600</v>
+      </c>
+      <c r="X23" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y23" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU23" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV23" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A24" s="35">
+        <v>22</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="31">
+        <v>600</v>
+      </c>
+      <c r="D24" s="31">
+        <v>600</v>
+      </c>
+      <c r="E24" s="31">
+        <v>39</v>
+      </c>
+      <c r="F24" s="31">
+        <v>600</v>
+      </c>
+      <c r="G24" s="31">
+        <v>600</v>
+      </c>
+      <c r="H24" s="31">
+        <v>40</v>
+      </c>
+      <c r="I24" s="31">
+        <v>600</v>
+      </c>
+      <c r="J24" s="31">
+        <v>600</v>
+      </c>
+      <c r="K24" s="31">
+        <v>600</v>
+      </c>
+      <c r="L24" s="31">
+        <v>600</v>
+      </c>
+      <c r="M24" s="31">
+        <v>600</v>
+      </c>
+      <c r="N24" s="31">
+        <v>600</v>
+      </c>
+      <c r="O24" s="31">
+        <v>600</v>
+      </c>
+      <c r="P24" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>600</v>
+      </c>
+      <c r="R24" s="31">
+        <v>600</v>
+      </c>
+      <c r="S24" s="31">
+        <v>600</v>
+      </c>
+      <c r="T24" s="31">
+        <v>600</v>
+      </c>
+      <c r="U24" s="31">
+        <v>600</v>
+      </c>
+      <c r="V24" s="31">
+        <v>600</v>
+      </c>
+      <c r="W24" s="31">
+        <v>600</v>
+      </c>
+      <c r="X24" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y24" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU24" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV24" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A25" s="35">
+        <v>23</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="31">
+        <v>600</v>
+      </c>
+      <c r="D25" s="31">
+        <v>600</v>
+      </c>
+      <c r="E25" s="31">
+        <v>600</v>
+      </c>
+      <c r="F25" s="31">
+        <v>600</v>
+      </c>
+      <c r="G25" s="31">
+        <v>600</v>
+      </c>
+      <c r="H25" s="31">
+        <v>600</v>
+      </c>
+      <c r="I25" s="31">
+        <v>600</v>
+      </c>
+      <c r="J25" s="31">
+        <v>600</v>
+      </c>
+      <c r="K25" s="31">
+        <v>600</v>
+      </c>
+      <c r="L25" s="31">
+        <v>600</v>
+      </c>
+      <c r="M25" s="31">
+        <v>600</v>
+      </c>
+      <c r="N25" s="31">
+        <v>600</v>
+      </c>
+      <c r="O25" s="31">
+        <v>600</v>
+      </c>
+      <c r="P25" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q25" s="31">
+        <v>600</v>
+      </c>
+      <c r="R25" s="31">
+        <v>600</v>
+      </c>
+      <c r="S25" s="31">
+        <v>600</v>
+      </c>
+      <c r="T25" s="31">
+        <v>600</v>
+      </c>
+      <c r="U25" s="31">
+        <v>600</v>
+      </c>
+      <c r="V25" s="31">
+        <v>600</v>
+      </c>
+      <c r="W25" s="31">
+        <v>600</v>
+      </c>
+      <c r="X25" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y25" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT25" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU25" s="31">
+        <v>41</v>
+      </c>
+      <c r="AV25" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A26" s="35">
+        <v>24</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="31">
+        <v>42</v>
+      </c>
+      <c r="D26" s="31">
+        <v>600</v>
+      </c>
+      <c r="E26" s="31">
+        <v>600</v>
+      </c>
+      <c r="F26" s="31">
+        <v>600</v>
+      </c>
+      <c r="G26" s="31">
+        <v>42</v>
+      </c>
+      <c r="H26" s="31">
+        <v>600</v>
+      </c>
+      <c r="I26" s="31">
+        <v>600</v>
+      </c>
+      <c r="J26" s="31">
+        <v>600</v>
+      </c>
+      <c r="K26" s="31">
+        <v>600</v>
+      </c>
+      <c r="L26" s="31">
+        <v>600</v>
+      </c>
+      <c r="M26" s="31">
+        <v>600</v>
+      </c>
+      <c r="N26" s="31">
+        <v>600</v>
+      </c>
+      <c r="O26" s="31">
+        <v>600</v>
+      </c>
+      <c r="P26" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>600</v>
+      </c>
+      <c r="R26" s="31">
+        <v>600</v>
+      </c>
+      <c r="S26" s="31">
+        <v>600</v>
+      </c>
+      <c r="T26" s="31">
+        <v>600</v>
+      </c>
+      <c r="U26" s="31">
+        <v>600</v>
+      </c>
+      <c r="V26" s="31">
+        <v>600</v>
+      </c>
+      <c r="W26" s="31">
+        <v>600</v>
+      </c>
+      <c r="X26" s="31">
+        <v>42</v>
+      </c>
+      <c r="Y26" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AH26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AI26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AJ26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AK26" s="31">
+        <v>42</v>
+      </c>
+      <c r="AL26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU26" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV26" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A27" s="35">
+        <v>25</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="31">
+        <v>600</v>
+      </c>
+      <c r="D27" s="31">
+        <v>600</v>
+      </c>
+      <c r="E27" s="31">
+        <v>43</v>
+      </c>
+      <c r="F27" s="31">
+        <v>600</v>
+      </c>
+      <c r="G27" s="31">
+        <v>600</v>
+      </c>
+      <c r="H27" s="31">
+        <v>44</v>
+      </c>
+      <c r="I27" s="31">
+        <v>600</v>
+      </c>
+      <c r="J27" s="31">
+        <v>600</v>
+      </c>
+      <c r="K27" s="31">
+        <v>600</v>
+      </c>
+      <c r="L27" s="31">
+        <v>600</v>
+      </c>
+      <c r="M27" s="31">
+        <v>600</v>
+      </c>
+      <c r="N27" s="31">
+        <v>600</v>
+      </c>
+      <c r="O27" s="31">
+        <v>600</v>
+      </c>
+      <c r="P27" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q27" s="31">
+        <v>600</v>
+      </c>
+      <c r="R27" s="31">
+        <v>600</v>
+      </c>
+      <c r="S27" s="31">
+        <v>600</v>
+      </c>
+      <c r="T27" s="31">
+        <v>600</v>
+      </c>
+      <c r="U27" s="31">
+        <v>600</v>
+      </c>
+      <c r="V27" s="31">
+        <v>600</v>
+      </c>
+      <c r="W27" s="31">
+        <v>600</v>
+      </c>
+      <c r="X27" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y27" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU27" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV27" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A28" s="35">
+        <v>26</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="31">
+        <v>45</v>
+      </c>
+      <c r="D28" s="31">
+        <v>600</v>
+      </c>
+      <c r="E28" s="31">
+        <v>600</v>
+      </c>
+      <c r="F28" s="31">
+        <v>600</v>
+      </c>
+      <c r="G28" s="31">
+        <v>45</v>
+      </c>
+      <c r="H28" s="31">
+        <v>600</v>
+      </c>
+      <c r="I28" s="31">
+        <v>600</v>
+      </c>
+      <c r="J28" s="31">
+        <v>600</v>
+      </c>
+      <c r="K28" s="31">
+        <v>600</v>
+      </c>
+      <c r="L28" s="31">
+        <v>600</v>
+      </c>
+      <c r="M28" s="31">
+        <v>600</v>
+      </c>
+      <c r="N28" s="31">
+        <v>600</v>
+      </c>
+      <c r="O28" s="31">
+        <v>600</v>
+      </c>
+      <c r="P28" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>600</v>
+      </c>
+      <c r="R28" s="31">
+        <v>600</v>
+      </c>
+      <c r="S28" s="31">
+        <v>600</v>
+      </c>
+      <c r="T28" s="31">
+        <v>600</v>
+      </c>
+      <c r="U28" s="31">
+        <v>600</v>
+      </c>
+      <c r="V28" s="31">
+        <v>600</v>
+      </c>
+      <c r="W28" s="31">
+        <v>600</v>
+      </c>
+      <c r="X28" s="31">
+        <v>45</v>
+      </c>
+      <c r="Y28" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AH28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AI28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AJ28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AK28" s="31">
+        <v>45</v>
+      </c>
+      <c r="AL28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU28" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV28" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A29" s="35">
+        <v>27</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="31">
+        <v>47</v>
+      </c>
+      <c r="D29" s="31">
+        <v>600</v>
+      </c>
+      <c r="E29" s="31">
+        <v>600</v>
+      </c>
+      <c r="F29" s="31">
+        <v>600</v>
+      </c>
+      <c r="G29" s="31">
+        <v>47</v>
+      </c>
+      <c r="H29" s="31">
+        <v>600</v>
+      </c>
+      <c r="I29" s="31">
+        <v>600</v>
+      </c>
+      <c r="J29" s="31">
+        <v>600</v>
+      </c>
+      <c r="K29" s="31">
+        <v>600</v>
+      </c>
+      <c r="L29" s="31">
+        <v>600</v>
+      </c>
+      <c r="M29" s="31">
+        <v>600</v>
+      </c>
+      <c r="N29" s="31">
+        <v>600</v>
+      </c>
+      <c r="O29" s="31">
+        <v>600</v>
+      </c>
+      <c r="P29" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>600</v>
+      </c>
+      <c r="R29" s="31">
+        <v>600</v>
+      </c>
+      <c r="S29" s="31">
+        <v>600</v>
+      </c>
+      <c r="T29" s="31">
+        <v>600</v>
+      </c>
+      <c r="U29" s="31">
+        <v>600</v>
+      </c>
+      <c r="V29" s="31">
+        <v>46</v>
+      </c>
+      <c r="W29" s="31">
+        <v>600</v>
+      </c>
+      <c r="X29" s="31">
+        <v>47</v>
+      </c>
+      <c r="Y29" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AH29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AI29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AJ29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AK29" s="31">
+        <v>47</v>
+      </c>
+      <c r="AL29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU29" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV29" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A30" s="35">
+        <v>28</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="31">
+        <v>48</v>
+      </c>
+      <c r="D30" s="31">
+        <v>600</v>
+      </c>
+      <c r="E30" s="31">
+        <v>600</v>
+      </c>
+      <c r="F30" s="31">
+        <v>600</v>
+      </c>
+      <c r="G30" s="31">
+        <v>48</v>
+      </c>
+      <c r="H30" s="31">
+        <v>600</v>
+      </c>
+      <c r="I30" s="31">
+        <v>600</v>
+      </c>
+      <c r="J30" s="31">
+        <v>600</v>
+      </c>
+      <c r="K30" s="31">
+        <v>600</v>
+      </c>
+      <c r="L30" s="31">
+        <v>600</v>
+      </c>
+      <c r="M30" s="31">
+        <v>600</v>
+      </c>
+      <c r="N30" s="31">
+        <v>600</v>
+      </c>
+      <c r="O30" s="31">
+        <v>600</v>
+      </c>
+      <c r="P30" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q30" s="31">
+        <v>600</v>
+      </c>
+      <c r="R30" s="31">
+        <v>600</v>
+      </c>
+      <c r="S30" s="31">
+        <v>600</v>
+      </c>
+      <c r="T30" s="31">
+        <v>600</v>
+      </c>
+      <c r="U30" s="31">
+        <v>600</v>
+      </c>
+      <c r="V30" s="31">
+        <v>600</v>
+      </c>
+      <c r="W30" s="31">
+        <v>600</v>
+      </c>
+      <c r="X30" s="31">
+        <v>48</v>
+      </c>
+      <c r="Y30" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AH30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AI30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AJ30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AK30" s="31">
+        <v>48</v>
+      </c>
+      <c r="AL30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU30" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV30" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A31" s="35">
+        <v>29</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="31">
+        <v>50</v>
+      </c>
+      <c r="D31" s="31">
+        <v>600</v>
+      </c>
+      <c r="E31" s="31">
+        <v>600</v>
+      </c>
+      <c r="F31" s="31">
+        <v>600</v>
+      </c>
+      <c r="G31" s="31">
+        <v>50</v>
+      </c>
+      <c r="H31" s="31">
+        <v>600</v>
+      </c>
+      <c r="I31" s="31">
+        <v>600</v>
+      </c>
+      <c r="J31" s="31">
+        <v>600</v>
+      </c>
+      <c r="K31" s="31">
+        <v>600</v>
+      </c>
+      <c r="L31" s="31">
+        <v>600</v>
+      </c>
+      <c r="M31" s="31">
+        <v>600</v>
+      </c>
+      <c r="N31" s="31">
+        <v>600</v>
+      </c>
+      <c r="O31" s="31">
+        <v>600</v>
+      </c>
+      <c r="P31" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>600</v>
+      </c>
+      <c r="R31" s="31">
+        <v>600</v>
+      </c>
+      <c r="S31" s="31">
+        <v>600</v>
+      </c>
+      <c r="T31" s="31">
+        <v>600</v>
+      </c>
+      <c r="U31" s="31">
+        <v>600</v>
+      </c>
+      <c r="V31" s="31">
+        <v>600</v>
+      </c>
+      <c r="W31" s="31">
+        <v>49</v>
+      </c>
+      <c r="X31" s="31">
+        <v>50</v>
+      </c>
+      <c r="Y31" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AH31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AI31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AJ31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AK31" s="31">
+        <v>50</v>
+      </c>
+      <c r="AL31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU31" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV31" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A32" s="35">
+        <v>30</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="31">
+        <v>51</v>
+      </c>
+      <c r="D32" s="31">
+        <v>600</v>
+      </c>
+      <c r="E32" s="31">
+        <v>600</v>
+      </c>
+      <c r="F32" s="31">
+        <v>600</v>
+      </c>
+      <c r="G32" s="31">
+        <v>51</v>
+      </c>
+      <c r="H32" s="31">
+        <v>600</v>
+      </c>
+      <c r="I32" s="31">
+        <v>600</v>
+      </c>
+      <c r="J32" s="31">
+        <v>600</v>
+      </c>
+      <c r="K32" s="31">
+        <v>600</v>
+      </c>
+      <c r="L32" s="31">
+        <v>600</v>
+      </c>
+      <c r="M32" s="31">
+        <v>600</v>
+      </c>
+      <c r="N32" s="31">
+        <v>600</v>
+      </c>
+      <c r="O32" s="31">
+        <v>600</v>
+      </c>
+      <c r="P32" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q32" s="31">
+        <v>600</v>
+      </c>
+      <c r="R32" s="31">
+        <v>600</v>
+      </c>
+      <c r="S32" s="31">
+        <v>600</v>
+      </c>
+      <c r="T32" s="31">
+        <v>600</v>
+      </c>
+      <c r="U32" s="31">
+        <v>600</v>
+      </c>
+      <c r="V32" s="31">
+        <v>600</v>
+      </c>
+      <c r="W32" s="31">
+        <v>600</v>
+      </c>
+      <c r="X32" s="31">
+        <v>51</v>
+      </c>
+      <c r="Y32" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AH32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AI32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AJ32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AK32" s="31">
+        <v>51</v>
+      </c>
+      <c r="AL32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU32" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV32" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A33" s="35">
+        <v>31</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="31">
+        <v>53</v>
+      </c>
+      <c r="D33" s="31">
+        <v>600</v>
+      </c>
+      <c r="E33" s="31">
+        <v>600</v>
+      </c>
+      <c r="F33" s="31">
+        <v>600</v>
+      </c>
+      <c r="G33" s="31">
+        <v>53</v>
+      </c>
+      <c r="H33" s="31">
+        <v>600</v>
+      </c>
+      <c r="I33" s="31">
+        <v>600</v>
+      </c>
+      <c r="J33" s="31">
+        <v>600</v>
+      </c>
+      <c r="K33" s="31">
+        <v>600</v>
+      </c>
+      <c r="L33" s="31">
+        <v>600</v>
+      </c>
+      <c r="M33" s="31">
+        <v>600</v>
+      </c>
+      <c r="N33" s="31">
+        <v>600</v>
+      </c>
+      <c r="O33" s="31">
+        <v>600</v>
+      </c>
+      <c r="P33" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>600</v>
+      </c>
+      <c r="R33" s="31">
+        <v>600</v>
+      </c>
+      <c r="S33" s="31">
+        <v>600</v>
+      </c>
+      <c r="T33" s="31">
+        <v>600</v>
+      </c>
+      <c r="U33" s="31">
+        <v>600</v>
+      </c>
+      <c r="V33" s="31">
+        <v>600</v>
+      </c>
+      <c r="W33" s="31">
+        <v>600</v>
+      </c>
+      <c r="X33" s="31">
+        <v>52</v>
+      </c>
+      <c r="Y33" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AH33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AI33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AJ33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AK33" s="31">
+        <v>53</v>
+      </c>
+      <c r="AL33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU33" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV33" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A34" s="35">
+        <v>32</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="31">
+        <v>54</v>
+      </c>
+      <c r="D34" s="31">
+        <v>600</v>
+      </c>
+      <c r="E34" s="31">
+        <v>600</v>
+      </c>
+      <c r="F34" s="31">
+        <v>600</v>
+      </c>
+      <c r="G34" s="31">
+        <v>54</v>
+      </c>
+      <c r="H34" s="31">
+        <v>600</v>
+      </c>
+      <c r="I34" s="31">
+        <v>600</v>
+      </c>
+      <c r="J34" s="31">
+        <v>600</v>
+      </c>
+      <c r="K34" s="31">
+        <v>600</v>
+      </c>
+      <c r="L34" s="31">
+        <v>600</v>
+      </c>
+      <c r="M34" s="31">
+        <v>600</v>
+      </c>
+      <c r="N34" s="31">
+        <v>600</v>
+      </c>
+      <c r="O34" s="31">
+        <v>600</v>
+      </c>
+      <c r="P34" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>600</v>
+      </c>
+      <c r="R34" s="31">
+        <v>600</v>
+      </c>
+      <c r="S34" s="31">
+        <v>600</v>
+      </c>
+      <c r="T34" s="31">
+        <v>600</v>
+      </c>
+      <c r="U34" s="31">
+        <v>600</v>
+      </c>
+      <c r="V34" s="31">
+        <v>600</v>
+      </c>
+      <c r="W34" s="31">
+        <v>600</v>
+      </c>
+      <c r="X34" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y34" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AH34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AI34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AJ34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AK34" s="31">
+        <v>54</v>
+      </c>
+      <c r="AL34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU34" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV34" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A35" s="35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="31">
+        <v>600</v>
+      </c>
+      <c r="D35" s="31">
+        <v>600</v>
+      </c>
+      <c r="E35" s="31">
+        <v>600</v>
+      </c>
+      <c r="F35" s="31">
+        <v>600</v>
+      </c>
+      <c r="G35" s="31">
+        <v>600</v>
+      </c>
+      <c r="H35" s="31">
+        <v>600</v>
+      </c>
+      <c r="I35" s="31">
+        <v>600</v>
+      </c>
+      <c r="J35" s="31">
+        <v>600</v>
+      </c>
+      <c r="K35" s="31">
+        <v>600</v>
+      </c>
+      <c r="L35" s="31">
+        <v>600</v>
+      </c>
+      <c r="M35" s="31">
+        <v>600</v>
+      </c>
+      <c r="N35" s="31">
+        <v>600</v>
+      </c>
+      <c r="O35" s="31">
+        <v>600</v>
+      </c>
+      <c r="P35" s="31">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="31">
+        <v>55</v>
+      </c>
+      <c r="R35" s="31">
+        <v>55</v>
+      </c>
+      <c r="S35" s="31">
+        <v>55</v>
+      </c>
+      <c r="T35" s="31">
+        <v>55</v>
+      </c>
+      <c r="U35" s="31">
+        <v>55</v>
+      </c>
+      <c r="V35" s="31">
+        <v>56</v>
+      </c>
+      <c r="W35" s="31">
+        <v>56</v>
+      </c>
+      <c r="X35" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y35" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU35" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV35" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A36" s="35">
+        <v>34</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="31">
+        <v>600</v>
+      </c>
+      <c r="D36" s="31">
+        <v>600</v>
+      </c>
+      <c r="E36" s="31">
+        <v>600</v>
+      </c>
+      <c r="F36" s="31">
+        <v>600</v>
+      </c>
+      <c r="G36" s="31">
+        <v>600</v>
+      </c>
+      <c r="H36" s="31">
+        <v>600</v>
+      </c>
+      <c r="I36" s="31">
+        <v>600</v>
+      </c>
+      <c r="J36" s="31">
+        <v>600</v>
+      </c>
+      <c r="K36" s="31">
+        <v>600</v>
+      </c>
+      <c r="L36" s="31">
+        <v>600</v>
+      </c>
+      <c r="M36" s="31">
+        <v>600</v>
+      </c>
+      <c r="N36" s="31">
+        <v>600</v>
+      </c>
+      <c r="O36" s="31">
+        <v>600</v>
+      </c>
+      <c r="P36" s="31">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="31">
+        <v>59</v>
+      </c>
+      <c r="R36" s="31">
+        <v>61</v>
+      </c>
+      <c r="S36" s="31">
+        <v>60</v>
+      </c>
+      <c r="T36" s="31">
+        <v>62</v>
+      </c>
+      <c r="U36" s="31">
+        <v>58</v>
+      </c>
+      <c r="V36" s="31">
+        <v>600</v>
+      </c>
+      <c r="W36" s="31">
+        <v>600</v>
+      </c>
+      <c r="X36" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y36" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AH36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AJ36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AK36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AL36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU36" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV36" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A37" s="35">
+        <v>35</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="31">
+        <v>63</v>
+      </c>
+      <c r="D37" s="31">
+        <v>600</v>
+      </c>
+      <c r="E37" s="31">
+        <v>600</v>
+      </c>
+      <c r="F37" s="31">
+        <v>600</v>
+      </c>
+      <c r="G37" s="31">
+        <v>63</v>
+      </c>
+      <c r="H37" s="31">
+        <v>600</v>
+      </c>
+      <c r="I37" s="31">
+        <v>600</v>
+      </c>
+      <c r="J37" s="31">
+        <v>600</v>
+      </c>
+      <c r="K37" s="31">
+        <v>600</v>
+      </c>
+      <c r="L37" s="31">
+        <v>600</v>
+      </c>
+      <c r="M37" s="31">
+        <v>600</v>
+      </c>
+      <c r="N37" s="31">
+        <v>600</v>
+      </c>
+      <c r="O37" s="31">
+        <v>600</v>
+      </c>
+      <c r="P37" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q37" s="31">
+        <v>600</v>
+      </c>
+      <c r="R37" s="31">
+        <v>600</v>
+      </c>
+      <c r="S37" s="31">
+        <v>600</v>
+      </c>
+      <c r="T37" s="31">
+        <v>600</v>
+      </c>
+      <c r="U37" s="31">
+        <v>600</v>
+      </c>
+      <c r="V37" s="31">
+        <v>600</v>
+      </c>
+      <c r="W37" s="31">
+        <v>600</v>
+      </c>
+      <c r="X37" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y37" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AH37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AI37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AJ37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AK37" s="31">
+        <v>63</v>
+      </c>
+      <c r="AL37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU37" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV37" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A38" s="35">
+        <v>36</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="31">
+        <v>66</v>
+      </c>
+      <c r="D38" s="31">
+        <v>600</v>
+      </c>
+      <c r="E38" s="31">
+        <v>600</v>
+      </c>
+      <c r="F38" s="31">
+        <v>600</v>
+      </c>
+      <c r="G38" s="31">
+        <v>66</v>
+      </c>
+      <c r="H38" s="31">
+        <v>600</v>
+      </c>
+      <c r="I38" s="31">
+        <v>600</v>
+      </c>
+      <c r="J38" s="31">
+        <v>600</v>
+      </c>
+      <c r="K38" s="31">
+        <v>64</v>
+      </c>
+      <c r="L38" s="31">
+        <v>65</v>
+      </c>
+      <c r="M38" s="31">
+        <v>600</v>
+      </c>
+      <c r="N38" s="31">
+        <v>600</v>
+      </c>
+      <c r="O38" s="31">
+        <v>600</v>
+      </c>
+      <c r="P38" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q38" s="31">
+        <v>600</v>
+      </c>
+      <c r="R38" s="31">
+        <v>600</v>
+      </c>
+      <c r="S38" s="31">
+        <v>600</v>
+      </c>
+      <c r="T38" s="31">
+        <v>600</v>
+      </c>
+      <c r="U38" s="31">
+        <v>600</v>
+      </c>
+      <c r="V38" s="31">
+        <v>600</v>
+      </c>
+      <c r="W38" s="31">
+        <v>600</v>
+      </c>
+      <c r="X38" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y38" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AH38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AI38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AJ38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AK38" s="31">
+        <v>66</v>
+      </c>
+      <c r="AL38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU38" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV38" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A39" s="35">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="31">
+        <v>67</v>
+      </c>
+      <c r="D39" s="31">
+        <v>600</v>
+      </c>
+      <c r="E39" s="31">
+        <v>600</v>
+      </c>
+      <c r="F39" s="31">
+        <v>600</v>
+      </c>
+      <c r="G39" s="31">
+        <v>67</v>
+      </c>
+      <c r="H39" s="31">
+        <v>600</v>
+      </c>
+      <c r="I39" s="31">
+        <v>600</v>
+      </c>
+      <c r="J39" s="31">
+        <v>600</v>
+      </c>
+      <c r="K39" s="31">
+        <v>600</v>
+      </c>
+      <c r="L39" s="31">
+        <v>600</v>
+      </c>
+      <c r="M39" s="31">
+        <v>600</v>
+      </c>
+      <c r="N39" s="31">
+        <v>600</v>
+      </c>
+      <c r="O39" s="31">
+        <v>600</v>
+      </c>
+      <c r="P39" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q39" s="31">
+        <v>600</v>
+      </c>
+      <c r="R39" s="31">
+        <v>600</v>
+      </c>
+      <c r="S39" s="31">
+        <v>600</v>
+      </c>
+      <c r="T39" s="31">
+        <v>600</v>
+      </c>
+      <c r="U39" s="31">
+        <v>600</v>
+      </c>
+      <c r="V39" s="31">
+        <v>600</v>
+      </c>
+      <c r="W39" s="31">
+        <v>600</v>
+      </c>
+      <c r="X39" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y39" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AH39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AI39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AJ39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AK39" s="31">
+        <v>67</v>
+      </c>
+      <c r="AL39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV39" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A40" s="41">
+        <v>38</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="31">
+        <v>71</v>
+      </c>
+      <c r="D40" s="31">
+        <v>600</v>
+      </c>
+      <c r="E40" s="31">
+        <v>600</v>
+      </c>
+      <c r="F40" s="31">
+        <v>600</v>
+      </c>
+      <c r="G40" s="31">
+        <v>71</v>
+      </c>
+      <c r="H40" s="31">
+        <v>600</v>
+      </c>
+      <c r="I40" s="31">
+        <v>600</v>
+      </c>
+      <c r="J40" s="31">
+        <v>600</v>
+      </c>
+      <c r="K40" s="31">
+        <v>600</v>
+      </c>
+      <c r="L40" s="31">
+        <v>600</v>
+      </c>
+      <c r="M40" s="31">
+        <v>68</v>
+      </c>
+      <c r="N40" s="31">
+        <v>69</v>
+      </c>
+      <c r="O40" s="31">
+        <v>70</v>
+      </c>
+      <c r="P40" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q40" s="31">
+        <v>600</v>
+      </c>
+      <c r="R40" s="31">
+        <v>600</v>
+      </c>
+      <c r="S40" s="31">
+        <v>600</v>
+      </c>
+      <c r="T40" s="31">
+        <v>600</v>
+      </c>
+      <c r="U40" s="31">
+        <v>600</v>
+      </c>
+      <c r="V40" s="31">
+        <v>600</v>
+      </c>
+      <c r="W40" s="31">
+        <v>600</v>
+      </c>
+      <c r="X40" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y40" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AH40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AI40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AJ40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AK40" s="31">
+        <v>71</v>
+      </c>
+      <c r="AL40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV40" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A41" s="35">
+        <v>39</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="31">
+        <v>72</v>
+      </c>
+      <c r="D41" s="31">
+        <v>600</v>
+      </c>
+      <c r="E41" s="31">
+        <v>600</v>
+      </c>
+      <c r="F41" s="31">
+        <v>600</v>
+      </c>
+      <c r="G41" s="31">
+        <v>78</v>
+      </c>
+      <c r="H41" s="31">
+        <v>600</v>
+      </c>
+      <c r="I41" s="31">
+        <v>600</v>
+      </c>
+      <c r="J41" s="31">
+        <v>600</v>
+      </c>
+      <c r="K41" s="31">
+        <v>600</v>
+      </c>
+      <c r="L41" s="31">
+        <v>600</v>
+      </c>
+      <c r="M41" s="31">
+        <v>600</v>
+      </c>
+      <c r="N41" s="31">
+        <v>600</v>
+      </c>
+      <c r="O41" s="31">
+        <v>600</v>
+      </c>
+      <c r="P41" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q41" s="31">
+        <v>600</v>
+      </c>
+      <c r="R41" s="31">
+        <v>600</v>
+      </c>
+      <c r="S41" s="31">
+        <v>600</v>
+      </c>
+      <c r="T41" s="31">
+        <v>600</v>
+      </c>
+      <c r="U41" s="31">
+        <v>600</v>
+      </c>
+      <c r="V41" s="31">
+        <v>600</v>
+      </c>
+      <c r="W41" s="31">
+        <v>600</v>
+      </c>
+      <c r="X41" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y41" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG41" s="31">
+        <v>73</v>
+      </c>
+      <c r="AH41" s="31">
+        <v>74</v>
+      </c>
+      <c r="AI41" s="31">
+        <v>75</v>
+      </c>
+      <c r="AJ41" s="31">
+        <v>76</v>
+      </c>
+      <c r="AK41" s="31">
+        <v>77</v>
+      </c>
+      <c r="AL41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV41" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" ht="24.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AV42"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AH101" sqref="AH101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="33" customWidth="1"/>
+    <col min="3" max="248" width="10.875" style="32"/>
+    <col min="249" max="249" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="250" max="302" width="10.875" style="32"/>
+    <col min="303" max="303" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="304" max="504" width="10.875" style="32"/>
+    <col min="505" max="505" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="506" max="558" width="10.875" style="32"/>
+    <col min="559" max="559" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="560" max="760" width="10.875" style="32"/>
+    <col min="761" max="761" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="762" max="814" width="10.875" style="32"/>
+    <col min="815" max="815" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="816" max="1016" width="10.875" style="32"/>
+    <col min="1017" max="1017" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1018" max="1070" width="10.875" style="32"/>
+    <col min="1071" max="1071" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1072" max="1272" width="10.875" style="32"/>
+    <col min="1273" max="1273" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1274" max="1326" width="10.875" style="32"/>
+    <col min="1327" max="1327" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1328" max="1528" width="10.875" style="32"/>
+    <col min="1529" max="1529" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1530" max="1582" width="10.875" style="32"/>
+    <col min="1583" max="1583" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1584" max="1784" width="10.875" style="32"/>
+    <col min="1785" max="1785" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="1786" max="1838" width="10.875" style="32"/>
+    <col min="1839" max="1839" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1840" max="2040" width="10.875" style="32"/>
+    <col min="2041" max="2041" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2042" max="2094" width="10.875" style="32"/>
+    <col min="2095" max="2095" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2096" max="2296" width="10.875" style="32"/>
+    <col min="2297" max="2297" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2298" max="2350" width="10.875" style="32"/>
+    <col min="2351" max="2351" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2352" max="2552" width="10.875" style="32"/>
+    <col min="2553" max="2553" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2554" max="2606" width="10.875" style="32"/>
+    <col min="2607" max="2607" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2608" max="2808" width="10.875" style="32"/>
+    <col min="2809" max="2809" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2810" max="2862" width="10.875" style="32"/>
+    <col min="2863" max="2863" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2864" max="3064" width="10.875" style="32"/>
+    <col min="3065" max="3065" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3066" max="3118" width="10.875" style="32"/>
+    <col min="3119" max="3119" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3120" max="3320" width="10.875" style="32"/>
+    <col min="3321" max="3321" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3322" max="3374" width="10.875" style="32"/>
+    <col min="3375" max="3375" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3376" max="3576" width="10.875" style="32"/>
+    <col min="3577" max="3577" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3578" max="3630" width="10.875" style="32"/>
+    <col min="3631" max="3631" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3632" max="3832" width="10.875" style="32"/>
+    <col min="3833" max="3833" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3834" max="3886" width="10.875" style="32"/>
+    <col min="3887" max="3887" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3888" max="4088" width="10.875" style="32"/>
+    <col min="4089" max="4089" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4090" max="4142" width="10.875" style="32"/>
+    <col min="4143" max="4143" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4144" max="4344" width="10.875" style="32"/>
+    <col min="4345" max="4345" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4346" max="4398" width="10.875" style="32"/>
+    <col min="4399" max="4399" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4400" max="4600" width="10.875" style="32"/>
+    <col min="4601" max="4601" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4602" max="4654" width="10.875" style="32"/>
+    <col min="4655" max="4655" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4656" max="4856" width="10.875" style="32"/>
+    <col min="4857" max="4857" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4858" max="4910" width="10.875" style="32"/>
+    <col min="4911" max="4911" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4912" max="5112" width="10.875" style="32"/>
+    <col min="5113" max="5113" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5114" max="5166" width="10.875" style="32"/>
+    <col min="5167" max="5167" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5168" max="5368" width="10.875" style="32"/>
+    <col min="5369" max="5369" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5370" max="5422" width="10.875" style="32"/>
+    <col min="5423" max="5423" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5424" max="5624" width="10.875" style="32"/>
+    <col min="5625" max="5625" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5626" max="5678" width="10.875" style="32"/>
+    <col min="5679" max="5679" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5680" max="5880" width="10.875" style="32"/>
+    <col min="5881" max="5881" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5882" max="5934" width="10.875" style="32"/>
+    <col min="5935" max="5935" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5936" max="6136" width="10.875" style="32"/>
+    <col min="6137" max="6137" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6138" max="6190" width="10.875" style="32"/>
+    <col min="6191" max="6191" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6192" max="6392" width="10.875" style="32"/>
+    <col min="6393" max="6393" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6394" max="6446" width="10.875" style="32"/>
+    <col min="6447" max="6447" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6448" max="6648" width="10.875" style="32"/>
+    <col min="6649" max="6649" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6650" max="6702" width="10.875" style="32"/>
+    <col min="6703" max="6703" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6704" max="6904" width="10.875" style="32"/>
+    <col min="6905" max="6905" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6906" max="6958" width="10.875" style="32"/>
+    <col min="6959" max="6959" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6960" max="7160" width="10.875" style="32"/>
+    <col min="7161" max="7161" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7162" max="7214" width="10.875" style="32"/>
+    <col min="7215" max="7215" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7216" max="7416" width="10.875" style="32"/>
+    <col min="7417" max="7417" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7418" max="7470" width="10.875" style="32"/>
+    <col min="7471" max="7471" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7472" max="7672" width="10.875" style="32"/>
+    <col min="7673" max="7673" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7674" max="7726" width="10.875" style="32"/>
+    <col min="7727" max="7727" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7728" max="7928" width="10.875" style="32"/>
+    <col min="7929" max="7929" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7930" max="7982" width="10.875" style="32"/>
+    <col min="7983" max="7983" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7984" max="8184" width="10.875" style="32"/>
+    <col min="8185" max="8185" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8186" max="8238" width="10.875" style="32"/>
+    <col min="8239" max="8239" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8240" max="8440" width="10.875" style="32"/>
+    <col min="8441" max="8441" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8442" max="8494" width="10.875" style="32"/>
+    <col min="8495" max="8495" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8496" max="8696" width="10.875" style="32"/>
+    <col min="8697" max="8697" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8698" max="8750" width="10.875" style="32"/>
+    <col min="8751" max="8751" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8752" max="8952" width="10.875" style="32"/>
+    <col min="8953" max="8953" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="8954" max="9006" width="10.875" style="32"/>
+    <col min="9007" max="9007" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9008" max="9208" width="10.875" style="32"/>
+    <col min="9209" max="9209" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9210" max="9262" width="10.875" style="32"/>
+    <col min="9263" max="9263" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9264" max="9464" width="10.875" style="32"/>
+    <col min="9465" max="9465" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9466" max="9518" width="10.875" style="32"/>
+    <col min="9519" max="9519" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9520" max="9720" width="10.875" style="32"/>
+    <col min="9721" max="9721" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9722" max="9774" width="10.875" style="32"/>
+    <col min="9775" max="9775" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9776" max="9976" width="10.875" style="32"/>
+    <col min="9977" max="9977" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9978" max="10030" width="10.875" style="32"/>
+    <col min="10031" max="10031" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10032" max="10232" width="10.875" style="32"/>
+    <col min="10233" max="10233" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10234" max="10286" width="10.875" style="32"/>
+    <col min="10287" max="10287" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10288" max="10488" width="10.875" style="32"/>
+    <col min="10489" max="10489" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10490" max="10542" width="10.875" style="32"/>
+    <col min="10543" max="10543" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10544" max="10744" width="10.875" style="32"/>
+    <col min="10745" max="10745" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10746" max="10798" width="10.875" style="32"/>
+    <col min="10799" max="10799" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10800" max="11000" width="10.875" style="32"/>
+    <col min="11001" max="11001" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11002" max="11054" width="10.875" style="32"/>
+    <col min="11055" max="11055" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11056" max="11256" width="10.875" style="32"/>
+    <col min="11257" max="11257" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11258" max="11310" width="10.875" style="32"/>
+    <col min="11311" max="11311" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11312" max="11512" width="10.875" style="32"/>
+    <col min="11513" max="11513" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11514" max="11566" width="10.875" style="32"/>
+    <col min="11567" max="11567" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11568" max="11768" width="10.875" style="32"/>
+    <col min="11769" max="11769" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11770" max="11822" width="10.875" style="32"/>
+    <col min="11823" max="11823" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11824" max="12024" width="10.875" style="32"/>
+    <col min="12025" max="12025" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12026" max="12078" width="10.875" style="32"/>
+    <col min="12079" max="12079" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12080" max="12280" width="10.875" style="32"/>
+    <col min="12281" max="12281" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12282" max="12334" width="10.875" style="32"/>
+    <col min="12335" max="12335" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12336" max="12536" width="10.875" style="32"/>
+    <col min="12537" max="12537" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12538" max="12590" width="10.875" style="32"/>
+    <col min="12591" max="12591" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12592" max="12792" width="10.875" style="32"/>
+    <col min="12793" max="12793" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12794" max="12846" width="10.875" style="32"/>
+    <col min="12847" max="12847" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12848" max="13048" width="10.875" style="32"/>
+    <col min="13049" max="13049" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13050" max="13102" width="10.875" style="32"/>
+    <col min="13103" max="13103" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13104" max="13304" width="10.875" style="32"/>
+    <col min="13305" max="13305" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13306" max="13358" width="10.875" style="32"/>
+    <col min="13359" max="13359" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13360" max="13560" width="10.875" style="32"/>
+    <col min="13561" max="13561" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13562" max="13614" width="10.875" style="32"/>
+    <col min="13615" max="13615" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13616" max="13816" width="10.875" style="32"/>
+    <col min="13817" max="13817" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13818" max="13870" width="10.875" style="32"/>
+    <col min="13871" max="13871" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13872" max="14072" width="10.875" style="32"/>
+    <col min="14073" max="14073" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14074" max="14126" width="10.875" style="32"/>
+    <col min="14127" max="14127" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14128" max="14328" width="10.875" style="32"/>
+    <col min="14329" max="14329" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14330" max="14382" width="10.875" style="32"/>
+    <col min="14383" max="14383" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14384" max="14584" width="10.875" style="32"/>
+    <col min="14585" max="14585" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14586" max="14638" width="10.875" style="32"/>
+    <col min="14639" max="14639" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14640" max="14840" width="10.875" style="32"/>
+    <col min="14841" max="14841" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="14842" max="14894" width="10.875" style="32"/>
+    <col min="14895" max="14895" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14896" max="15096" width="10.875" style="32"/>
+    <col min="15097" max="15097" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15098" max="15150" width="10.875" style="32"/>
+    <col min="15151" max="15151" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15152" max="15352" width="10.875" style="32"/>
+    <col min="15353" max="15353" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15354" max="15406" width="10.875" style="32"/>
+    <col min="15407" max="15407" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15408" max="15608" width="10.875" style="32"/>
+    <col min="15609" max="15609" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15610" max="15662" width="10.875" style="32"/>
+    <col min="15663" max="15663" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15664" max="15864" width="10.875" style="32"/>
+    <col min="15865" max="15865" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="15866" max="15918" width="10.875" style="32"/>
+    <col min="15919" max="15919" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15920" max="16120" width="10.875" style="32"/>
+    <col min="16121" max="16121" width="35.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="16122" max="16174" width="10.875" style="32"/>
+    <col min="16175" max="16175" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="16176" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="30" customFormat="1" ht="69" customHeight="1">
@@ -4237,8 +10541,8 @@
     <row r="42" spans="1:48" ht="24.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4247,22 +10551,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="4.375" customWidth="1"/>
     <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="4.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="29" max="29" width="4.375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.375" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6603,26 +12907,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="30" width="4.6640625" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" customWidth="1"/>
-    <col min="32" max="33" width="5.83203125" customWidth="1"/>
-    <col min="34" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="30" width="4.625" customWidth="1"/>
+    <col min="31" max="31" width="9.125" customWidth="1"/>
+    <col min="32" max="33" width="5.875" customWidth="1"/>
+    <col min="34" max="34" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -10509,20 +16813,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="29" width="4.6640625" customWidth="1"/>
-    <col min="30" max="30" width="9.1640625" customWidth="1"/>
-    <col min="31" max="31" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="29" width="4.625" customWidth="1"/>
+    <col min="30" max="30" width="9.125" customWidth="1"/>
+    <col min="31" max="31" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -12093,15 +18397,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -12168,19 +18472,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" customWidth="1"/>
+    <col min="3" max="3" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="16425" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="16425" windowHeight="11760" tabRatio="656" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="Predicitiva Final" sheetId="13" r:id="rId1"/>
@@ -930,13 +930,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9528</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1344,10 +1344,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV42"/>
+  <dimension ref="A1:AV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AV41"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="2265" ySplit="1755" topLeftCell="B31" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1609,304 +1612,298 @@
     <col min="16176" max="16384" width="11" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="30" customFormat="1" ht="69" customHeight="1">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:48">
+      <c r="C1" s="32">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32">
+        <v>1</v>
+      </c>
+      <c r="E1" s="32">
+        <v>2</v>
+      </c>
+      <c r="F1" s="32">
+        <v>3</v>
+      </c>
+      <c r="G1" s="32">
+        <v>4</v>
+      </c>
+      <c r="H1" s="32">
+        <v>5</v>
+      </c>
+      <c r="I1" s="32">
+        <v>6</v>
+      </c>
+      <c r="J1" s="32">
+        <v>7</v>
+      </c>
+      <c r="K1" s="32">
+        <v>8</v>
+      </c>
+      <c r="L1" s="32">
+        <v>9</v>
+      </c>
+      <c r="M1" s="32">
+        <v>10</v>
+      </c>
+      <c r="N1" s="32">
+        <v>11</v>
+      </c>
+      <c r="O1" s="32">
+        <v>12</v>
+      </c>
+      <c r="P1" s="32">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="32">
+        <v>14</v>
+      </c>
+      <c r="R1" s="32">
+        <v>15</v>
+      </c>
+      <c r="S1" s="32">
+        <v>16</v>
+      </c>
+      <c r="T1" s="32">
+        <v>17</v>
+      </c>
+      <c r="U1" s="32">
+        <v>18</v>
+      </c>
+      <c r="V1" s="32">
+        <v>19</v>
+      </c>
+      <c r="W1" s="32">
+        <v>20</v>
+      </c>
+      <c r="X1" s="32">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="32">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="32">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="32">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="32">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="32">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="32">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="32">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="32">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="32">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="32">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="32">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="32">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="32">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="32">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="32">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="32">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="32">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="32">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="32">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="32">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="32">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="32">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="32">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U2" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z2" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA2" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB2" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC2" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE2" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF2" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG2" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH2" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AI2" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AK2" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="AL2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AM2" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AN2" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AP2" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="AR1" s="29" t="s">
+      <c r="AR2" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="AS2" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AT1" s="29" t="s">
+      <c r="AT2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AU2" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AV1" s="28" t="s">
+      <c r="AV2" s="28" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" ht="24.75" customHeight="1">
-      <c r="A2" s="35">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="31">
-        <v>600</v>
-      </c>
-      <c r="D2" s="31">
-        <v>600</v>
-      </c>
-      <c r="E2" s="31">
-        <v>600</v>
-      </c>
-      <c r="F2" s="31">
-        <v>600</v>
-      </c>
-      <c r="G2" s="31">
-        <v>600</v>
-      </c>
-      <c r="H2" s="31">
-        <v>600</v>
-      </c>
-      <c r="I2" s="31">
-        <v>600</v>
-      </c>
-      <c r="J2" s="31">
-        <v>600</v>
-      </c>
-      <c r="K2" s="31">
-        <v>600</v>
-      </c>
-      <c r="L2" s="31">
-        <v>600</v>
-      </c>
-      <c r="M2" s="31">
-        <v>600</v>
-      </c>
-      <c r="N2" s="31">
-        <v>600</v>
-      </c>
-      <c r="O2" s="31">
-        <v>600</v>
-      </c>
-      <c r="P2" s="31">
-        <v>600</v>
-      </c>
-      <c r="Q2" s="31">
-        <v>600</v>
-      </c>
-      <c r="R2" s="31">
-        <v>600</v>
-      </c>
-      <c r="S2" s="31">
-        <v>600</v>
-      </c>
-      <c r="T2" s="31">
-        <v>600</v>
-      </c>
-      <c r="U2" s="31">
-        <v>600</v>
-      </c>
-      <c r="V2" s="31">
-        <v>600</v>
-      </c>
-      <c r="W2" s="31">
-        <v>600</v>
-      </c>
-      <c r="X2" s="31">
-        <v>600</v>
-      </c>
-      <c r="Y2" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AA2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AB2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AC2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AD2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AE2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AF2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AG2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AH2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AI2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AJ2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AK2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AL2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AM2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AN2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AO2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AP2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AQ2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AR2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AS2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AT2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AU2" s="31">
-        <v>600</v>
-      </c>
-      <c r="AV2" s="31">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="24.75" customHeight="1">
       <c r="A3" s="35">
-        <v>1</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>131</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>130</v>
       </c>
       <c r="C3" s="31">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="D3" s="31">
         <v>600</v>
@@ -1972,13 +1969,13 @@
         <v>600</v>
       </c>
       <c r="Y3" s="31">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="31">
         <v>600</v>
       </c>
       <c r="AA3" s="31">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="AB3" s="31">
         <v>600</v>
@@ -2011,7 +2008,7 @@
         <v>600</v>
       </c>
       <c r="AL3" s="31">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="AM3" s="31">
         <v>600</v>
@@ -2020,13 +2017,13 @@
         <v>600</v>
       </c>
       <c r="AO3" s="31">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="AP3" s="31">
         <v>600</v>
       </c>
       <c r="AQ3" s="31">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="AR3" s="31">
         <v>600</v>
@@ -2035,10 +2032,10 @@
         <v>600</v>
       </c>
       <c r="AT3" s="31">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="AU3" s="31">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="AV3" s="31">
         <v>600</v>
@@ -2046,14 +2043,14 @@
     </row>
     <row r="4" spans="1:48" ht="24.75" customHeight="1">
       <c r="A4" s="35">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="31">
-        <v>3</v>
-      </c>
       <c r="D4" s="31">
         <v>600</v>
       </c>
@@ -2124,7 +2121,7 @@
         <v>600</v>
       </c>
       <c r="AA4" s="31">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="31">
         <v>600</v>
@@ -2157,7 +2154,7 @@
         <v>600</v>
       </c>
       <c r="AL4" s="31">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="31">
         <v>600</v>
@@ -2166,13 +2163,13 @@
         <v>600</v>
       </c>
       <c r="AO4" s="31">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="AP4" s="31">
         <v>600</v>
       </c>
       <c r="AQ4" s="31">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="AR4" s="31">
         <v>600</v>
@@ -2181,10 +2178,10 @@
         <v>600</v>
       </c>
       <c r="AT4" s="31">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="AU4" s="31">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="AV4" s="31">
         <v>600</v>
@@ -2192,13 +2189,13 @@
     </row>
     <row r="5" spans="1:48" ht="24.75" customHeight="1">
       <c r="A5" s="35">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="31">
         <v>3</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="31">
-        <v>4</v>
       </c>
       <c r="D5" s="31">
         <v>600</v>
@@ -2338,14 +2335,14 @@
     </row>
     <row r="6" spans="1:48" ht="24.75" customHeight="1">
       <c r="A6" s="35">
+        <v>3</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="31">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="31">
-        <v>600</v>
-      </c>
       <c r="D6" s="31">
         <v>600</v>
       </c>
@@ -2362,7 +2359,7 @@
         <v>600</v>
       </c>
       <c r="I6" s="31">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="J6" s="31">
         <v>600</v>
@@ -2484,10 +2481,10 @@
     </row>
     <row r="7" spans="1:48" ht="24.75" customHeight="1">
       <c r="A7" s="35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="31">
         <v>600</v>
@@ -2496,7 +2493,7 @@
         <v>600</v>
       </c>
       <c r="E7" s="31">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="F7" s="31">
         <v>600</v>
@@ -2565,7 +2562,7 @@
         <v>600</v>
       </c>
       <c r="AB7" s="31">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="AC7" s="31">
         <v>600</v>
@@ -2630,10 +2627,10 @@
     </row>
     <row r="8" spans="1:48" ht="24.75" customHeight="1">
       <c r="A8" s="35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="31">
         <v>600</v>
@@ -2642,7 +2639,7 @@
         <v>600</v>
       </c>
       <c r="E8" s="31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="31">
         <v>600</v>
@@ -2654,7 +2651,7 @@
         <v>600</v>
       </c>
       <c r="I8" s="31">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="J8" s="31">
         <v>600</v>
@@ -2711,7 +2708,7 @@
         <v>600</v>
       </c>
       <c r="AB8" s="31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC8" s="31">
         <v>600</v>
@@ -2776,10 +2773,10 @@
     </row>
     <row r="9" spans="1:48" ht="24.75" customHeight="1">
       <c r="A9" s="35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C9" s="31">
         <v>600</v>
@@ -2788,7 +2785,7 @@
         <v>600</v>
       </c>
       <c r="E9" s="31">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="F9" s="31">
         <v>600</v>
@@ -2857,19 +2854,19 @@
         <v>600</v>
       </c>
       <c r="AB9" s="31">
-        <v>600</v>
+        <v>9</v>
       </c>
       <c r="AC9" s="31">
         <v>600</v>
       </c>
       <c r="AD9" s="31">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="AE9" s="31">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="AF9" s="31">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="AG9" s="31">
         <v>600</v>
@@ -2922,13 +2919,13 @@
     </row>
     <row r="10" spans="1:48" ht="24.75" customHeight="1">
       <c r="A10" s="35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C10" s="31">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="D10" s="31">
         <v>600</v>
@@ -3000,22 +2997,22 @@
         <v>600</v>
       </c>
       <c r="AA10" s="31">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="AB10" s="31">
         <v>600</v>
       </c>
       <c r="AC10" s="31">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="31">
-        <v>600</v>
+        <v>11</v>
       </c>
       <c r="AE10" s="31">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="AF10" s="31">
-        <v>600</v>
+        <v>13</v>
       </c>
       <c r="AG10" s="31">
         <v>600</v>
@@ -3033,7 +3030,7 @@
         <v>600</v>
       </c>
       <c r="AL10" s="31">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="AM10" s="31">
         <v>600</v>
@@ -3042,13 +3039,13 @@
         <v>600</v>
       </c>
       <c r="AO10" s="31">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="AP10" s="31">
         <v>600</v>
       </c>
       <c r="AQ10" s="31">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="AR10" s="31">
         <v>600</v>
@@ -3057,10 +3054,10 @@
         <v>600</v>
       </c>
       <c r="AT10" s="31">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="AU10" s="31">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="AV10" s="31">
         <v>600</v>
@@ -3068,13 +3065,13 @@
     </row>
     <row r="11" spans="1:48" ht="24.75" customHeight="1">
       <c r="A11" s="35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="31">
         <v>600</v>
@@ -3143,10 +3140,10 @@
         <v>600</v>
       </c>
       <c r="Z11" s="31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA11" s="31">
-        <v>600</v>
+        <v>14</v>
       </c>
       <c r="AB11" s="31">
         <v>600</v>
@@ -3179,7 +3176,7 @@
         <v>600</v>
       </c>
       <c r="AL11" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM11" s="31">
         <v>600</v>
@@ -3188,13 +3185,13 @@
         <v>600</v>
       </c>
       <c r="AO11" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP11" s="31">
         <v>600</v>
       </c>
       <c r="AQ11" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR11" s="31">
         <v>600</v>
@@ -3203,10 +3200,10 @@
         <v>600</v>
       </c>
       <c r="AT11" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU11" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV11" s="31">
         <v>600</v>
@@ -3214,13 +3211,13 @@
     </row>
     <row r="12" spans="1:48" ht="24.75" customHeight="1">
       <c r="A12" s="35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C12" s="31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="31">
         <v>600</v>
@@ -3289,7 +3286,7 @@
         <v>600</v>
       </c>
       <c r="Z12" s="31">
-        <v>600</v>
+        <v>17</v>
       </c>
       <c r="AA12" s="31">
         <v>600</v>
@@ -3325,7 +3322,7 @@
         <v>600</v>
       </c>
       <c r="AL12" s="31">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AM12" s="31">
         <v>600</v>
@@ -3334,13 +3331,13 @@
         <v>600</v>
       </c>
       <c r="AO12" s="31">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AP12" s="31">
         <v>600</v>
       </c>
       <c r="AQ12" s="31">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AR12" s="31">
         <v>600</v>
@@ -3349,10 +3346,10 @@
         <v>600</v>
       </c>
       <c r="AT12" s="31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AU12" s="31">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AV12" s="31">
         <v>600</v>
@@ -3360,13 +3357,13 @@
     </row>
     <row r="13" spans="1:48" ht="24.75" customHeight="1">
       <c r="A13" s="35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="31">
         <v>600</v>
@@ -3435,7 +3432,7 @@
         <v>600</v>
       </c>
       <c r="Z13" s="31">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="AA13" s="31">
         <v>600</v>
@@ -3471,7 +3468,7 @@
         <v>600</v>
       </c>
       <c r="AL13" s="31">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM13" s="31">
         <v>600</v>
@@ -3480,13 +3477,13 @@
         <v>600</v>
       </c>
       <c r="AO13" s="31">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AP13" s="31">
         <v>600</v>
       </c>
       <c r="AQ13" s="31">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AR13" s="31">
         <v>600</v>
@@ -3495,10 +3492,10 @@
         <v>600</v>
       </c>
       <c r="AT13" s="31">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AU13" s="31">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AV13" s="31">
         <v>600</v>
@@ -3506,13 +3503,13 @@
     </row>
     <row r="14" spans="1:48" ht="24.75" customHeight="1">
       <c r="A14" s="35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C14" s="31">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D14" s="31">
         <v>600</v>
@@ -3581,7 +3578,7 @@
         <v>600</v>
       </c>
       <c r="Z14" s="31">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="AA14" s="31">
         <v>600</v>
@@ -3617,34 +3614,34 @@
         <v>600</v>
       </c>
       <c r="AL14" s="31">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="AM14" s="31">
         <v>600</v>
       </c>
       <c r="AN14" s="31">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="AO14" s="31">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="AP14" s="31">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="AQ14" s="31">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="AR14" s="31">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="AS14" s="31">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="AT14" s="31">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="AU14" s="31">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="AV14" s="31">
         <v>600</v>
@@ -3652,13 +3649,13 @@
     </row>
     <row r="15" spans="1:48" ht="24.75" customHeight="1">
       <c r="A15" s="35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="31">
         <v>600</v>
@@ -3798,16 +3795,16 @@
     </row>
     <row r="16" spans="1:48" ht="24.75" customHeight="1">
       <c r="A16" s="35">
-        <v>14</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>136</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="C16" s="31">
-        <v>600</v>
+        <v>27</v>
       </c>
       <c r="D16" s="31">
-        <v>29</v>
+        <v>600</v>
       </c>
       <c r="E16" s="31">
         <v>600</v>
@@ -3822,7 +3819,7 @@
         <v>600</v>
       </c>
       <c r="I16" s="31">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="J16" s="31">
         <v>600</v>
@@ -3944,16 +3941,16 @@
     </row>
     <row r="17" spans="1:48" ht="24.75" customHeight="1">
       <c r="A17" s="35">
-        <v>15</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>137</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="C17" s="31">
         <v>600</v>
       </c>
       <c r="D17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="E17" s="31">
         <v>600</v>
@@ -3965,52 +3962,52 @@
         <v>600</v>
       </c>
       <c r="H17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="I17" s="31">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="J17" s="31">
-        <v>31</v>
+        <v>600</v>
       </c>
       <c r="K17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="L17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="M17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="N17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="O17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="P17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="R17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="S17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="T17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="U17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="V17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="W17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="X17" s="31">
         <v>600</v>
@@ -4090,10 +4087,10 @@
     </row>
     <row r="18" spans="1:48" ht="24.75" customHeight="1">
       <c r="A18" s="35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="31">
         <v>600</v>
@@ -4117,7 +4114,7 @@
         <v>600</v>
       </c>
       <c r="J18" s="31">
-        <v>600</v>
+        <v>31</v>
       </c>
       <c r="K18" s="31">
         <v>600</v>
@@ -4201,7 +4198,7 @@
         <v>600</v>
       </c>
       <c r="AL18" s="31">
-        <v>32</v>
+        <v>600</v>
       </c>
       <c r="AM18" s="31">
         <v>600</v>
@@ -4236,10 +4233,10 @@
     </row>
     <row r="19" spans="1:48" ht="24.75" customHeight="1">
       <c r="A19" s="35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="31">
         <v>600</v>
@@ -4347,13 +4344,13 @@
         <v>600</v>
       </c>
       <c r="AL19" s="31">
-        <v>600</v>
+        <v>32</v>
       </c>
       <c r="AM19" s="31">
-        <v>33</v>
+        <v>600</v>
       </c>
       <c r="AN19" s="31">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="AO19" s="31">
         <v>600</v>
@@ -4382,10 +4379,10 @@
     </row>
     <row r="20" spans="1:48" ht="24.75" customHeight="1">
       <c r="A20" s="35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="31">
         <v>600</v>
@@ -4496,13 +4493,13 @@
         <v>600</v>
       </c>
       <c r="AM20" s="31">
-        <v>600</v>
+        <v>33</v>
       </c>
       <c r="AN20" s="31">
-        <v>600</v>
+        <v>34</v>
       </c>
       <c r="AO20" s="31">
-        <v>35</v>
+        <v>600</v>
       </c>
       <c r="AP20" s="31">
         <v>600</v>
@@ -4528,10 +4525,10 @@
     </row>
     <row r="21" spans="1:48" ht="24.75" customHeight="1">
       <c r="A21" s="35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="31">
         <v>600</v>
@@ -4648,13 +4645,13 @@
         <v>600</v>
       </c>
       <c r="AO21" s="31">
-        <v>600</v>
+        <v>35</v>
       </c>
       <c r="AP21" s="31">
         <v>600</v>
       </c>
       <c r="AQ21" s="31">
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="AR21" s="31">
         <v>600</v>
@@ -4674,10 +4671,10 @@
     </row>
     <row r="22" spans="1:48" ht="24.75" customHeight="1">
       <c r="A22" s="35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="31">
         <v>600</v>
@@ -4800,7 +4797,7 @@
         <v>600</v>
       </c>
       <c r="AQ22" s="31">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="AR22" s="31">
         <v>600</v>
@@ -4809,7 +4806,7 @@
         <v>600</v>
       </c>
       <c r="AT22" s="31">
-        <v>37</v>
+        <v>600</v>
       </c>
       <c r="AU22" s="31">
         <v>600</v>
@@ -4820,13 +4817,13 @@
     </row>
     <row r="23" spans="1:48" ht="24.75" customHeight="1">
       <c r="A23" s="35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="31">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="D23" s="31">
         <v>600</v>
@@ -4955,7 +4952,7 @@
         <v>600</v>
       </c>
       <c r="AT23" s="31">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="AU23" s="31">
         <v>600</v>
@@ -4966,19 +4963,19 @@
     </row>
     <row r="24" spans="1:48" ht="24.75" customHeight="1">
       <c r="A24" s="35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C24" s="31">
-        <v>600</v>
+        <v>38</v>
       </c>
       <c r="D24" s="31">
         <v>600</v>
       </c>
       <c r="E24" s="31">
-        <v>39</v>
+        <v>600</v>
       </c>
       <c r="F24" s="31">
         <v>600</v>
@@ -4987,7 +4984,7 @@
         <v>600</v>
       </c>
       <c r="H24" s="31">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="I24" s="31">
         <v>600</v>
@@ -5112,10 +5109,10 @@
     </row>
     <row r="25" spans="1:48" ht="24.75" customHeight="1">
       <c r="A25" s="35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C25" s="31">
         <v>600</v>
@@ -5124,7 +5121,7 @@
         <v>600</v>
       </c>
       <c r="E25" s="31">
-        <v>600</v>
+        <v>39</v>
       </c>
       <c r="F25" s="31">
         <v>600</v>
@@ -5133,7 +5130,7 @@
         <v>600</v>
       </c>
       <c r="H25" s="31">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="I25" s="31">
         <v>600</v>
@@ -5250,7 +5247,7 @@
         <v>600</v>
       </c>
       <c r="AU25" s="31">
-        <v>41</v>
+        <v>600</v>
       </c>
       <c r="AV25" s="31">
         <v>600</v>
@@ -5258,13 +5255,13 @@
     </row>
     <row r="26" spans="1:48" ht="24.75" customHeight="1">
       <c r="A26" s="35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="31">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="D26" s="31">
         <v>600</v>
@@ -5276,7 +5273,7 @@
         <v>600</v>
       </c>
       <c r="G26" s="31">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="H26" s="31">
         <v>600</v>
@@ -5327,7 +5324,7 @@
         <v>600</v>
       </c>
       <c r="X26" s="31">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="Y26" s="31">
         <v>600</v>
@@ -5354,19 +5351,19 @@
         <v>600</v>
       </c>
       <c r="AG26" s="31">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="AH26" s="31">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="AI26" s="31">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="AJ26" s="31">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="AK26" s="31">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="AL26" s="31">
         <v>600</v>
@@ -5396,7 +5393,7 @@
         <v>600</v>
       </c>
       <c r="AU26" s="31">
-        <v>600</v>
+        <v>41</v>
       </c>
       <c r="AV26" s="31">
         <v>600</v>
@@ -5404,28 +5401,28 @@
     </row>
     <row r="27" spans="1:48" ht="24.75" customHeight="1">
       <c r="A27" s="35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C27" s="31">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="D27" s="31">
         <v>600</v>
       </c>
       <c r="E27" s="31">
-        <v>43</v>
+        <v>600</v>
       </c>
       <c r="F27" s="31">
         <v>600</v>
       </c>
       <c r="G27" s="31">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="H27" s="31">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="I27" s="31">
         <v>600</v>
@@ -5473,7 +5470,7 @@
         <v>600</v>
       </c>
       <c r="X27" s="31">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="Y27" s="31">
         <v>600</v>
@@ -5500,19 +5497,19 @@
         <v>600</v>
       </c>
       <c r="AG27" s="31">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AH27" s="31">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AI27" s="31">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AJ27" s="31">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AK27" s="31">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AL27" s="31">
         <v>600</v>
@@ -5550,28 +5547,28 @@
     </row>
     <row r="28" spans="1:48" ht="24.75" customHeight="1">
       <c r="A28" s="35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C28" s="31">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="D28" s="31">
         <v>600</v>
       </c>
       <c r="E28" s="31">
-        <v>600</v>
+        <v>43</v>
       </c>
       <c r="F28" s="31">
         <v>600</v>
       </c>
       <c r="G28" s="31">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="H28" s="31">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="I28" s="31">
         <v>600</v>
@@ -5619,7 +5616,7 @@
         <v>600</v>
       </c>
       <c r="X28" s="31">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="Y28" s="31">
         <v>600</v>
@@ -5646,19 +5643,19 @@
         <v>600</v>
       </c>
       <c r="AG28" s="31">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="AH28" s="31">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="AI28" s="31">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="AJ28" s="31">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="AK28" s="31">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="AL28" s="31">
         <v>600</v>
@@ -5696,13 +5693,13 @@
     </row>
     <row r="29" spans="1:48" ht="24.75" customHeight="1">
       <c r="A29" s="35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C29" s="31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="31">
         <v>600</v>
@@ -5714,7 +5711,7 @@
         <v>600</v>
       </c>
       <c r="G29" s="31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H29" s="31">
         <v>600</v>
@@ -5759,13 +5756,13 @@
         <v>600</v>
       </c>
       <c r="V29" s="31">
-        <v>46</v>
+        <v>600</v>
       </c>
       <c r="W29" s="31">
         <v>600</v>
       </c>
       <c r="X29" s="31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y29" s="31">
         <v>600</v>
@@ -5792,19 +5789,19 @@
         <v>600</v>
       </c>
       <c r="AG29" s="31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AH29" s="31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AI29" s="31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ29" s="31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AK29" s="31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AL29" s="31">
         <v>600</v>
@@ -5842,28 +5839,28 @@
     </row>
     <row r="30" spans="1:48" ht="24.75" customHeight="1">
       <c r="A30" s="35">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C30" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="31">
         <v>600</v>
       </c>
       <c r="E30" s="31">
-        <v>600</v>
+        <v>47</v>
       </c>
       <c r="F30" s="31">
-        <v>600</v>
+        <v>47</v>
       </c>
       <c r="G30" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="31">
-        <v>600</v>
+        <v>47</v>
       </c>
       <c r="I30" s="31">
         <v>600</v>
@@ -5905,13 +5902,13 @@
         <v>600</v>
       </c>
       <c r="V30" s="31">
-        <v>600</v>
+        <v>46</v>
       </c>
       <c r="W30" s="31">
         <v>600</v>
       </c>
       <c r="X30" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y30" s="31">
         <v>600</v>
@@ -5938,19 +5935,19 @@
         <v>600</v>
       </c>
       <c r="AG30" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH30" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI30" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ30" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK30" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AL30" s="31">
         <v>600</v>
@@ -5988,13 +5985,13 @@
     </row>
     <row r="31" spans="1:48" ht="24.75" customHeight="1">
       <c r="A31" s="35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C31" s="31">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="31">
         <v>600</v>
@@ -6006,7 +6003,7 @@
         <v>600</v>
       </c>
       <c r="G31" s="31">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H31" s="31">
         <v>600</v>
@@ -6054,10 +6051,10 @@
         <v>600</v>
       </c>
       <c r="W31" s="31">
-        <v>49</v>
+        <v>600</v>
       </c>
       <c r="X31" s="31">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y31" s="31">
         <v>600</v>
@@ -6084,19 +6081,19 @@
         <v>600</v>
       </c>
       <c r="AG31" s="31">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH31" s="31">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI31" s="31">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ31" s="31">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK31" s="31">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL31" s="31">
         <v>600</v>
@@ -6134,28 +6131,28 @@
     </row>
     <row r="32" spans="1:48" ht="24.75" customHeight="1">
       <c r="A32" s="35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C32" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="31">
         <v>600</v>
       </c>
       <c r="E32" s="31">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="F32" s="31">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="G32" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="31">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="I32" s="31">
         <v>600</v>
@@ -6200,10 +6197,10 @@
         <v>600</v>
       </c>
       <c r="W32" s="31">
-        <v>600</v>
+        <v>49</v>
       </c>
       <c r="X32" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y32" s="31">
         <v>600</v>
@@ -6230,19 +6227,19 @@
         <v>600</v>
       </c>
       <c r="AG32" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH32" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI32" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ32" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AK32" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL32" s="31">
         <v>600</v>
@@ -6280,13 +6277,13 @@
     </row>
     <row r="33" spans="1:48" ht="24.75" customHeight="1">
       <c r="A33" s="35">
-        <v>31</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>149</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>148</v>
       </c>
       <c r="C33" s="31">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="31">
         <v>600</v>
@@ -6298,7 +6295,7 @@
         <v>600</v>
       </c>
       <c r="G33" s="31">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" s="31">
         <v>600</v>
@@ -6349,7 +6346,7 @@
         <v>600</v>
       </c>
       <c r="X33" s="31">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y33" s="31">
         <v>600</v>
@@ -6376,19 +6373,19 @@
         <v>600</v>
       </c>
       <c r="AG33" s="31">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH33" s="31">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI33" s="31">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ33" s="31">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK33" s="31">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL33" s="31">
         <v>600</v>
@@ -6426,13 +6423,13 @@
     </row>
     <row r="34" spans="1:48" ht="24.75" customHeight="1">
       <c r="A34" s="35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="31">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="31">
         <v>600</v>
@@ -6444,7 +6441,7 @@
         <v>600</v>
       </c>
       <c r="G34" s="31">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="31">
         <v>600</v>
@@ -6495,7 +6492,7 @@
         <v>600</v>
       </c>
       <c r="X34" s="31">
-        <v>600</v>
+        <v>52</v>
       </c>
       <c r="Y34" s="31">
         <v>600</v>
@@ -6522,19 +6519,19 @@
         <v>600</v>
       </c>
       <c r="AG34" s="31">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH34" s="31">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI34" s="31">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ34" s="31">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK34" s="31">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL34" s="31">
         <v>600</v>
@@ -6572,13 +6569,13 @@
     </row>
     <row r="35" spans="1:48" ht="24.75" customHeight="1">
       <c r="A35" s="35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>151</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>150</v>
       </c>
       <c r="C35" s="31">
-        <v>600</v>
+        <v>54</v>
       </c>
       <c r="D35" s="31">
         <v>600</v>
@@ -6590,7 +6587,7 @@
         <v>600</v>
       </c>
       <c r="G35" s="31">
-        <v>600</v>
+        <v>54</v>
       </c>
       <c r="H35" s="31">
         <v>600</v>
@@ -6617,28 +6614,28 @@
         <v>600</v>
       </c>
       <c r="P35" s="31">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="Q35" s="31">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="R35" s="31">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="S35" s="31">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="T35" s="31">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="U35" s="31">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="V35" s="31">
-        <v>56</v>
+        <v>600</v>
       </c>
       <c r="W35" s="31">
-        <v>56</v>
+        <v>600</v>
       </c>
       <c r="X35" s="31">
         <v>600</v>
@@ -6668,19 +6665,19 @@
         <v>600</v>
       </c>
       <c r="AG35" s="31">
-        <v>600</v>
+        <v>54</v>
       </c>
       <c r="AH35" s="31">
-        <v>600</v>
+        <v>54</v>
       </c>
       <c r="AI35" s="31">
-        <v>600</v>
+        <v>54</v>
       </c>
       <c r="AJ35" s="31">
-        <v>600</v>
+        <v>54</v>
       </c>
       <c r="AK35" s="31">
-        <v>600</v>
+        <v>54</v>
       </c>
       <c r="AL35" s="31">
         <v>600</v>
@@ -6718,10 +6715,10 @@
     </row>
     <row r="36" spans="1:48" ht="24.75" customHeight="1">
       <c r="A36" s="35">
-        <v>34</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>152</v>
+        <v>33</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="C36" s="31">
         <v>600</v>
@@ -6730,16 +6727,16 @@
         <v>600</v>
       </c>
       <c r="E36" s="31">
-        <v>600</v>
+        <v>56</v>
       </c>
       <c r="F36" s="31">
-        <v>600</v>
+        <v>56</v>
       </c>
       <c r="G36" s="31">
         <v>600</v>
       </c>
       <c r="H36" s="31">
-        <v>600</v>
+        <v>56</v>
       </c>
       <c r="I36" s="31">
         <v>600</v>
@@ -6763,28 +6760,28 @@
         <v>600</v>
       </c>
       <c r="P36" s="31">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q36" s="31">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R36" s="31">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="S36" s="31">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T36" s="31">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="U36" s="31">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V36" s="31">
-        <v>600</v>
+        <v>56</v>
       </c>
       <c r="W36" s="31">
-        <v>600</v>
+        <v>56</v>
       </c>
       <c r="X36" s="31">
         <v>600</v>
@@ -6864,13 +6861,13 @@
     </row>
     <row r="37" spans="1:48" ht="24.75" customHeight="1">
       <c r="A37" s="35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="31">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="D37" s="31">
         <v>600</v>
@@ -6882,7 +6879,7 @@
         <v>600</v>
       </c>
       <c r="G37" s="31">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="H37" s="31">
         <v>600</v>
@@ -6909,22 +6906,22 @@
         <v>600</v>
       </c>
       <c r="P37" s="31">
-        <v>600</v>
+        <v>57</v>
       </c>
       <c r="Q37" s="31">
-        <v>600</v>
+        <v>59</v>
       </c>
       <c r="R37" s="31">
-        <v>600</v>
+        <v>61</v>
       </c>
       <c r="S37" s="31">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="T37" s="31">
-        <v>600</v>
+        <v>62</v>
       </c>
       <c r="U37" s="31">
-        <v>600</v>
+        <v>58</v>
       </c>
       <c r="V37" s="31">
         <v>600</v>
@@ -6960,19 +6957,19 @@
         <v>600</v>
       </c>
       <c r="AG37" s="31">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="AH37" s="31">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="AI37" s="31">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="AJ37" s="31">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="AK37" s="31">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="AL37" s="31">
         <v>600</v>
@@ -7010,13 +7007,13 @@
     </row>
     <row r="38" spans="1:48" ht="24.75" customHeight="1">
       <c r="A38" s="35">
-        <v>36</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>110</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>153</v>
       </c>
       <c r="C38" s="31">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" s="31">
         <v>600</v>
@@ -7028,7 +7025,7 @@
         <v>600</v>
       </c>
       <c r="G38" s="31">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H38" s="31">
         <v>600</v>
@@ -7040,10 +7037,10 @@
         <v>600</v>
       </c>
       <c r="K38" s="31">
-        <v>64</v>
+        <v>600</v>
       </c>
       <c r="L38" s="31">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="M38" s="31">
         <v>600</v>
@@ -7106,19 +7103,19 @@
         <v>600</v>
       </c>
       <c r="AG38" s="31">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH38" s="31">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI38" s="31">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ38" s="31">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK38" s="31">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL38" s="31">
         <v>600</v>
@@ -7156,443 +7153,589 @@
     </row>
     <row r="39" spans="1:48" ht="24.75" customHeight="1">
       <c r="A39" s="35">
+        <v>36</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="31">
+        <v>66</v>
+      </c>
+      <c r="D39" s="31">
+        <v>600</v>
+      </c>
+      <c r="E39" s="31">
+        <v>66</v>
+      </c>
+      <c r="F39" s="31">
+        <v>66</v>
+      </c>
+      <c r="G39" s="31">
+        <v>66</v>
+      </c>
+      <c r="H39" s="31">
+        <v>66</v>
+      </c>
+      <c r="I39" s="31">
+        <v>600</v>
+      </c>
+      <c r="J39" s="31">
+        <v>600</v>
+      </c>
+      <c r="K39" s="31">
+        <v>64</v>
+      </c>
+      <c r="L39" s="31">
+        <v>65</v>
+      </c>
+      <c r="M39" s="31">
+        <v>600</v>
+      </c>
+      <c r="N39" s="31">
+        <v>600</v>
+      </c>
+      <c r="O39" s="31">
+        <v>600</v>
+      </c>
+      <c r="P39" s="31">
+        <v>66</v>
+      </c>
+      <c r="Q39" s="31">
+        <v>66</v>
+      </c>
+      <c r="R39" s="31">
+        <v>66</v>
+      </c>
+      <c r="S39" s="31">
+        <v>66</v>
+      </c>
+      <c r="T39" s="31">
+        <v>66</v>
+      </c>
+      <c r="U39" s="31">
+        <v>66</v>
+      </c>
+      <c r="V39" s="31">
+        <v>66</v>
+      </c>
+      <c r="W39" s="31">
+        <v>66</v>
+      </c>
+      <c r="X39" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y39" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG39" s="31">
+        <v>66</v>
+      </c>
+      <c r="AH39" s="31">
+        <v>66</v>
+      </c>
+      <c r="AI39" s="31">
+        <v>66</v>
+      </c>
+      <c r="AJ39" s="31">
+        <v>66</v>
+      </c>
+      <c r="AK39" s="31">
+        <v>66</v>
+      </c>
+      <c r="AL39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU39" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV39" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A40" s="35">
         <v>37</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B40" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C40" s="31">
         <v>67</v>
       </c>
-      <c r="D39" s="31">
-        <v>600</v>
-      </c>
-      <c r="E39" s="31">
-        <v>600</v>
-      </c>
-      <c r="F39" s="31">
-        <v>600</v>
-      </c>
-      <c r="G39" s="31">
+      <c r="D40" s="31">
+        <v>600</v>
+      </c>
+      <c r="E40" s="31">
+        <v>600</v>
+      </c>
+      <c r="F40" s="31">
+        <v>600</v>
+      </c>
+      <c r="G40" s="31">
         <v>67</v>
       </c>
-      <c r="H39" s="31">
-        <v>600</v>
-      </c>
-      <c r="I39" s="31">
-        <v>600</v>
-      </c>
-      <c r="J39" s="31">
-        <v>600</v>
-      </c>
-      <c r="K39" s="31">
-        <v>600</v>
-      </c>
-      <c r="L39" s="31">
-        <v>600</v>
-      </c>
-      <c r="M39" s="31">
-        <v>600</v>
-      </c>
-      <c r="N39" s="31">
-        <v>600</v>
-      </c>
-      <c r="O39" s="31">
-        <v>600</v>
-      </c>
-      <c r="P39" s="31">
-        <v>600</v>
-      </c>
-      <c r="Q39" s="31">
-        <v>600</v>
-      </c>
-      <c r="R39" s="31">
-        <v>600</v>
-      </c>
-      <c r="S39" s="31">
-        <v>600</v>
-      </c>
-      <c r="T39" s="31">
-        <v>600</v>
-      </c>
-      <c r="U39" s="31">
-        <v>600</v>
-      </c>
-      <c r="V39" s="31">
-        <v>600</v>
-      </c>
-      <c r="W39" s="31">
-        <v>600</v>
-      </c>
-      <c r="X39" s="31">
-        <v>600</v>
-      </c>
-      <c r="Y39" s="31">
-        <v>600</v>
-      </c>
-      <c r="Z39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AA39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AB39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AC39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AD39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AE39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AF39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AG39" s="31">
+      <c r="H40" s="31">
+        <v>600</v>
+      </c>
+      <c r="I40" s="31">
+        <v>600</v>
+      </c>
+      <c r="J40" s="31">
+        <v>600</v>
+      </c>
+      <c r="K40" s="31">
+        <v>600</v>
+      </c>
+      <c r="L40" s="31">
+        <v>600</v>
+      </c>
+      <c r="M40" s="31">
+        <v>600</v>
+      </c>
+      <c r="N40" s="31">
+        <v>600</v>
+      </c>
+      <c r="O40" s="31">
+        <v>600</v>
+      </c>
+      <c r="P40" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q40" s="31">
+        <v>600</v>
+      </c>
+      <c r="R40" s="31">
+        <v>600</v>
+      </c>
+      <c r="S40" s="31">
+        <v>600</v>
+      </c>
+      <c r="T40" s="31">
+        <v>600</v>
+      </c>
+      <c r="U40" s="31">
+        <v>600</v>
+      </c>
+      <c r="V40" s="31">
+        <v>600</v>
+      </c>
+      <c r="W40" s="31">
+        <v>600</v>
+      </c>
+      <c r="X40" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y40" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG40" s="31">
         <v>67</v>
       </c>
-      <c r="AH39" s="31">
+      <c r="AH40" s="31">
         <v>67</v>
       </c>
-      <c r="AI39" s="31">
+      <c r="AI40" s="31">
         <v>67</v>
       </c>
-      <c r="AJ39" s="31">
+      <c r="AJ40" s="31">
         <v>67</v>
       </c>
-      <c r="AK39" s="31">
+      <c r="AK40" s="31">
         <v>67</v>
       </c>
-      <c r="AL39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AM39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AN39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AO39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AP39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AQ39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AR39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AS39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AT39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AU39" s="31">
-        <v>600</v>
-      </c>
-      <c r="AV39" s="31">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48" s="42" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A40" s="41">
+      <c r="AL40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU40" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV40" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A41" s="41">
         <v>38</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B41" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C41" s="31">
         <v>71</v>
       </c>
-      <c r="D40" s="31">
-        <v>600</v>
-      </c>
-      <c r="E40" s="31">
-        <v>600</v>
-      </c>
-      <c r="F40" s="31">
-        <v>600</v>
-      </c>
-      <c r="G40" s="31">
+      <c r="D41" s="31">
+        <v>600</v>
+      </c>
+      <c r="E41" s="31">
         <v>71</v>
       </c>
-      <c r="H40" s="31">
-        <v>600</v>
-      </c>
-      <c r="I40" s="31">
-        <v>600</v>
-      </c>
-      <c r="J40" s="31">
-        <v>600</v>
-      </c>
-      <c r="K40" s="31">
-        <v>600</v>
-      </c>
-      <c r="L40" s="31">
-        <v>600</v>
-      </c>
-      <c r="M40" s="31">
+      <c r="F41" s="31">
+        <v>71</v>
+      </c>
+      <c r="G41" s="31">
+        <v>71</v>
+      </c>
+      <c r="H41" s="31">
+        <v>71</v>
+      </c>
+      <c r="I41" s="31">
+        <v>600</v>
+      </c>
+      <c r="J41" s="31">
+        <v>600</v>
+      </c>
+      <c r="K41" s="31">
+        <v>71</v>
+      </c>
+      <c r="L41" s="31">
+        <v>71</v>
+      </c>
+      <c r="M41" s="31">
         <v>68</v>
       </c>
-      <c r="N40" s="31">
+      <c r="N41" s="31">
         <v>69</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O41" s="31">
         <v>70</v>
       </c>
-      <c r="P40" s="31">
-        <v>600</v>
-      </c>
-      <c r="Q40" s="31">
-        <v>600</v>
-      </c>
-      <c r="R40" s="31">
-        <v>600</v>
-      </c>
-      <c r="S40" s="31">
-        <v>600</v>
-      </c>
-      <c r="T40" s="31">
-        <v>600</v>
-      </c>
-      <c r="U40" s="31">
-        <v>600</v>
-      </c>
-      <c r="V40" s="31">
-        <v>600</v>
-      </c>
-      <c r="W40" s="31">
-        <v>600</v>
-      </c>
-      <c r="X40" s="31">
-        <v>600</v>
-      </c>
-      <c r="Y40" s="31">
-        <v>600</v>
-      </c>
-      <c r="Z40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AA40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AB40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AC40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AD40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AE40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AF40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AG40" s="31">
+      <c r="P41" s="31">
         <v>71</v>
       </c>
-      <c r="AH40" s="31">
+      <c r="Q41" s="31">
         <v>71</v>
       </c>
-      <c r="AI40" s="31">
+      <c r="R41" s="31">
         <v>71</v>
       </c>
-      <c r="AJ40" s="31">
+      <c r="S41" s="31">
         <v>71</v>
       </c>
-      <c r="AK40" s="31">
+      <c r="T41" s="31">
         <v>71</v>
       </c>
-      <c r="AL40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AM40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AN40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AO40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AP40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AQ40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AR40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AS40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AT40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AU40" s="31">
-        <v>600</v>
-      </c>
-      <c r="AV40" s="31">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48" ht="24.75" customHeight="1">
-      <c r="A41" s="35">
+      <c r="U41" s="31">
+        <v>71</v>
+      </c>
+      <c r="V41" s="31">
+        <v>71</v>
+      </c>
+      <c r="W41" s="31">
+        <v>71</v>
+      </c>
+      <c r="X41" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y41" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG41" s="31">
+        <v>71</v>
+      </c>
+      <c r="AH41" s="31">
+        <v>71</v>
+      </c>
+      <c r="AI41" s="31">
+        <v>71</v>
+      </c>
+      <c r="AJ41" s="31">
+        <v>71</v>
+      </c>
+      <c r="AK41" s="31">
+        <v>71</v>
+      </c>
+      <c r="AL41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU41" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV41" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" ht="24.75" customHeight="1">
+      <c r="A42" s="35">
         <v>39</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B42" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C42" s="31">
         <v>72</v>
       </c>
-      <c r="D41" s="31">
-        <v>600</v>
-      </c>
-      <c r="E41" s="31">
-        <v>600</v>
-      </c>
-      <c r="F41" s="31">
-        <v>600</v>
-      </c>
-      <c r="G41" s="31">
+      <c r="D42" s="31">
+        <v>600</v>
+      </c>
+      <c r="E42" s="31">
+        <v>600</v>
+      </c>
+      <c r="F42" s="31">
+        <v>600</v>
+      </c>
+      <c r="G42" s="31">
         <v>78</v>
       </c>
-      <c r="H41" s="31">
-        <v>600</v>
-      </c>
-      <c r="I41" s="31">
-        <v>600</v>
-      </c>
-      <c r="J41" s="31">
-        <v>600</v>
-      </c>
-      <c r="K41" s="31">
-        <v>600</v>
-      </c>
-      <c r="L41" s="31">
-        <v>600</v>
-      </c>
-      <c r="M41" s="31">
-        <v>600</v>
-      </c>
-      <c r="N41" s="31">
-        <v>600</v>
-      </c>
-      <c r="O41" s="31">
-        <v>600</v>
-      </c>
-      <c r="P41" s="31">
-        <v>600</v>
-      </c>
-      <c r="Q41" s="31">
-        <v>600</v>
-      </c>
-      <c r="R41" s="31">
-        <v>600</v>
-      </c>
-      <c r="S41" s="31">
-        <v>600</v>
-      </c>
-      <c r="T41" s="31">
-        <v>600</v>
-      </c>
-      <c r="U41" s="31">
-        <v>600</v>
-      </c>
-      <c r="V41" s="31">
-        <v>600</v>
-      </c>
-      <c r="W41" s="31">
-        <v>600</v>
-      </c>
-      <c r="X41" s="31">
-        <v>600</v>
-      </c>
-      <c r="Y41" s="31">
-        <v>600</v>
-      </c>
-      <c r="Z41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AA41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AB41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AC41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AD41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AE41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AF41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AG41" s="31">
+      <c r="H42" s="31">
+        <v>600</v>
+      </c>
+      <c r="I42" s="31">
+        <v>600</v>
+      </c>
+      <c r="J42" s="31">
+        <v>600</v>
+      </c>
+      <c r="K42" s="31">
+        <v>600</v>
+      </c>
+      <c r="L42" s="31">
+        <v>600</v>
+      </c>
+      <c r="M42" s="31">
+        <v>600</v>
+      </c>
+      <c r="N42" s="31">
+        <v>600</v>
+      </c>
+      <c r="O42" s="31">
+        <v>600</v>
+      </c>
+      <c r="P42" s="31">
+        <v>600</v>
+      </c>
+      <c r="Q42" s="31">
+        <v>600</v>
+      </c>
+      <c r="R42" s="31">
+        <v>600</v>
+      </c>
+      <c r="S42" s="31">
+        <v>600</v>
+      </c>
+      <c r="T42" s="31">
+        <v>600</v>
+      </c>
+      <c r="U42" s="31">
+        <v>600</v>
+      </c>
+      <c r="V42" s="31">
+        <v>600</v>
+      </c>
+      <c r="W42" s="31">
+        <v>600</v>
+      </c>
+      <c r="X42" s="31">
+        <v>600</v>
+      </c>
+      <c r="Y42" s="31">
+        <v>600</v>
+      </c>
+      <c r="Z42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AA42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AB42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AC42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AD42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AE42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AF42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AG42" s="31">
         <v>73</v>
       </c>
-      <c r="AH41" s="31">
+      <c r="AH42" s="31">
         <v>74</v>
       </c>
-      <c r="AI41" s="31">
+      <c r="AI42" s="31">
         <v>75</v>
       </c>
-      <c r="AJ41" s="31">
+      <c r="AJ42" s="31">
         <v>76</v>
       </c>
-      <c r="AK41" s="31">
+      <c r="AK42" s="31">
         <v>77</v>
       </c>
-      <c r="AL41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AM41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AN41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AO41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AP41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AQ41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AR41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AS41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AT41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AU41" s="31">
-        <v>600</v>
-      </c>
-      <c r="AV41" s="31">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48" ht="24.75" customHeight="1"/>
+      <c r="AL42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AM42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AN42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AO42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AP42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AQ42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AR42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AS42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AT42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AU42" s="31">
+        <v>600</v>
+      </c>
+      <c r="AV42" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" ht="24.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
